--- a/assets/sample_metadata/mpxv_test_metadata.xlsx
+++ b/assets/sample_metadata/mpxv_test_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyoconnell/Desktop/tostadas/assets/sample_metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ick4\Downloads\sample_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE30C83-3DA3-A94D-B624-C6F9541C9F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9E656B-5A66-41D2-BA52-31EB1E871901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MPXV_Metadata" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="448">
   <si>
     <t>Strategy</t>
   </si>
@@ -1144,9 +1144,6 @@
     <t>Example entries provided here for reference only. All submitted sample metadata must go in sheet "MPXV_Metadata" or will be ignored.</t>
   </si>
   <si>
-    <t>author</t>
-  </si>
-  <si>
     <t>isolate</t>
   </si>
   <si>
@@ -1373,6 +1370,18 @@
   </si>
   <si>
     <t>gff_path</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Monkeypoxvirus </t>
+  </si>
+  <si>
+    <t>This submission is part of a test</t>
+  </si>
+  <si>
+    <t>authors</t>
   </si>
 </sst>
 </file>
@@ -1382,7 +1391,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2088,1004 +2097,1079 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AZ45"/>
+  <dimension ref="A1:BB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="15.1640625" customWidth="1"/>
-    <col min="11" max="11" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="23.5" customWidth="1"/>
-    <col min="14" max="15" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="29" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="13.5" style="17" customWidth="1"/>
-    <col min="33" max="33" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="39" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.5" customWidth="1"/>
-    <col min="41" max="49" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="50" max="52" width="13.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="24.1796875" customWidth="1"/>
+    <col min="6" max="6" width="23.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="15.1796875" customWidth="1"/>
+    <col min="13" max="13" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="23.453125" customWidth="1"/>
+    <col min="16" max="17" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="31" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="13.453125" style="17" customWidth="1"/>
+    <col min="35" max="35" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="36" max="41" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.453125" customWidth="1"/>
+    <col min="43" max="51" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="52" max="54" width="13.453125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>317</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="F1" s="13"/>
+      <c r="M1" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="X1" s="36" t="s">
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="Z1" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="AB1" s="36" t="s">
+      <c r="AD1" s="36" t="s">
         <v>320</v>
       </c>
-      <c r="AG1" s="36" t="s">
+      <c r="AI1" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="AH1" s="36" t="s">
+      <c r="AJ1" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="AQ1" s="36" t="s">
+      <c r="AS1" s="36" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:54" ht="18.75" customHeight="1">
       <c r="A2" s="45" t="s">
+        <v>440</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>409</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>410</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>411</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>444</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>412</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>416</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>417</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>418</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>419</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>420</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>415</v>
+      </c>
+      <c r="O2" s="47" t="s">
+        <v>412</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y2" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z2" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD2" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE2" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF2" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG2" s="48" t="s">
+        <v>421</v>
+      </c>
+      <c r="AH2" s="48" t="s">
+        <v>443</v>
+      </c>
+      <c r="AI2" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ2" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="AK2" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="AL2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="AM2" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="AN2" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="AO2" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="AP2" s="45" t="s">
+        <v>413</v>
+      </c>
+      <c r="AQ2" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="AR2" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="AS2" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="AT2" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="AU2" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="AV2" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="AW2" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="AX2" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="AY2" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="AZ2" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="BA2" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="BB2" s="21" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" ht="18.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E3" t="s">
+        <v>445</v>
+      </c>
+      <c r="F3" t="s">
+        <v>446</v>
+      </c>
+      <c r="G3" t="s">
+        <v>386</v>
+      </c>
+      <c r="M3" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>257</v>
+      </c>
+      <c r="R3" t="s">
+        <v>378</v>
+      </c>
+      <c r="S3" t="s">
+        <v>350</v>
+      </c>
+      <c r="T3" t="s">
+        <v>307</v>
+      </c>
+      <c r="U3" t="s">
+        <v>387</v>
+      </c>
+      <c r="X3" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z3" s="36"/>
+      <c r="AD3" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF3" s="14">
+        <v>40</v>
+      </c>
+      <c r="AG3" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="AH3" s="14"/>
+      <c r="AI3" t="s">
+        <v>390</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>310</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>428</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>433</v>
+      </c>
+      <c r="AS3" s="36"/>
+      <c r="AZ3" s="14">
+        <v>5</v>
+      </c>
+      <c r="BA3" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="BB3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" ht="18.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E4" t="s">
+        <v>445</v>
+      </c>
+      <c r="F4" t="s">
+        <v>446</v>
+      </c>
+      <c r="G4" t="s">
+        <v>393</v>
+      </c>
+      <c r="M4" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>257</v>
+      </c>
+      <c r="R4" t="s">
+        <v>378</v>
+      </c>
+      <c r="S4" t="s">
+        <v>350</v>
+      </c>
+      <c r="T4" t="s">
+        <v>307</v>
+      </c>
+      <c r="U4" t="s">
+        <v>394</v>
+      </c>
+      <c r="X4" t="s">
+        <v>395</v>
+      </c>
+      <c r="Z4" s="36"/>
+      <c r="AD4" t="s">
+        <v>396</v>
+      </c>
+      <c r="AF4" s="14">
+        <v>121</v>
+      </c>
+      <c r="AG4" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="AH4" s="14"/>
+      <c r="AI4" t="s">
+        <v>397</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>310</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>429</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>434</v>
+      </c>
+      <c r="AS4" s="36"/>
+      <c r="AZ4" s="14">
+        <v>8</v>
+      </c>
+      <c r="BA4" s="49" t="s">
+        <v>438</v>
+      </c>
+      <c r="BB4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54" ht="18.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E5" t="s">
+        <v>445</v>
+      </c>
+      <c r="F5" t="s">
+        <v>446</v>
+      </c>
+      <c r="G5" t="s">
+        <v>393</v>
+      </c>
+      <c r="M5" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>257</v>
+      </c>
+      <c r="R5" t="s">
+        <v>378</v>
+      </c>
+      <c r="S5" t="s">
+        <v>350</v>
+      </c>
+      <c r="T5" t="s">
+        <v>307</v>
+      </c>
+      <c r="U5" t="s">
+        <v>394</v>
+      </c>
+      <c r="V5" t="s">
+        <v>379</v>
+      </c>
+      <c r="X5" t="s">
+        <v>400</v>
+      </c>
+      <c r="Z5" s="36"/>
+      <c r="AD5" t="s">
+        <v>401</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>72</v>
+      </c>
+      <c r="AG5" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="AH5" s="14"/>
+      <c r="AI5" t="s">
+        <v>402</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>310</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>430</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>435</v>
+      </c>
+      <c r="AS5" s="36"/>
+      <c r="AZ5" s="14">
+        <v>4</v>
+      </c>
+      <c r="BA5" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="BB5" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" ht="18.75" customHeight="1">
+      <c r="A6" t="s">
         <v>441</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>410</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>411</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>412</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>417</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>418</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>419</v>
-      </c>
-      <c r="I2" s="47" t="s">
-        <v>420</v>
-      </c>
-      <c r="J2" s="47" t="s">
-        <v>421</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>369</v>
-      </c>
-      <c r="L2" s="47" t="s">
-        <v>416</v>
-      </c>
-      <c r="M2" s="47" t="s">
-        <v>413</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="W2" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="X2" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y2" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="Z2" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA2" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="AB2" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="AC2" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="AD2" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="AE2" s="48" t="s">
+      <c r="B6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E6" t="s">
+        <v>445</v>
+      </c>
+      <c r="F6" t="s">
+        <v>446</v>
+      </c>
+      <c r="G6" t="s">
+        <v>404</v>
+      </c>
+      <c r="M6" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>257</v>
+      </c>
+      <c r="R6" t="s">
+        <v>378</v>
+      </c>
+      <c r="S6" t="s">
+        <v>350</v>
+      </c>
+      <c r="T6" t="s">
+        <v>307</v>
+      </c>
+      <c r="U6" t="s">
+        <v>405</v>
+      </c>
+      <c r="V6" t="s">
+        <v>379</v>
+      </c>
+      <c r="X6" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z6" s="36"/>
+      <c r="AD6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AF6" s="14">
+        <v>73</v>
+      </c>
+      <c r="AG6" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="AH6" s="14"/>
+      <c r="AI6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>310</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>431</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>436</v>
+      </c>
+      <c r="AS6" s="36"/>
+      <c r="AZ6" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="BA6" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="BB6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54" ht="18.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>442</v>
+      </c>
+      <c r="B7" t="s">
+        <v>376</v>
+      </c>
+      <c r="E7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G7" t="s">
+        <v>377</v>
+      </c>
+      <c r="M7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>257</v>
+      </c>
+      <c r="R7" t="s">
+        <v>378</v>
+      </c>
+      <c r="S7" t="s">
+        <v>350</v>
+      </c>
+      <c r="T7" t="s">
+        <v>307</v>
+      </c>
+      <c r="U7" t="s">
+        <v>262</v>
+      </c>
+      <c r="V7" t="s">
+        <v>379</v>
+      </c>
+      <c r="X7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z7" s="36"/>
+      <c r="AD7" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF7" s="14">
+        <v>247</v>
+      </c>
+      <c r="AG7" s="49" t="s">
         <v>422</v>
       </c>
-      <c r="AF2" s="48" t="s">
-        <v>444</v>
-      </c>
-      <c r="AG2" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="AH2" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="AI2" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="AJ2" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="AK2" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="AL2" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="AM2" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="AN2" s="45" t="s">
+      <c r="AH7" s="49"/>
+      <c r="AI7" t="s">
+        <v>382</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>310</v>
+      </c>
+      <c r="AP7" t="s">
         <v>414</v>
       </c>
-      <c r="AO2" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="AP2" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="AQ2" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="AR2" s="20" t="s">
-        <v>328</v>
-      </c>
-      <c r="AS2" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="AT2" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="AU2" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="AV2" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="AW2" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="AX2" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="AY2" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="AZ2" s="21" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="3" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>385</v>
-      </c>
-      <c r="B3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E3" t="s">
-        <v>387</v>
-      </c>
-      <c r="K3" t="s">
-        <v>386</v>
-      </c>
-      <c r="O3" t="s">
-        <v>257</v>
-      </c>
-      <c r="P3" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>350</v>
-      </c>
-      <c r="R3" t="s">
-        <v>307</v>
-      </c>
-      <c r="S3" t="s">
-        <v>388</v>
-      </c>
-      <c r="V3" t="s">
-        <v>389</v>
-      </c>
-      <c r="X3" s="36"/>
-      <c r="AB3" t="s">
-        <v>390</v>
-      </c>
-      <c r="AD3" s="14">
-        <v>40</v>
-      </c>
-      <c r="AE3" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="AF3" s="14"/>
-      <c r="AG3" t="s">
-        <v>391</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>216</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>310</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>415</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>429</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>434</v>
-      </c>
-      <c r="AQ3" s="36"/>
-      <c r="AX3" s="14">
-        <v>5</v>
-      </c>
-      <c r="AY3" s="50" t="s">
-        <v>438</v>
-      </c>
-      <c r="AZ3" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B4" t="s">
-        <v>393</v>
-      </c>
-      <c r="E4" t="s">
-        <v>394</v>
-      </c>
-      <c r="K4" t="s">
-        <v>393</v>
-      </c>
-      <c r="O4" t="s">
-        <v>257</v>
-      </c>
-      <c r="P4" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>350</v>
-      </c>
-      <c r="R4" t="s">
-        <v>307</v>
-      </c>
-      <c r="S4" t="s">
-        <v>395</v>
-      </c>
-      <c r="V4" t="s">
-        <v>396</v>
-      </c>
-      <c r="X4" s="36"/>
-      <c r="AB4" t="s">
-        <v>397</v>
-      </c>
-      <c r="AD4" s="14">
-        <v>121</v>
-      </c>
-      <c r="AE4" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="AF4" s="14"/>
-      <c r="AG4" t="s">
-        <v>398</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>216</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>310</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>415</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>430</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>435</v>
-      </c>
-      <c r="AQ4" s="36"/>
-      <c r="AX4" s="14">
-        <v>8</v>
-      </c>
-      <c r="AY4" s="49" t="s">
-        <v>439</v>
-      </c>
-      <c r="AZ4" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>399</v>
-      </c>
-      <c r="B5" t="s">
-        <v>400</v>
-      </c>
-      <c r="E5" t="s">
-        <v>394</v>
-      </c>
-      <c r="K5" t="s">
-        <v>400</v>
-      </c>
-      <c r="O5" t="s">
-        <v>257</v>
-      </c>
-      <c r="P5" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>350</v>
-      </c>
-      <c r="R5" t="s">
-        <v>307</v>
-      </c>
-      <c r="S5" t="s">
-        <v>395</v>
-      </c>
-      <c r="T5" t="s">
-        <v>380</v>
-      </c>
-      <c r="V5" t="s">
-        <v>401</v>
-      </c>
-      <c r="X5" s="36"/>
-      <c r="AB5" t="s">
-        <v>402</v>
-      </c>
-      <c r="AD5" s="14">
-        <v>72</v>
-      </c>
-      <c r="AE5" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="AF5" s="14"/>
-      <c r="AG5" t="s">
-        <v>403</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>216</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>310</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>415</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>431</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>436</v>
-      </c>
-      <c r="AQ5" s="36"/>
-      <c r="AX5" s="14">
-        <v>4</v>
-      </c>
-      <c r="AY5" s="50" t="s">
-        <v>440</v>
-      </c>
-      <c r="AZ5" s="14">
+      <c r="AQ7" t="s">
+        <v>427</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>432</v>
+      </c>
+      <c r="AS7" s="36"/>
+      <c r="AZ7" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="BA7" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="BB7" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>442</v>
-      </c>
-      <c r="B6" t="s">
-        <v>404</v>
-      </c>
-      <c r="E6" t="s">
-        <v>405</v>
-      </c>
-      <c r="K6" t="s">
-        <v>404</v>
-      </c>
-      <c r="O6" t="s">
-        <v>257</v>
-      </c>
-      <c r="P6" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>350</v>
-      </c>
-      <c r="R6" t="s">
-        <v>307</v>
-      </c>
-      <c r="S6" t="s">
-        <v>406</v>
-      </c>
-      <c r="T6" t="s">
-        <v>380</v>
-      </c>
-      <c r="V6" t="s">
-        <v>381</v>
-      </c>
-      <c r="X6" s="36"/>
-      <c r="AB6" t="s">
-        <v>407</v>
-      </c>
-      <c r="AD6" s="14">
-        <v>73</v>
-      </c>
-      <c r="AE6" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="AF6" s="14"/>
-      <c r="AG6" t="s">
-        <v>408</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>216</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>310</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>432</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>437</v>
-      </c>
-      <c r="AQ6" s="36"/>
-      <c r="AX6" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="AY6" s="50" t="s">
-        <v>406</v>
-      </c>
-      <c r="AZ6" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>443</v>
-      </c>
-      <c r="B7" t="s">
-        <v>377</v>
-      </c>
-      <c r="E7" t="s">
-        <v>378</v>
-      </c>
-      <c r="K7" t="s">
-        <v>377</v>
-      </c>
-      <c r="O7" t="s">
-        <v>257</v>
-      </c>
-      <c r="P7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>350</v>
-      </c>
-      <c r="R7" t="s">
-        <v>307</v>
-      </c>
-      <c r="S7" t="s">
-        <v>262</v>
-      </c>
-      <c r="T7" t="s">
-        <v>380</v>
-      </c>
-      <c r="V7" t="s">
-        <v>381</v>
-      </c>
-      <c r="X7" s="36"/>
-      <c r="AB7" t="s">
-        <v>382</v>
-      </c>
-      <c r="AD7" s="14">
-        <v>247</v>
-      </c>
-      <c r="AE7" s="49" t="s">
-        <v>423</v>
-      </c>
-      <c r="AF7" s="49"/>
-      <c r="AG7" t="s">
-        <v>383</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>216</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>310</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>415</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>428</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>433</v>
-      </c>
-      <c r="AQ7" s="36"/>
-      <c r="AX7" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="AY7" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="AZ7" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X8" s="36"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
+    <row r="8" spans="1:54" ht="18.75" customHeight="1">
+      <c r="Z8" s="36"/>
       <c r="AF8" s="14"/>
-      <c r="AQ8" s="36"/>
-    </row>
-    <row r="9" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K9" s="36"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="X9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-      <c r="AQ9" s="36"/>
-    </row>
-    <row r="10" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K10" s="36"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="X10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="36"/>
-      <c r="AQ10" s="36"/>
-    </row>
-    <row r="11" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K11" s="36"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="X11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="36"/>
-      <c r="AQ11" s="36"/>
-    </row>
-    <row r="12" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K12" s="36"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="X12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="36"/>
-      <c r="AQ12" s="36"/>
-    </row>
-    <row r="13" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K13" s="36"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="X13" s="36"/>
-      <c r="AB13" s="36"/>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="36"/>
-      <c r="AQ13" s="36"/>
-    </row>
-    <row r="14" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K14" s="36"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="X14" s="36"/>
-      <c r="AB14" s="36"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="36"/>
-      <c r="AQ14" s="36"/>
-    </row>
-    <row r="15" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K15" s="36"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="X15" s="36"/>
-      <c r="AB15" s="36"/>
-      <c r="AG15" s="36"/>
-      <c r="AH15" s="36"/>
-      <c r="AQ15" s="36"/>
-    </row>
-    <row r="16" spans="1:52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K16" s="36"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="X16" s="36"/>
-      <c r="AB16" s="36"/>
-      <c r="AG16" s="36"/>
-      <c r="AH16" s="36"/>
-      <c r="AQ16" s="36"/>
-    </row>
-    <row r="17" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K17" s="36"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="X17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36"/>
-      <c r="AQ17" s="36"/>
-    </row>
-    <row r="18" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K18" s="36"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="X18" s="36"/>
-      <c r="AB18" s="36"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="36"/>
-      <c r="AQ18" s="36"/>
-    </row>
-    <row r="19" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K19" s="36"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="X19" s="36"/>
-      <c r="AB19" s="36"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="36"/>
-      <c r="AQ19" s="36"/>
-    </row>
-    <row r="20" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K20" s="36"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="X20" s="36"/>
-      <c r="AB20" s="36"/>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="36"/>
-      <c r="AQ20" s="36"/>
-    </row>
-    <row r="21" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K21" s="36"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="X21" s="36"/>
-      <c r="AB21" s="36"/>
-      <c r="AG21" s="36"/>
-      <c r="AH21" s="36"/>
-      <c r="AQ21" s="36"/>
-    </row>
-    <row r="22" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K22" s="36"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="X22" s="36"/>
-      <c r="AB22" s="36"/>
-      <c r="AG22" s="36"/>
-      <c r="AH22" s="36"/>
-      <c r="AQ22" s="36"/>
-    </row>
-    <row r="23" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K23" s="36"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="X23" s="36"/>
-      <c r="AB23" s="36"/>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="36"/>
-      <c r="AQ23" s="36"/>
-    </row>
-    <row r="24" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K24" s="36"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="X24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="36"/>
-      <c r="AQ24" s="36"/>
-    </row>
-    <row r="25" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K25" s="36"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="X25" s="36"/>
-      <c r="AB25" s="36"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="36"/>
-      <c r="AQ25" s="36"/>
-    </row>
-    <row r="26" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K26" s="36"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="X26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AG26" s="36"/>
-      <c r="AH26" s="36"/>
-      <c r="AQ26" s="36"/>
-    </row>
-    <row r="27" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K27" s="36"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="X27" s="36"/>
-      <c r="AB27" s="36"/>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="36"/>
-      <c r="AQ27" s="36"/>
-    </row>
-    <row r="28" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K28" s="36"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="X28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AG28" s="36"/>
-      <c r="AH28" s="36"/>
-      <c r="AQ28" s="36"/>
-    </row>
-    <row r="29" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K29" s="36"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="X29" s="36"/>
-      <c r="AB29" s="36"/>
-      <c r="AG29" s="36"/>
-      <c r="AH29" s="36"/>
-      <c r="AQ29" s="36"/>
-    </row>
-    <row r="30" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K30" s="36"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="X30" s="36"/>
-      <c r="AB30" s="36"/>
-      <c r="AG30" s="36"/>
-      <c r="AH30" s="36"/>
-      <c r="AQ30" s="36"/>
-    </row>
-    <row r="31" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K31" s="36"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="X31" s="36"/>
-      <c r="AB31" s="36"/>
-      <c r="AG31" s="36"/>
-      <c r="AH31" s="36"/>
-      <c r="AQ31" s="36"/>
-    </row>
-    <row r="32" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K32" s="36"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="X32" s="36"/>
-      <c r="AB32" s="36"/>
-      <c r="AG32" s="36"/>
-      <c r="AH32" s="36"/>
-      <c r="AQ32" s="36"/>
-    </row>
-    <row r="33" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K33" s="36"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="X33" s="36"/>
-      <c r="AB33" s="36"/>
-      <c r="AG33" s="36"/>
-      <c r="AH33" s="36"/>
-      <c r="AQ33" s="36"/>
-    </row>
-    <row r="34" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K34" s="36"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="X34" s="36"/>
-      <c r="AB34" s="36"/>
-      <c r="AG34" s="36"/>
-      <c r="AH34" s="36"/>
-      <c r="AQ34" s="36"/>
-    </row>
-    <row r="35" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K35" s="36"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="X35" s="36"/>
-      <c r="AB35" s="36"/>
-      <c r="AG35" s="36"/>
-      <c r="AH35" s="36"/>
-      <c r="AQ35" s="36"/>
-    </row>
-    <row r="36" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K36" s="36"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="X36" s="36"/>
-      <c r="AB36" s="36"/>
-      <c r="AG36" s="36"/>
-      <c r="AH36" s="36"/>
-      <c r="AQ36" s="36"/>
-    </row>
-    <row r="37" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K37" s="36"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="X37" s="36"/>
-      <c r="AB37" s="36"/>
-      <c r="AG37" s="36"/>
-      <c r="AH37" s="36"/>
-      <c r="AQ37" s="36"/>
-    </row>
-    <row r="38" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K38" s="36"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="X38" s="36"/>
-      <c r="AB38" s="36"/>
-      <c r="AG38" s="36"/>
-      <c r="AH38" s="36"/>
-      <c r="AQ38" s="36"/>
-    </row>
-    <row r="39" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K39" s="36"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="X39" s="36"/>
-      <c r="AB39" s="36"/>
-      <c r="AG39" s="36"/>
-      <c r="AH39" s="36"/>
-      <c r="AQ39" s="36"/>
-    </row>
-    <row r="40" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K40" s="36"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="X40" s="36"/>
-      <c r="AB40" s="36"/>
-      <c r="AG40" s="36"/>
-      <c r="AH40" s="36"/>
-      <c r="AQ40" s="36"/>
-    </row>
-    <row r="41" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K41" s="36"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="X41" s="36"/>
-      <c r="AB41" s="36"/>
-      <c r="AG41" s="36"/>
-      <c r="AH41" s="36"/>
-      <c r="AQ41" s="36"/>
-    </row>
-    <row r="42" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K42" s="36"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="X42" s="36"/>
-      <c r="AB42" s="36"/>
-      <c r="AG42" s="36"/>
-      <c r="AH42" s="36"/>
-      <c r="AQ42" s="36"/>
-    </row>
-    <row r="43" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K43" s="36"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="X43" s="36"/>
-      <c r="AB43" s="36"/>
-      <c r="AG43" s="36"/>
-      <c r="AH43" s="36"/>
-      <c r="AQ43" s="36"/>
-    </row>
-    <row r="44" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K44" s="36"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="X44" s="36"/>
-      <c r="AB44" s="36"/>
-      <c r="AG44" s="36"/>
-      <c r="AH44" s="36"/>
-      <c r="AQ44" s="36"/>
-    </row>
-    <row r="45" spans="11:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K45" s="36"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="X45" s="36"/>
-      <c r="AB45" s="36"/>
-      <c r="AG45" s="36"/>
-      <c r="AH45" s="36"/>
-      <c r="AQ45" s="36"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AS8" s="36"/>
+    </row>
+    <row r="9" spans="1:54" ht="18.75" customHeight="1">
+      <c r="F9" s="13"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="Z9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AS9" s="36"/>
+    </row>
+    <row r="10" spans="1:54" ht="18.75" customHeight="1">
+      <c r="F10" s="13"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="Z10" s="36"/>
+      <c r="AD10" s="36"/>
+      <c r="AI10" s="36"/>
+      <c r="AJ10" s="36"/>
+      <c r="AS10" s="36"/>
+    </row>
+    <row r="11" spans="1:54" ht="18.75" customHeight="1">
+      <c r="F11" s="13"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="Z11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="36"/>
+      <c r="AS11" s="36"/>
+    </row>
+    <row r="12" spans="1:54" ht="18.75" customHeight="1">
+      <c r="F12" s="13"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="Z12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="36"/>
+      <c r="AS12" s="36"/>
+    </row>
+    <row r="13" spans="1:54" ht="18.75" customHeight="1">
+      <c r="F13" s="13"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="Z13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="36"/>
+      <c r="AS13" s="36"/>
+    </row>
+    <row r="14" spans="1:54" ht="18.75" customHeight="1">
+      <c r="F14" s="13"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="Z14" s="36"/>
+      <c r="AD14" s="36"/>
+      <c r="AI14" s="36"/>
+      <c r="AJ14" s="36"/>
+      <c r="AS14" s="36"/>
+    </row>
+    <row r="15" spans="1:54" ht="18.75" customHeight="1">
+      <c r="F15" s="13"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="Z15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="36"/>
+      <c r="AS15" s="36"/>
+    </row>
+    <row r="16" spans="1:54" ht="18.75" customHeight="1">
+      <c r="F16" s="13"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="Z16" s="36"/>
+      <c r="AD16" s="36"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="36"/>
+      <c r="AS16" s="36"/>
+    </row>
+    <row r="17" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F17" s="13"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="Z17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="36"/>
+      <c r="AS17" s="36"/>
+    </row>
+    <row r="18" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F18" s="13"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="Z18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="36"/>
+      <c r="AS18" s="36"/>
+    </row>
+    <row r="19" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F19" s="13"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="Z19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="36"/>
+      <c r="AS19" s="36"/>
+    </row>
+    <row r="20" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F20" s="13"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="Z20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="36"/>
+      <c r="AS20" s="36"/>
+    </row>
+    <row r="21" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F21" s="13"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="Z21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AI21" s="36"/>
+      <c r="AJ21" s="36"/>
+      <c r="AS21" s="36"/>
+    </row>
+    <row r="22" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F22" s="13"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="Z22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AI22" s="36"/>
+      <c r="AJ22" s="36"/>
+      <c r="AS22" s="36"/>
+    </row>
+    <row r="23" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F23" s="13"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="Z23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AI23" s="36"/>
+      <c r="AJ23" s="36"/>
+      <c r="AS23" s="36"/>
+    </row>
+    <row r="24" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F24" s="13"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="Z24" s="36"/>
+      <c r="AD24" s="36"/>
+      <c r="AI24" s="36"/>
+      <c r="AJ24" s="36"/>
+      <c r="AS24" s="36"/>
+    </row>
+    <row r="25" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F25" s="13"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="Z25" s="36"/>
+      <c r="AD25" s="36"/>
+      <c r="AI25" s="36"/>
+      <c r="AJ25" s="36"/>
+      <c r="AS25" s="36"/>
+    </row>
+    <row r="26" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F26" s="13"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="Z26" s="36"/>
+      <c r="AD26" s="36"/>
+      <c r="AI26" s="36"/>
+      <c r="AJ26" s="36"/>
+      <c r="AS26" s="36"/>
+    </row>
+    <row r="27" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F27" s="13"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="Z27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AI27" s="36"/>
+      <c r="AJ27" s="36"/>
+      <c r="AS27" s="36"/>
+    </row>
+    <row r="28" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F28" s="13"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="Z28" s="36"/>
+      <c r="AD28" s="36"/>
+      <c r="AI28" s="36"/>
+      <c r="AJ28" s="36"/>
+      <c r="AS28" s="36"/>
+    </row>
+    <row r="29" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F29" s="13"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="Z29" s="36"/>
+      <c r="AD29" s="36"/>
+      <c r="AI29" s="36"/>
+      <c r="AJ29" s="36"/>
+      <c r="AS29" s="36"/>
+    </row>
+    <row r="30" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F30" s="13"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="Z30" s="36"/>
+      <c r="AD30" s="36"/>
+      <c r="AI30" s="36"/>
+      <c r="AJ30" s="36"/>
+      <c r="AS30" s="36"/>
+    </row>
+    <row r="31" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F31" s="13"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="Z31" s="36"/>
+      <c r="AD31" s="36"/>
+      <c r="AI31" s="36"/>
+      <c r="AJ31" s="36"/>
+      <c r="AS31" s="36"/>
+    </row>
+    <row r="32" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F32" s="13"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="Z32" s="36"/>
+      <c r="AD32" s="36"/>
+      <c r="AI32" s="36"/>
+      <c r="AJ32" s="36"/>
+      <c r="AS32" s="36"/>
+    </row>
+    <row r="33" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F33" s="13"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="Z33" s="36"/>
+      <c r="AD33" s="36"/>
+      <c r="AI33" s="36"/>
+      <c r="AJ33" s="36"/>
+      <c r="AS33" s="36"/>
+    </row>
+    <row r="34" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F34" s="13"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="Z34" s="36"/>
+      <c r="AD34" s="36"/>
+      <c r="AI34" s="36"/>
+      <c r="AJ34" s="36"/>
+      <c r="AS34" s="36"/>
+    </row>
+    <row r="35" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F35" s="13"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="Z35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AI35" s="36"/>
+      <c r="AJ35" s="36"/>
+      <c r="AS35" s="36"/>
+    </row>
+    <row r="36" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F36" s="13"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="Z36" s="36"/>
+      <c r="AD36" s="36"/>
+      <c r="AI36" s="36"/>
+      <c r="AJ36" s="36"/>
+      <c r="AS36" s="36"/>
+    </row>
+    <row r="37" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F37" s="13"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="Z37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AI37" s="36"/>
+      <c r="AJ37" s="36"/>
+      <c r="AS37" s="36"/>
+    </row>
+    <row r="38" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F38" s="13"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="Z38" s="36"/>
+      <c r="AD38" s="36"/>
+      <c r="AI38" s="36"/>
+      <c r="AJ38" s="36"/>
+      <c r="AS38" s="36"/>
+    </row>
+    <row r="39" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F39" s="13"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="Z39" s="36"/>
+      <c r="AD39" s="36"/>
+      <c r="AI39" s="36"/>
+      <c r="AJ39" s="36"/>
+      <c r="AS39" s="36"/>
+    </row>
+    <row r="40" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F40" s="13"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="Z40" s="36"/>
+      <c r="AD40" s="36"/>
+      <c r="AI40" s="36"/>
+      <c r="AJ40" s="36"/>
+      <c r="AS40" s="36"/>
+    </row>
+    <row r="41" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F41" s="13"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="Z41" s="36"/>
+      <c r="AD41" s="36"/>
+      <c r="AI41" s="36"/>
+      <c r="AJ41" s="36"/>
+      <c r="AS41" s="36"/>
+    </row>
+    <row r="42" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F42" s="13"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="Z42" s="36"/>
+      <c r="AD42" s="36"/>
+      <c r="AI42" s="36"/>
+      <c r="AJ42" s="36"/>
+      <c r="AS42" s="36"/>
+    </row>
+    <row r="43" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F43" s="13"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="Z43" s="36"/>
+      <c r="AD43" s="36"/>
+      <c r="AI43" s="36"/>
+      <c r="AJ43" s="36"/>
+      <c r="AS43" s="36"/>
+    </row>
+    <row r="44" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F44" s="13"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="Z44" s="36"/>
+      <c r="AD44" s="36"/>
+      <c r="AI44" s="36"/>
+      <c r="AJ44" s="36"/>
+      <c r="AS44" s="36"/>
+    </row>
+    <row r="45" spans="6:45" ht="18.75" customHeight="1">
+      <c r="F45" s="13"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="Z45" s="36"/>
+      <c r="AD45" s="36"/>
+      <c r="AI45" s="36"/>
+      <c r="AJ45" s="36"/>
+      <c r="AS45" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3104,27 +3188,27 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="35" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="35" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>317</v>
       </c>
@@ -3147,7 +3231,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="18.75" customHeight="1">
       <c r="A2" s="20" t="s">
         <v>222</v>
       </c>
@@ -3254,7 +3338,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="18.75" customHeight="1">
       <c r="A3" t="s">
         <v>330</v>
       </c>
@@ -3355,7 +3439,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="18.75" customHeight="1">
       <c r="A4" t="s">
         <v>339</v>
       </c>
@@ -3453,7 +3537,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" ht="18.75" customHeight="1">
       <c r="D5" s="36"/>
       <c r="M5" s="36"/>
       <c r="Q5" s="36"/>
@@ -3461,7 +3545,7 @@
       <c r="U5" s="36"/>
       <c r="AC5" s="36"/>
     </row>
-    <row r="6" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="18.75" customHeight="1">
       <c r="D6" s="36"/>
       <c r="M6" s="36"/>
       <c r="Q6" s="36"/>
@@ -3469,7 +3553,7 @@
       <c r="U6" s="36"/>
       <c r="AC6" s="36"/>
     </row>
-    <row r="7" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="18.75" customHeight="1">
       <c r="D7" s="36"/>
       <c r="M7" s="36"/>
       <c r="Q7" s="36"/>
@@ -3477,7 +3561,7 @@
       <c r="U7" s="36"/>
       <c r="AC7" s="36"/>
     </row>
-    <row r="8" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="18.75" customHeight="1">
       <c r="A8" s="39" t="s">
         <v>341</v>
       </c>
@@ -3490,7 +3574,7 @@
       <c r="U8" s="36"/>
       <c r="AC8" s="36"/>
     </row>
-    <row r="9" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" ht="18.75" customHeight="1">
       <c r="A9" t="s">
         <v>317</v>
       </c>
@@ -3513,7 +3597,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="18.75" customHeight="1">
       <c r="A10" s="20" t="s">
         <v>222</v>
       </c>
@@ -3620,7 +3704,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="18.75" customHeight="1">
       <c r="A11" t="s">
         <v>330</v>
       </c>
@@ -3668,7 +3752,7 @@
       <c r="U11" s="36"/>
       <c r="AC11" s="36"/>
     </row>
-    <row r="12" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="18.75" customHeight="1">
       <c r="A12" t="s">
         <v>342</v>
       </c>
@@ -3710,7 +3794,7 @@
       <c r="U12" s="36"/>
       <c r="AC12" s="36"/>
     </row>
-    <row r="13" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="18.75" customHeight="1">
       <c r="D13" s="36"/>
       <c r="M13" s="36"/>
       <c r="Q13" s="36"/>
@@ -3718,7 +3802,7 @@
       <c r="U13" s="36"/>
       <c r="AC13" s="36"/>
     </row>
-    <row r="14" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="18.75" customHeight="1">
       <c r="A14" s="39" t="s">
         <v>347</v>
       </c>
@@ -3731,7 +3815,7 @@
       <c r="U14" s="36"/>
       <c r="AC14" s="36"/>
     </row>
-    <row r="15" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="18.75" customHeight="1">
       <c r="A15" t="s">
         <v>317</v>
       </c>
@@ -3754,7 +3838,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="18.75" customHeight="1">
       <c r="A16" s="20" t="s">
         <v>222</v>
       </c>
@@ -3861,7 +3945,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" ht="18.75" customHeight="1">
       <c r="A17" t="s">
         <v>348</v>
       </c>
@@ -3940,7 +4024,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="18.75" customHeight="1">
       <c r="A18" t="s">
         <v>357</v>
       </c>
@@ -4002,7 +4086,7 @@
       </c>
       <c r="AC18" s="36"/>
     </row>
-    <row r="19" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" ht="18.75" customHeight="1">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -4052,7 +4136,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" ht="18.75" customHeight="1">
       <c r="D20" s="36"/>
       <c r="M20" s="36"/>
       <c r="Q20" s="36"/>
@@ -4060,7 +4144,7 @@
       <c r="U20" s="36"/>
       <c r="AC20" s="36"/>
     </row>
-    <row r="21" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" ht="18.75" customHeight="1">
       <c r="D21" s="36"/>
       <c r="M21" s="36"/>
       <c r="Q21" s="36"/>
@@ -4068,7 +4152,7 @@
       <c r="U21" s="36"/>
       <c r="AC21" s="36"/>
     </row>
-    <row r="22" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" ht="18.75" customHeight="1">
       <c r="D22" s="36"/>
       <c r="M22" s="36"/>
       <c r="Q22" s="36"/>
@@ -4076,7 +4160,7 @@
       <c r="U22" s="36"/>
       <c r="AC22" s="36"/>
     </row>
-    <row r="23" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" ht="18.75" customHeight="1">
       <c r="A23" s="41"/>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
@@ -4093,7 +4177,7 @@
       <c r="U23" s="36"/>
       <c r="AC23" s="36"/>
     </row>
-    <row r="24" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="18.75" customHeight="1">
       <c r="A24" s="41"/>
       <c r="B24" s="44" t="s">
         <v>367</v>
@@ -4112,7 +4196,7 @@
       <c r="U24" s="36"/>
       <c r="AC24" s="36"/>
     </row>
-    <row r="25" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" ht="18.75" customHeight="1">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
@@ -4129,7 +4213,7 @@
       <c r="U25" s="36"/>
       <c r="AC25" s="36"/>
     </row>
-    <row r="26" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" ht="18.75" customHeight="1">
       <c r="A26" s="41"/>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
@@ -4146,7 +4230,7 @@
       <c r="U26" s="36"/>
       <c r="AC26" s="36"/>
     </row>
-    <row r="27" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" ht="18.75" customHeight="1">
       <c r="A27" s="41"/>
       <c r="B27" s="41"/>
       <c r="C27" s="41"/>
@@ -4163,7 +4247,7 @@
       <c r="U27" s="36"/>
       <c r="AC27" s="36"/>
     </row>
-    <row r="28" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" ht="18.75" customHeight="1">
       <c r="D28" s="36"/>
       <c r="M28" s="36"/>
       <c r="Q28" s="36"/>
@@ -4171,7 +4255,7 @@
       <c r="U28" s="36"/>
       <c r="AC28" s="36"/>
     </row>
-    <row r="29" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" ht="18.75" customHeight="1">
       <c r="D29" s="36"/>
       <c r="M29" s="36"/>
       <c r="Q29" s="36"/>
@@ -4179,7 +4263,7 @@
       <c r="U29" s="36"/>
       <c r="AC29" s="36"/>
     </row>
-    <row r="30" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" ht="18.75" customHeight="1">
       <c r="D30" s="36"/>
       <c r="M30" s="36"/>
       <c r="Q30" s="36"/>
@@ -4201,30 +4285,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="29" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="29" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="18.75" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>222</v>
       </c>
@@ -4346,7 +4430,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" ht="18.75" customHeight="1">
       <c r="A2" s="24" t="s">
         <v>301</v>
       </c>
@@ -4479,24 +4563,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="19" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="31" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.453125" style="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="31" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" ht="18.75" customHeight="1">
       <c r="A2" t="s">
         <v>222</v>
       </c>
@@ -4591,7 +4675,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="18.75" customHeight="1">
       <c r="A3" t="s">
         <v>278</v>
       </c>
@@ -4674,7 +4758,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="18.75" customHeight="1">
       <c r="O4" s="19"/>
     </row>
   </sheetData>
@@ -4691,20 +4775,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="31" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="31" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>222</v>
       </c>
@@ -4799,7 +4883,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" ht="18.75" customHeight="1">
       <c r="A2" t="s">
         <v>253</v>
       </c>
@@ -4908,22 +4992,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -4936,7 +5020,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="18.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4953,7 +5037,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4970,7 +5054,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="18.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -4987,7 +5071,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="18.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -5004,7 +5088,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="18.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -5021,7 +5105,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="18.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -5038,7 +5122,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="18.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -5055,7 +5139,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="18.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -5072,7 +5156,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="18.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -5089,7 +5173,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="18.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -5106,7 +5190,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="18.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -5123,7 +5207,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="18.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -5140,7 +5224,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="18.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -5157,7 +5241,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="18.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -5174,7 +5258,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="18.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -5191,7 +5275,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="18.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -5208,7 +5292,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="18.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -5225,7 +5309,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="18.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
@@ -5242,7 +5326,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="18.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -5259,7 +5343,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="18.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -5276,7 +5360,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="18.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -5293,7 +5377,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="18.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -5310,7 +5394,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="18.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -5327,7 +5411,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="18.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -5342,7 +5426,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="18.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
@@ -5359,7 +5443,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="18.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
@@ -5376,7 +5460,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="18.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
@@ -5393,7 +5477,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="18.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
@@ -5410,7 +5494,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="18.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -5427,7 +5511,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="18.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
@@ -5442,7 +5526,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="18.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
@@ -5459,7 +5543,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="18.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
@@ -5476,7 +5560,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="18.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -5493,7 +5577,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="18.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -5508,7 +5592,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="18.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
@@ -5523,7 +5607,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="18.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
@@ -5540,7 +5624,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="18.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -5553,7 +5637,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="18.75" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
@@ -5570,7 +5654,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="18.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
@@ -5587,7 +5671,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="18.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
@@ -5604,7 +5688,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="18.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>73</v>
       </c>
@@ -5621,7 +5705,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="18.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>75</v>
       </c>
@@ -5638,7 +5722,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="18.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>77</v>
       </c>
@@ -5655,7 +5739,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="18.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
@@ -5672,7 +5756,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="18.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>81</v>
       </c>
@@ -5687,7 +5771,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="18.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>82</v>
       </c>
@@ -5702,7 +5786,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="18.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
@@ -5719,7 +5803,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="18.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="51"/>
       <c r="C49" s="51"/>
@@ -5732,7 +5816,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="18.75" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>84</v>
       </c>
@@ -5749,7 +5833,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="18.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>85</v>
       </c>
@@ -5766,7 +5850,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="18.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
@@ -5783,7 +5867,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="18.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>89</v>
       </c>
@@ -5800,7 +5884,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="18.75" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>91</v>
       </c>
@@ -5817,7 +5901,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="18.75" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>93</v>
       </c>
@@ -5834,7 +5918,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="18.75" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>95</v>
       </c>
@@ -5851,7 +5935,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="18.75" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
@@ -5868,7 +5952,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="18.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>99</v>
       </c>
@@ -5885,7 +5969,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="18.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>101</v>
       </c>
@@ -5902,7 +5986,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="18.75" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>103</v>
       </c>
@@ -5919,7 +6003,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="18.75" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>105</v>
       </c>
@@ -5936,7 +6020,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="18.75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>107</v>
       </c>
@@ -5953,7 +6037,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="18.75" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>109</v>
       </c>
@@ -5970,7 +6054,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="18.75" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>111</v>
       </c>
@@ -5987,7 +6071,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="18.75" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>113</v>
       </c>
@@ -6004,7 +6088,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="18.75" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>115</v>
       </c>
@@ -6021,7 +6105,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="18.75" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>117</v>
       </c>
@@ -6038,7 +6122,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="18.75" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>119</v>
       </c>
@@ -6055,7 +6139,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="18.75" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>121</v>
       </c>
@@ -6072,7 +6156,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="18.75" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>123</v>
       </c>
@@ -6089,7 +6173,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="18.75" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>125</v>
       </c>
@@ -6106,7 +6190,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="18.75" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>127</v>
       </c>
@@ -6123,7 +6207,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="18.75" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>129</v>
       </c>
@@ -6140,7 +6224,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="18.75" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>131</v>
       </c>
@@ -6157,7 +6241,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="18.75" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>133</v>
       </c>
@@ -6174,7 +6258,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="18.75" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>135</v>
       </c>
@@ -6191,7 +6275,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="18.75" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>137</v>
       </c>
@@ -6208,7 +6292,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="18.75" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>139</v>
       </c>
@@ -6223,7 +6307,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="18.75" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>140</v>
       </c>
@@ -6238,7 +6322,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="18.75" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>141</v>
       </c>
@@ -6255,7 +6339,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="18.75" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>143</v>
       </c>
@@ -6272,7 +6356,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="18.75" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>145</v>
       </c>
@@ -6289,7 +6373,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="18.75" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>147</v>
       </c>
@@ -6306,7 +6390,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="18.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="2"/>
@@ -6319,7 +6403,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="18.75" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>149</v>
       </c>
@@ -6334,7 +6418,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="18.75" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>150</v>
       </c>
@@ -6369,7 +6453,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="18.75" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>153</v>
       </c>
@@ -6404,7 +6488,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="18.75" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>159</v>
       </c>
@@ -6435,7 +6519,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="18.75" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>157</v>
       </c>
@@ -6466,7 +6550,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="18.75" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>154</v>
       </c>
@@ -6495,7 +6579,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="18.75" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>152</v>
       </c>
@@ -6520,7 +6604,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="18.75" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>151</v>
       </c>
@@ -6543,7 +6627,7 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="18.75" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>156</v>
       </c>
@@ -6564,7 +6648,7 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="18.75" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>158</v>
       </c>
@@ -6583,7 +6667,7 @@
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="18.75" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>155</v>
       </c>
@@ -6602,7 +6686,7 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="18.75" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2" t="s">
@@ -6619,7 +6703,7 @@
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="18.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
@@ -6634,7 +6718,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="18.75" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
@@ -6649,7 +6733,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="18.75" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
@@ -6664,7 +6748,7 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="18.75" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="8" t="s">
@@ -6679,7 +6763,7 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="18.75" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="7" t="s">
@@ -6694,7 +6778,7 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="18.75" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
@@ -6709,7 +6793,7 @@
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
     </row>
-    <row r="103" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="18.75" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2" t="s">
@@ -6724,7 +6808,7 @@
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
     </row>
-    <row r="104" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="18.75" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
@@ -6739,7 +6823,7 @@
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
     </row>
-    <row r="105" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="18.75" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1" t="s">
@@ -6754,7 +6838,7 @@
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
     </row>
-    <row r="106" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="18.75" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1" t="s">
@@ -6769,7 +6853,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
     </row>
-    <row r="107" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="18.75" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1" t="s">

--- a/assets/sample_metadata/mpxv_test_metadata.xlsx
+++ b/assets/sample_metadata/mpxv_test_metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ick4\Downloads\sample_metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ick4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9E656B-5A66-41D2-BA52-31EB1E871901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9814FC9-7F48-4CC7-B2AB-D0643043AED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="452">
   <si>
     <t>Strategy</t>
   </si>
@@ -1382,6 +1382,18 @@
   </si>
   <si>
     <t>authors</t>
+  </si>
+  <si>
+    <t>host_sex</t>
+  </si>
+  <si>
+    <t>host_age</t>
+  </si>
+  <si>
+    <t>POX</t>
+  </si>
+  <si>
+    <t>PRJNA849962</t>
   </si>
 </sst>
 </file>
@@ -1391,7 +1403,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1474,6 +1486,13 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1640,7 +1659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1792,6 +1811,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2097,10 +2120,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BB45"/>
+  <dimension ref="A1:BA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2112,23 +2135,23 @@
     <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="15.1796875" customWidth="1"/>
     <col min="13" max="13" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="23.453125" customWidth="1"/>
-    <col min="16" max="17" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="31" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="13.453125" style="17" customWidth="1"/>
-    <col min="35" max="35" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="36" max="41" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.453125" customWidth="1"/>
-    <col min="43" max="51" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="52" max="54" width="13.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.453125" customWidth="1"/>
+    <col min="15" max="16" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="30" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="13.453125" style="17" customWidth="1"/>
+    <col min="34" max="34" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="40" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.453125" customWidth="1"/>
+    <col min="42" max="50" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="13.453125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="18.75" customHeight="1">
+    <row r="1" spans="1:53" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>317</v>
       </c>
@@ -2137,24 +2160,23 @@
         <v>318</v>
       </c>
       <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="Z1" s="36" t="s">
+      <c r="Y1" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="AD1" s="36" t="s">
+      <c r="AC1" s="36" t="s">
         <v>320</v>
       </c>
+      <c r="AH1" s="36" t="s">
+        <v>321</v>
+      </c>
       <c r="AI1" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="AJ1" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="AS1" s="36" t="s">
+      <c r="AR1" s="36" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="18.75" customHeight="1">
+    <row r="2" spans="1:53" ht="18.75" customHeight="1">
       <c r="A2" s="45" t="s">
         <v>440</v>
       </c>
@@ -2197,134 +2219,137 @@
       <c r="N2" s="47" t="s">
         <v>415</v>
       </c>
-      <c r="O2" s="47" t="s">
-        <v>412</v>
+      <c r="O2" s="20" t="s">
+        <v>369</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="S2" s="20" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="T2" s="20" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>233</v>
+        <v>324</v>
       </c>
       <c r="V2" s="20" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="W2" s="20" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="X2" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="Y2" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="Z2" s="37" t="s">
-        <v>231</v>
+      <c r="Y2" s="53" t="s">
+        <v>448</v>
+      </c>
+      <c r="Z2" s="45" t="s">
+        <v>449</v>
       </c>
       <c r="AA2" s="20" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AB2" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC2" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="AD2" s="37" t="s">
+      <c r="AC2" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="AE2" s="20" t="s">
+      <c r="AD2" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="AF2" s="21" t="s">
+      <c r="AE2" s="21" t="s">
         <v>242</v>
       </c>
+      <c r="AF2" s="48" t="s">
+        <v>421</v>
+      </c>
       <c r="AG2" s="48" t="s">
-        <v>421</v>
-      </c>
-      <c r="AH2" s="48" t="s">
         <v>443</v>
       </c>
+      <c r="AH2" s="37" t="s">
+        <v>224</v>
+      </c>
       <c r="AI2" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="AJ2" s="37" t="s">
         <v>288</v>
       </c>
+      <c r="AJ2" s="20" t="s">
+        <v>326</v>
+      </c>
       <c r="AK2" s="20" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="AL2" s="20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM2" s="20" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN2" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="AO2" s="20" t="s">
         <v>327</v>
       </c>
+      <c r="AO2" s="45" t="s">
+        <v>413</v>
+      </c>
       <c r="AP2" s="45" t="s">
-        <v>413</v>
-      </c>
-      <c r="AQ2" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="AR2" s="20" t="s">
+      <c r="AQ2" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="AS2" s="37" t="s">
+      <c r="AR2" s="37" t="s">
         <v>293</v>
       </c>
+      <c r="AS2" s="20" t="s">
+        <v>328</v>
+      </c>
       <c r="AT2" s="20" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="AU2" s="20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AV2" s="20" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AW2" s="20" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="AX2" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="AY2" s="20" t="s">
         <v>300</v>
       </c>
+      <c r="AY2" s="21" t="s">
+        <v>373</v>
+      </c>
       <c r="AZ2" s="21" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="BA2" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="BB2" s="21" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:54" ht="18.75" customHeight="1">
+    <row r="3" spans="1:53" ht="18.75" customHeight="1">
       <c r="A3" t="s">
         <v>384</v>
       </c>
       <c r="B3" t="s">
         <v>385</v>
       </c>
+      <c r="C3" s="54" t="s">
+        <v>450</v>
+      </c>
+      <c r="D3" t="s">
+        <v>451</v>
+      </c>
       <c r="E3" t="s">
         <v>445</v>
       </c>
@@ -2337,80 +2362,86 @@
       <c r="M3" t="s">
         <v>385</v>
       </c>
+      <c r="P3" t="s">
+        <v>257</v>
+      </c>
       <c r="Q3" t="s">
-        <v>257</v>
+        <v>378</v>
       </c>
       <c r="R3" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="S3" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="T3" t="s">
-        <v>307</v>
-      </c>
-      <c r="U3" t="s">
         <v>387</v>
       </c>
-      <c r="X3" t="s">
+      <c r="W3" t="s">
         <v>388</v>
       </c>
-      <c r="Z3" s="36"/>
-      <c r="AD3" t="s">
+      <c r="Y3" s="36"/>
+      <c r="AC3" t="s">
         <v>389</v>
       </c>
-      <c r="AF3" s="14">
+      <c r="AE3" s="14">
         <v>40</v>
       </c>
-      <c r="AG3" s="14" t="s">
+      <c r="AF3" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="AH3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" t="s">
+        <v>390</v>
+      </c>
       <c r="AI3" t="s">
-        <v>390</v>
+        <v>216</v>
       </c>
       <c r="AJ3" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="AK3" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="AL3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="AM3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN3" t="s">
         <v>310</v>
       </c>
+      <c r="AO3" t="s">
+        <v>414</v>
+      </c>
       <c r="AP3" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="AQ3" t="s">
-        <v>428</v>
-      </c>
-      <c r="AR3" t="s">
         <v>433</v>
       </c>
-      <c r="AS3" s="36"/>
-      <c r="AZ3" s="14">
+      <c r="AR3" s="36"/>
+      <c r="AY3" s="14">
         <v>5</v>
       </c>
-      <c r="BA3" s="50" t="s">
+      <c r="AZ3" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="BB3" s="14">
+      <c r="BA3" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:54" ht="18.75" customHeight="1">
+    <row r="4" spans="1:53" ht="18.75" customHeight="1">
       <c r="A4" t="s">
         <v>391</v>
       </c>
       <c r="B4" t="s">
         <v>392</v>
       </c>
+      <c r="C4" s="54" t="s">
+        <v>450</v>
+      </c>
+      <c r="D4" t="s">
+        <v>451</v>
+      </c>
       <c r="E4" t="s">
         <v>445</v>
       </c>
@@ -2423,80 +2454,86 @@
       <c r="M4" t="s">
         <v>392</v>
       </c>
+      <c r="P4" t="s">
+        <v>257</v>
+      </c>
       <c r="Q4" t="s">
-        <v>257</v>
+        <v>378</v>
       </c>
       <c r="R4" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="S4" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="T4" t="s">
-        <v>307</v>
-      </c>
-      <c r="U4" t="s">
         <v>394</v>
       </c>
-      <c r="X4" t="s">
+      <c r="W4" t="s">
         <v>395</v>
       </c>
-      <c r="Z4" s="36"/>
-      <c r="AD4" t="s">
+      <c r="Y4" s="36"/>
+      <c r="AC4" t="s">
         <v>396</v>
       </c>
-      <c r="AF4" s="14">
+      <c r="AE4" s="14">
         <v>121</v>
       </c>
-      <c r="AG4" s="14" t="s">
+      <c r="AF4" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="AH4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" t="s">
+        <v>397</v>
+      </c>
       <c r="AI4" t="s">
-        <v>397</v>
+        <v>216</v>
       </c>
       <c r="AJ4" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="AK4" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="AL4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="AM4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN4" t="s">
         <v>310</v>
       </c>
+      <c r="AO4" t="s">
+        <v>414</v>
+      </c>
       <c r="AP4" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="AQ4" t="s">
-        <v>429</v>
-      </c>
-      <c r="AR4" t="s">
         <v>434</v>
       </c>
-      <c r="AS4" s="36"/>
-      <c r="AZ4" s="14">
+      <c r="AR4" s="36"/>
+      <c r="AY4" s="14">
         <v>8</v>
       </c>
-      <c r="BA4" s="49" t="s">
+      <c r="AZ4" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="BB4" s="14">
+      <c r="BA4" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:54" ht="18.75" customHeight="1">
+    <row r="5" spans="1:53" ht="18.75" customHeight="1">
       <c r="A5" t="s">
         <v>398</v>
       </c>
       <c r="B5" t="s">
         <v>399</v>
       </c>
+      <c r="C5" s="54" t="s">
+        <v>450</v>
+      </c>
+      <c r="D5" t="s">
+        <v>451</v>
+      </c>
       <c r="E5" t="s">
         <v>445</v>
       </c>
@@ -2509,83 +2546,89 @@
       <c r="M5" t="s">
         <v>399</v>
       </c>
+      <c r="P5" t="s">
+        <v>257</v>
+      </c>
       <c r="Q5" t="s">
-        <v>257</v>
+        <v>378</v>
       </c>
       <c r="R5" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="S5" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="T5" t="s">
-        <v>307</v>
+        <v>394</v>
       </c>
       <c r="U5" t="s">
-        <v>394</v>
-      </c>
-      <c r="V5" t="s">
         <v>379</v>
       </c>
-      <c r="X5" t="s">
+      <c r="W5" t="s">
         <v>400</v>
       </c>
-      <c r="Z5" s="36"/>
-      <c r="AD5" t="s">
+      <c r="Y5" s="36"/>
+      <c r="AC5" t="s">
         <v>401</v>
       </c>
-      <c r="AF5" s="14">
+      <c r="AE5" s="14">
         <v>72</v>
       </c>
-      <c r="AG5" s="14" t="s">
+      <c r="AF5" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="AH5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" t="s">
+        <v>402</v>
+      </c>
       <c r="AI5" t="s">
-        <v>402</v>
+        <v>216</v>
       </c>
       <c r="AJ5" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="AK5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>310</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>414</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>430</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>435</v>
+      </c>
+      <c r="AR5" s="36"/>
+      <c r="AY5" s="14">
         <v>4</v>
       </c>
-      <c r="AL5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>310</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>414</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>430</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>435</v>
-      </c>
-      <c r="AS5" s="36"/>
-      <c r="AZ5" s="14">
-        <v>4</v>
-      </c>
-      <c r="BA5" s="50" t="s">
+      <c r="AZ5" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="BB5" s="14">
+      <c r="BA5" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:54" ht="18.75" customHeight="1">
+    <row r="6" spans="1:53" ht="18.75" customHeight="1">
       <c r="A6" t="s">
         <v>441</v>
       </c>
       <c r="B6" t="s">
         <v>403</v>
       </c>
+      <c r="C6" s="54" t="s">
+        <v>450</v>
+      </c>
+      <c r="D6" t="s">
+        <v>451</v>
+      </c>
       <c r="E6" t="s">
         <v>445</v>
       </c>
@@ -2598,83 +2641,89 @@
       <c r="M6" t="s">
         <v>403</v>
       </c>
+      <c r="P6" t="s">
+        <v>257</v>
+      </c>
       <c r="Q6" t="s">
-        <v>257</v>
+        <v>378</v>
       </c>
       <c r="R6" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="S6" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="T6" t="s">
-        <v>307</v>
+        <v>405</v>
       </c>
       <c r="U6" t="s">
+        <v>379</v>
+      </c>
+      <c r="W6" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y6" s="36"/>
+      <c r="AC6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE6" s="14">
+        <v>73</v>
+      </c>
+      <c r="AF6" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="AG6" s="14"/>
+      <c r="AH6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>310</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>431</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>436</v>
+      </c>
+      <c r="AR6" s="36"/>
+      <c r="AY6" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="AZ6" s="50" t="s">
         <v>405</v>
       </c>
-      <c r="V6" t="s">
-        <v>379</v>
-      </c>
-      <c r="X6" t="s">
-        <v>380</v>
-      </c>
-      <c r="Z6" s="36"/>
-      <c r="AD6" t="s">
-        <v>406</v>
-      </c>
-      <c r="AF6" s="14">
-        <v>73</v>
-      </c>
-      <c r="AG6" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="AH6" s="14"/>
-      <c r="AI6" t="s">
-        <v>407</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>216</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>310</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>431</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>436</v>
-      </c>
-      <c r="AS6" s="36"/>
-      <c r="AZ6" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="BA6" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="BB6" s="14">
+      <c r="BA6" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:54" ht="18.75" customHeight="1">
+    <row r="7" spans="1:53" ht="18.75" customHeight="1">
       <c r="A7" t="s">
         <v>442</v>
       </c>
       <c r="B7" t="s">
         <v>376</v>
       </c>
+      <c r="C7" s="54" t="s">
+        <v>450</v>
+      </c>
+      <c r="D7" t="s">
+        <v>451</v>
+      </c>
       <c r="E7" t="s">
         <v>445</v>
       </c>
@@ -2687,489 +2736,382 @@
       <c r="M7" t="s">
         <v>376</v>
       </c>
+      <c r="P7" t="s">
+        <v>257</v>
+      </c>
       <c r="Q7" t="s">
-        <v>257</v>
+        <v>378</v>
       </c>
       <c r="R7" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="S7" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="T7" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="U7" t="s">
+        <v>379</v>
+      </c>
+      <c r="W7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y7" s="36"/>
+      <c r="AC7" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE7" s="14">
+        <v>247</v>
+      </c>
+      <c r="AF7" s="49" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG7" s="49"/>
+      <c r="AH7" t="s">
+        <v>382</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>310</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>414</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>427</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>432</v>
+      </c>
+      <c r="AR7" s="36"/>
+      <c r="AY7" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="AZ7" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="V7" t="s">
-        <v>379</v>
-      </c>
-      <c r="X7" t="s">
-        <v>380</v>
-      </c>
-      <c r="Z7" s="36"/>
-      <c r="AD7" t="s">
-        <v>381</v>
-      </c>
-      <c r="AF7" s="14">
-        <v>247</v>
-      </c>
-      <c r="AG7" s="49" t="s">
-        <v>422</v>
-      </c>
-      <c r="AH7" s="49"/>
-      <c r="AI7" t="s">
-        <v>382</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>216</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>310</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>414</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>427</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>432</v>
-      </c>
-      <c r="AS7" s="36"/>
-      <c r="AZ7" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="BA7" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="BB7" s="14">
+      <c r="BA7" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:54" ht="18.75" customHeight="1">
-      <c r="Z8" s="36"/>
+    <row r="8" spans="1:53" ht="18.75" customHeight="1">
+      <c r="Y8" s="36"/>
+      <c r="AE8" s="14"/>
       <c r="AF8" s="14"/>
       <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AS8" s="36"/>
-    </row>
-    <row r="9" spans="1:54" ht="18.75" customHeight="1">
+      <c r="AR8" s="36"/>
+    </row>
+    <row r="9" spans="1:53" ht="18.75" customHeight="1">
       <c r="F9" s="13"/>
       <c r="M9" s="36"/>
       <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="Z9" s="36"/>
-      <c r="AD9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AH9" s="36"/>
       <c r="AI9" s="36"/>
-      <c r="AJ9" s="36"/>
-      <c r="AS9" s="36"/>
-    </row>
-    <row r="10" spans="1:54" ht="18.75" customHeight="1">
+      <c r="AR9" s="36"/>
+    </row>
+    <row r="10" spans="1:53" ht="18.75" customHeight="1">
       <c r="F10" s="13"/>
       <c r="M10" s="36"/>
       <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="Z10" s="36"/>
-      <c r="AD10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="AC10" s="36"/>
+      <c r="AH10" s="36"/>
       <c r="AI10" s="36"/>
-      <c r="AJ10" s="36"/>
-      <c r="AS10" s="36"/>
-    </row>
-    <row r="11" spans="1:54" ht="18.75" customHeight="1">
+      <c r="AR10" s="36"/>
+    </row>
+    <row r="11" spans="1:53" ht="18.75" customHeight="1">
       <c r="F11" s="13"/>
       <c r="M11" s="36"/>
       <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="Z11" s="36"/>
-      <c r="AD11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AH11" s="36"/>
       <c r="AI11" s="36"/>
-      <c r="AJ11" s="36"/>
-      <c r="AS11" s="36"/>
-    </row>
-    <row r="12" spans="1:54" ht="18.75" customHeight="1">
+      <c r="AR11" s="36"/>
+    </row>
+    <row r="12" spans="1:53" ht="18.75" customHeight="1">
       <c r="F12" s="13"/>
       <c r="M12" s="36"/>
       <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="Z12" s="36"/>
-      <c r="AD12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AH12" s="36"/>
       <c r="AI12" s="36"/>
-      <c r="AJ12" s="36"/>
-      <c r="AS12" s="36"/>
-    </row>
-    <row r="13" spans="1:54" ht="18.75" customHeight="1">
+      <c r="AR12" s="36"/>
+    </row>
+    <row r="13" spans="1:53" ht="18.75" customHeight="1">
       <c r="F13" s="13"/>
       <c r="M13" s="36"/>
       <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="Z13" s="36"/>
-      <c r="AD13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AH13" s="36"/>
       <c r="AI13" s="36"/>
-      <c r="AJ13" s="36"/>
-      <c r="AS13" s="36"/>
-    </row>
-    <row r="14" spans="1:54" ht="18.75" customHeight="1">
+      <c r="AR13" s="36"/>
+    </row>
+    <row r="14" spans="1:53" ht="18.75" customHeight="1">
       <c r="F14" s="13"/>
       <c r="M14" s="36"/>
       <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="Z14" s="36"/>
-      <c r="AD14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AH14" s="36"/>
       <c r="AI14" s="36"/>
-      <c r="AJ14" s="36"/>
-      <c r="AS14" s="36"/>
-    </row>
-    <row r="15" spans="1:54" ht="18.75" customHeight="1">
+      <c r="AR14" s="36"/>
+    </row>
+    <row r="15" spans="1:53" ht="18.75" customHeight="1">
       <c r="F15" s="13"/>
       <c r="M15" s="36"/>
       <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="Z15" s="36"/>
-      <c r="AD15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AH15" s="36"/>
       <c r="AI15" s="36"/>
-      <c r="AJ15" s="36"/>
-      <c r="AS15" s="36"/>
-    </row>
-    <row r="16" spans="1:54" ht="18.75" customHeight="1">
+      <c r="AR15" s="36"/>
+    </row>
+    <row r="16" spans="1:53" ht="18.75" customHeight="1">
       <c r="F16" s="13"/>
       <c r="M16" s="36"/>
       <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="Z16" s="36"/>
-      <c r="AD16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AH16" s="36"/>
       <c r="AI16" s="36"/>
-      <c r="AJ16" s="36"/>
-      <c r="AS16" s="36"/>
-    </row>
-    <row r="17" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AR16" s="36"/>
+    </row>
+    <row r="17" spans="6:44" ht="18.75" customHeight="1">
       <c r="F17" s="13"/>
       <c r="M17" s="36"/>
       <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="Z17" s="36"/>
-      <c r="AD17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AH17" s="36"/>
       <c r="AI17" s="36"/>
-      <c r="AJ17" s="36"/>
-      <c r="AS17" s="36"/>
-    </row>
-    <row r="18" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AR17" s="36"/>
+    </row>
+    <row r="18" spans="6:44" ht="18.75" customHeight="1">
       <c r="F18" s="13"/>
       <c r="M18" s="36"/>
       <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="Z18" s="36"/>
-      <c r="AD18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AH18" s="36"/>
       <c r="AI18" s="36"/>
-      <c r="AJ18" s="36"/>
-      <c r="AS18" s="36"/>
-    </row>
-    <row r="19" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AR18" s="36"/>
+    </row>
+    <row r="19" spans="6:44" ht="18.75" customHeight="1">
       <c r="F19" s="13"/>
       <c r="M19" s="36"/>
       <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="Z19" s="36"/>
-      <c r="AD19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AH19" s="36"/>
       <c r="AI19" s="36"/>
-      <c r="AJ19" s="36"/>
-      <c r="AS19" s="36"/>
-    </row>
-    <row r="20" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AR19" s="36"/>
+    </row>
+    <row r="20" spans="6:44" ht="18.75" customHeight="1">
       <c r="F20" s="13"/>
       <c r="M20" s="36"/>
       <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="Z20" s="36"/>
-      <c r="AD20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AH20" s="36"/>
       <c r="AI20" s="36"/>
-      <c r="AJ20" s="36"/>
-      <c r="AS20" s="36"/>
-    </row>
-    <row r="21" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AR20" s="36"/>
+    </row>
+    <row r="21" spans="6:44" ht="18.75" customHeight="1">
       <c r="F21" s="13"/>
       <c r="M21" s="36"/>
       <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="Z21" s="36"/>
-      <c r="AD21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AH21" s="36"/>
       <c r="AI21" s="36"/>
-      <c r="AJ21" s="36"/>
-      <c r="AS21" s="36"/>
-    </row>
-    <row r="22" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AR21" s="36"/>
+    </row>
+    <row r="22" spans="6:44" ht="18.75" customHeight="1">
       <c r="F22" s="13"/>
       <c r="M22" s="36"/>
       <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="Z22" s="36"/>
-      <c r="AD22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AH22" s="36"/>
       <c r="AI22" s="36"/>
-      <c r="AJ22" s="36"/>
-      <c r="AS22" s="36"/>
-    </row>
-    <row r="23" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AR22" s="36"/>
+    </row>
+    <row r="23" spans="6:44" ht="18.75" customHeight="1">
       <c r="F23" s="13"/>
       <c r="M23" s="36"/>
       <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="Z23" s="36"/>
-      <c r="AD23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AH23" s="36"/>
       <c r="AI23" s="36"/>
-      <c r="AJ23" s="36"/>
-      <c r="AS23" s="36"/>
-    </row>
-    <row r="24" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AR23" s="36"/>
+    </row>
+    <row r="24" spans="6:44" ht="18.75" customHeight="1">
       <c r="F24" s="13"/>
       <c r="M24" s="36"/>
       <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="Z24" s="36"/>
-      <c r="AD24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="AC24" s="36"/>
+      <c r="AH24" s="36"/>
       <c r="AI24" s="36"/>
-      <c r="AJ24" s="36"/>
-      <c r="AS24" s="36"/>
-    </row>
-    <row r="25" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AR24" s="36"/>
+    </row>
+    <row r="25" spans="6:44" ht="18.75" customHeight="1">
       <c r="F25" s="13"/>
       <c r="M25" s="36"/>
       <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="Z25" s="36"/>
-      <c r="AD25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="AC25" s="36"/>
+      <c r="AH25" s="36"/>
       <c r="AI25" s="36"/>
-      <c r="AJ25" s="36"/>
-      <c r="AS25" s="36"/>
-    </row>
-    <row r="26" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AR25" s="36"/>
+    </row>
+    <row r="26" spans="6:44" ht="18.75" customHeight="1">
       <c r="F26" s="13"/>
       <c r="M26" s="36"/>
       <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="Z26" s="36"/>
-      <c r="AD26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="AC26" s="36"/>
+      <c r="AH26" s="36"/>
       <c r="AI26" s="36"/>
-      <c r="AJ26" s="36"/>
-      <c r="AS26" s="36"/>
-    </row>
-    <row r="27" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AR26" s="36"/>
+    </row>
+    <row r="27" spans="6:44" ht="18.75" customHeight="1">
       <c r="F27" s="13"/>
       <c r="M27" s="36"/>
       <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="Z27" s="36"/>
-      <c r="AD27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AH27" s="36"/>
       <c r="AI27" s="36"/>
-      <c r="AJ27" s="36"/>
-      <c r="AS27" s="36"/>
-    </row>
-    <row r="28" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AR27" s="36"/>
+    </row>
+    <row r="28" spans="6:44" ht="18.75" customHeight="1">
       <c r="F28" s="13"/>
       <c r="M28" s="36"/>
       <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="Z28" s="36"/>
-      <c r="AD28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AH28" s="36"/>
       <c r="AI28" s="36"/>
-      <c r="AJ28" s="36"/>
-      <c r="AS28" s="36"/>
-    </row>
-    <row r="29" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AR28" s="36"/>
+    </row>
+    <row r="29" spans="6:44" ht="18.75" customHeight="1">
       <c r="F29" s="13"/>
       <c r="M29" s="36"/>
       <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="Z29" s="36"/>
-      <c r="AD29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="AC29" s="36"/>
+      <c r="AH29" s="36"/>
       <c r="AI29" s="36"/>
-      <c r="AJ29" s="36"/>
-      <c r="AS29" s="36"/>
-    </row>
-    <row r="30" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AR29" s="36"/>
+    </row>
+    <row r="30" spans="6:44" ht="18.75" customHeight="1">
       <c r="F30" s="13"/>
       <c r="M30" s="36"/>
       <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="Z30" s="36"/>
-      <c r="AD30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="AC30" s="36"/>
+      <c r="AH30" s="36"/>
       <c r="AI30" s="36"/>
-      <c r="AJ30" s="36"/>
-      <c r="AS30" s="36"/>
-    </row>
-    <row r="31" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AR30" s="36"/>
+    </row>
+    <row r="31" spans="6:44" ht="18.75" customHeight="1">
       <c r="F31" s="13"/>
       <c r="M31" s="36"/>
       <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="Z31" s="36"/>
-      <c r="AD31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="AC31" s="36"/>
+      <c r="AH31" s="36"/>
       <c r="AI31" s="36"/>
-      <c r="AJ31" s="36"/>
-      <c r="AS31" s="36"/>
-    </row>
-    <row r="32" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AR31" s="36"/>
+    </row>
+    <row r="32" spans="6:44" ht="18.75" customHeight="1">
       <c r="F32" s="13"/>
       <c r="M32" s="36"/>
       <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="Z32" s="36"/>
-      <c r="AD32" s="36"/>
+      <c r="Y32" s="36"/>
+      <c r="AC32" s="36"/>
+      <c r="AH32" s="36"/>
       <c r="AI32" s="36"/>
-      <c r="AJ32" s="36"/>
-      <c r="AS32" s="36"/>
-    </row>
-    <row r="33" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AR32" s="36"/>
+    </row>
+    <row r="33" spans="6:44" ht="18.75" customHeight="1">
       <c r="F33" s="13"/>
       <c r="M33" s="36"/>
       <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="Z33" s="36"/>
-      <c r="AD33" s="36"/>
+      <c r="Y33" s="36"/>
+      <c r="AC33" s="36"/>
+      <c r="AH33" s="36"/>
       <c r="AI33" s="36"/>
-      <c r="AJ33" s="36"/>
-      <c r="AS33" s="36"/>
-    </row>
-    <row r="34" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AR33" s="36"/>
+    </row>
+    <row r="34" spans="6:44" ht="18.75" customHeight="1">
       <c r="F34" s="13"/>
       <c r="M34" s="36"/>
       <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
-      <c r="Z34" s="36"/>
-      <c r="AD34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="AC34" s="36"/>
+      <c r="AH34" s="36"/>
       <c r="AI34" s="36"/>
-      <c r="AJ34" s="36"/>
-      <c r="AS34" s="36"/>
-    </row>
-    <row r="35" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AR34" s="36"/>
+    </row>
+    <row r="35" spans="6:44" ht="18.75" customHeight="1">
       <c r="F35" s="13"/>
       <c r="M35" s="36"/>
       <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="Z35" s="36"/>
-      <c r="AD35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AH35" s="36"/>
       <c r="AI35" s="36"/>
-      <c r="AJ35" s="36"/>
-      <c r="AS35" s="36"/>
-    </row>
-    <row r="36" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AR35" s="36"/>
+    </row>
+    <row r="36" spans="6:44" ht="18.75" customHeight="1">
       <c r="F36" s="13"/>
       <c r="M36" s="36"/>
       <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="Z36" s="36"/>
-      <c r="AD36" s="36"/>
+      <c r="Y36" s="36"/>
+      <c r="AC36" s="36"/>
+      <c r="AH36" s="36"/>
       <c r="AI36" s="36"/>
-      <c r="AJ36" s="36"/>
-      <c r="AS36" s="36"/>
-    </row>
-    <row r="37" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AR36" s="36"/>
+    </row>
+    <row r="37" spans="6:44" ht="18.75" customHeight="1">
       <c r="F37" s="13"/>
       <c r="M37" s="36"/>
       <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="Z37" s="36"/>
-      <c r="AD37" s="36"/>
+      <c r="Y37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AH37" s="36"/>
       <c r="AI37" s="36"/>
-      <c r="AJ37" s="36"/>
-      <c r="AS37" s="36"/>
-    </row>
-    <row r="38" spans="6:45" ht="18.75" customHeight="1">
+      <c r="AR37" s="36"/>
+    </row>
+    <row r="38" spans="6:44" ht="18.75" customHeight="1">
       <c r="F38" s="13"/>
       <c r="M38" s="36"/>
       <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="Z38" s="36"/>
-      <c r="AD38" s="36"/>
+      <c r="Y38" s="36"/>
+      <c r="AC38" s="36"/>
+      <c r="AH38" s="36"/>
       <c r="AI38" s="36"/>
-      <c r="AJ38" s="36"/>
-      <c r="AS38" s="36"/>
-    </row>
-    <row r="39" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F39" s="13"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="Z39" s="36"/>
-      <c r="AD39" s="36"/>
-      <c r="AI39" s="36"/>
-      <c r="AJ39" s="36"/>
-      <c r="AS39" s="36"/>
-    </row>
-    <row r="40" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F40" s="13"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-      <c r="Z40" s="36"/>
-      <c r="AD40" s="36"/>
-      <c r="AI40" s="36"/>
-      <c r="AJ40" s="36"/>
-      <c r="AS40" s="36"/>
-    </row>
-    <row r="41" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F41" s="13"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="46"/>
-      <c r="Z41" s="36"/>
-      <c r="AD41" s="36"/>
-      <c r="AI41" s="36"/>
-      <c r="AJ41" s="36"/>
-      <c r="AS41" s="36"/>
-    </row>
-    <row r="42" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F42" s="13"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="Z42" s="36"/>
-      <c r="AD42" s="36"/>
-      <c r="AI42" s="36"/>
-      <c r="AJ42" s="36"/>
-      <c r="AS42" s="36"/>
-    </row>
-    <row r="43" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F43" s="13"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="46"/>
-      <c r="Z43" s="36"/>
-      <c r="AD43" s="36"/>
-      <c r="AI43" s="36"/>
-      <c r="AJ43" s="36"/>
-      <c r="AS43" s="36"/>
-    </row>
-    <row r="44" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F44" s="13"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="46"/>
-      <c r="Z44" s="36"/>
-      <c r="AD44" s="36"/>
-      <c r="AI44" s="36"/>
-      <c r="AJ44" s="36"/>
-      <c r="AS44" s="36"/>
-    </row>
-    <row r="45" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F45" s="13"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
-      <c r="Z45" s="36"/>
-      <c r="AD45" s="36"/>
-      <c r="AI45" s="36"/>
-      <c r="AJ45" s="36"/>
-      <c r="AS45" s="36"/>
+      <c r="AR38" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6870,61 +6812,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B77:C77"/>
@@ -6933,6 +6820,61 @@
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sample_metadata/mpxv_test_metadata.xlsx
+++ b/assets/sample_metadata/mpxv_test_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ick4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\01.scripts\tostadas\assets\sample_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9814FC9-7F48-4CC7-B2AB-D0643043AED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434F4584-1334-4623-ADA3-751A2BDDD36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MPXV_Metadata" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="454">
   <si>
     <t>Strategy</t>
   </si>
@@ -1394,6 +1394,12 @@
   </si>
   <si>
     <t>PRJNA849962</t>
+  </si>
+  <si>
+    <t>illumina_library_name</t>
+  </si>
+  <si>
+    <t>nanopore_library_name</t>
   </si>
 </sst>
 </file>
@@ -1805,16 +1811,16 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2120,10 +2126,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BA38"/>
+  <dimension ref="A1:BC38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AY3" sqref="AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2146,12 +2152,14 @@
     <col min="32" max="33" width="13.453125" style="17" customWidth="1"/>
     <col min="34" max="34" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="35" max="40" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.453125" customWidth="1"/>
-    <col min="42" max="50" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="51" max="53" width="13.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="13.453125" customWidth="1"/>
+    <col min="43" max="50" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.453125" customWidth="1"/>
+    <col min="52" max="52" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="53" max="55" width="13.453125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="18.75" customHeight="1">
+    <row r="1" spans="1:55" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>317</v>
       </c>
@@ -2172,11 +2180,11 @@
       <c r="AI1" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="AR1" s="36" t="s">
+      <c r="AS1" s="36" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:53" ht="18.75" customHeight="1">
+    <row r="2" spans="1:55" ht="18.75" customHeight="1">
       <c r="A2" s="45" t="s">
         <v>440</v>
       </c>
@@ -2249,7 +2257,7 @@
       <c r="X2" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="Y2" s="53" t="s">
+      <c r="Y2" s="51" t="s">
         <v>448</v>
       </c>
       <c r="Z2" s="45" t="s">
@@ -2298,53 +2306,59 @@
         <v>327</v>
       </c>
       <c r="AO2" s="45" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP2" s="45" t="s">
         <v>413</v>
       </c>
-      <c r="AP2" s="45" t="s">
+      <c r="AQ2" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="AQ2" s="20" t="s">
+      <c r="AR2" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="AR2" s="37" t="s">
+      <c r="AS2" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="AS2" s="20" t="s">
+      <c r="AT2" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="AT2" s="20" t="s">
+      <c r="AU2" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="AU2" s="20" t="s">
+      <c r="AV2" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="AV2" s="20" t="s">
+      <c r="AW2" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="AW2" s="20" t="s">
+      <c r="AX2" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="AX2" s="20" t="s">
+      <c r="AY2" s="45" t="s">
+        <v>453</v>
+      </c>
+      <c r="AZ2" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="AY2" s="21" t="s">
+      <c r="BA2" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="AZ2" s="21" t="s">
+      <c r="BB2" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="BA2" s="21" t="s">
+      <c r="BC2" s="21" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:53" ht="18.75" customHeight="1">
+    <row r="3" spans="1:55" ht="18.75" customHeight="1">
       <c r="A3" t="s">
         <v>384</v>
       </c>
       <c r="B3" t="s">
         <v>385</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="52" t="s">
         <v>450</v>
       </c>
       <c r="D3" t="s">
@@ -2409,34 +2423,34 @@
       <c r="AM3" t="s">
         <v>310</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>414</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>428</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" t="s">
         <v>433</v>
       </c>
-      <c r="AR3" s="36"/>
-      <c r="AY3" s="14">
+      <c r="AS3" s="36"/>
+      <c r="BA3" s="14">
         <v>5</v>
       </c>
-      <c r="AZ3" s="50" t="s">
+      <c r="BB3" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="BA3" s="14">
+      <c r="BC3" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="18.75" customHeight="1">
+    <row r="4" spans="1:55" ht="18.75" customHeight="1">
       <c r="A4" t="s">
         <v>391</v>
       </c>
       <c r="B4" t="s">
         <v>392</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="52" t="s">
         <v>450</v>
       </c>
       <c r="D4" t="s">
@@ -2501,34 +2515,34 @@
       <c r="AM4" t="s">
         <v>310</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
         <v>414</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" t="s">
         <v>429</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
         <v>434</v>
       </c>
-      <c r="AR4" s="36"/>
-      <c r="AY4" s="14">
+      <c r="AS4" s="36"/>
+      <c r="BA4" s="14">
         <v>8</v>
       </c>
-      <c r="AZ4" s="49" t="s">
+      <c r="BB4" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="BA4" s="14">
+      <c r="BC4" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:53" ht="18.75" customHeight="1">
+    <row r="5" spans="1:55" ht="18.75" customHeight="1">
       <c r="A5" t="s">
         <v>398</v>
       </c>
       <c r="B5" t="s">
         <v>399</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="52" t="s">
         <v>450</v>
       </c>
       <c r="D5" t="s">
@@ -2596,34 +2610,34 @@
       <c r="AM5" t="s">
         <v>310</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
         <v>414</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
         <v>430</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AR5" t="s">
         <v>435</v>
       </c>
-      <c r="AR5" s="36"/>
-      <c r="AY5" s="14">
+      <c r="AS5" s="36"/>
+      <c r="BA5" s="14">
         <v>4</v>
       </c>
-      <c r="AZ5" s="50" t="s">
+      <c r="BB5" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="BA5" s="14">
+      <c r="BC5" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="18.75" customHeight="1">
+    <row r="6" spans="1:55" ht="18.75" customHeight="1">
       <c r="A6" t="s">
         <v>441</v>
       </c>
       <c r="B6" t="s">
         <v>403</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="52" t="s">
         <v>450</v>
       </c>
       <c r="D6" t="s">
@@ -2691,34 +2705,34 @@
       <c r="AM6" t="s">
         <v>310</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AP6" t="s">
         <v>414</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AQ6" t="s">
         <v>431</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AR6" t="s">
         <v>436</v>
       </c>
-      <c r="AR6" s="36"/>
-      <c r="AY6" s="17" t="s">
+      <c r="AS6" s="36"/>
+      <c r="BA6" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="AZ6" s="50" t="s">
+      <c r="BB6" s="50" t="s">
         <v>405</v>
       </c>
-      <c r="BA6" s="14">
+      <c r="BC6" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:53" ht="18.75" customHeight="1">
+    <row r="7" spans="1:55" ht="18.75" customHeight="1">
       <c r="A7" t="s">
         <v>442</v>
       </c>
       <c r="B7" t="s">
         <v>376</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="52" t="s">
         <v>450</v>
       </c>
       <c r="D7" t="s">
@@ -2786,34 +2800,34 @@
       <c r="AM7" t="s">
         <v>310</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AP7" t="s">
         <v>414</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AQ7" t="s">
         <v>427</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AR7" t="s">
         <v>432</v>
       </c>
-      <c r="AR7" s="36"/>
-      <c r="AY7" s="14" t="s">
+      <c r="AS7" s="36"/>
+      <c r="BA7" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="AZ7" s="17" t="s">
+      <c r="BB7" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="BA7" s="14">
+      <c r="BC7" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:53" ht="18.75" customHeight="1">
+    <row r="8" spans="1:55" ht="18.75" customHeight="1">
       <c r="Y8" s="36"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="14"/>
       <c r="AG8" s="14"/>
-      <c r="AR8" s="36"/>
-    </row>
-    <row r="9" spans="1:53" ht="18.75" customHeight="1">
+      <c r="AS8" s="36"/>
+    </row>
+    <row r="9" spans="1:55" ht="18.75" customHeight="1">
       <c r="F9" s="13"/>
       <c r="M9" s="36"/>
       <c r="N9" s="46"/>
@@ -2821,9 +2835,9 @@
       <c r="AC9" s="36"/>
       <c r="AH9" s="36"/>
       <c r="AI9" s="36"/>
-      <c r="AR9" s="36"/>
-    </row>
-    <row r="10" spans="1:53" ht="18.75" customHeight="1">
+      <c r="AS9" s="36"/>
+    </row>
+    <row r="10" spans="1:55" ht="18.75" customHeight="1">
       <c r="F10" s="13"/>
       <c r="M10" s="36"/>
       <c r="N10" s="46"/>
@@ -2831,9 +2845,9 @@
       <c r="AC10" s="36"/>
       <c r="AH10" s="36"/>
       <c r="AI10" s="36"/>
-      <c r="AR10" s="36"/>
-    </row>
-    <row r="11" spans="1:53" ht="18.75" customHeight="1">
+      <c r="AS10" s="36"/>
+    </row>
+    <row r="11" spans="1:55" ht="18.75" customHeight="1">
       <c r="F11" s="13"/>
       <c r="M11" s="36"/>
       <c r="N11" s="46"/>
@@ -2841,9 +2855,9 @@
       <c r="AC11" s="36"/>
       <c r="AH11" s="36"/>
       <c r="AI11" s="36"/>
-      <c r="AR11" s="36"/>
-    </row>
-    <row r="12" spans="1:53" ht="18.75" customHeight="1">
+      <c r="AS11" s="36"/>
+    </row>
+    <row r="12" spans="1:55" ht="18.75" customHeight="1">
       <c r="F12" s="13"/>
       <c r="M12" s="36"/>
       <c r="N12" s="46"/>
@@ -2851,9 +2865,9 @@
       <c r="AC12" s="36"/>
       <c r="AH12" s="36"/>
       <c r="AI12" s="36"/>
-      <c r="AR12" s="36"/>
-    </row>
-    <row r="13" spans="1:53" ht="18.75" customHeight="1">
+      <c r="AS12" s="36"/>
+    </row>
+    <row r="13" spans="1:55" ht="18.75" customHeight="1">
       <c r="F13" s="13"/>
       <c r="M13" s="36"/>
       <c r="N13" s="46"/>
@@ -2861,9 +2875,9 @@
       <c r="AC13" s="36"/>
       <c r="AH13" s="36"/>
       <c r="AI13" s="36"/>
-      <c r="AR13" s="36"/>
-    </row>
-    <row r="14" spans="1:53" ht="18.75" customHeight="1">
+      <c r="AS13" s="36"/>
+    </row>
+    <row r="14" spans="1:55" ht="18.75" customHeight="1">
       <c r="F14" s="13"/>
       <c r="M14" s="36"/>
       <c r="N14" s="46"/>
@@ -2871,9 +2885,9 @@
       <c r="AC14" s="36"/>
       <c r="AH14" s="36"/>
       <c r="AI14" s="36"/>
-      <c r="AR14" s="36"/>
-    </row>
-    <row r="15" spans="1:53" ht="18.75" customHeight="1">
+      <c r="AS14" s="36"/>
+    </row>
+    <row r="15" spans="1:55" ht="18.75" customHeight="1">
       <c r="F15" s="13"/>
       <c r="M15" s="36"/>
       <c r="N15" s="46"/>
@@ -2881,9 +2895,9 @@
       <c r="AC15" s="36"/>
       <c r="AH15" s="36"/>
       <c r="AI15" s="36"/>
-      <c r="AR15" s="36"/>
-    </row>
-    <row r="16" spans="1:53" ht="18.75" customHeight="1">
+      <c r="AS15" s="36"/>
+    </row>
+    <row r="16" spans="1:55" ht="18.75" customHeight="1">
       <c r="F16" s="13"/>
       <c r="M16" s="36"/>
       <c r="N16" s="46"/>
@@ -2891,9 +2905,9 @@
       <c r="AC16" s="36"/>
       <c r="AH16" s="36"/>
       <c r="AI16" s="36"/>
-      <c r="AR16" s="36"/>
-    </row>
-    <row r="17" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS16" s="36"/>
+    </row>
+    <row r="17" spans="6:45" ht="18.75" customHeight="1">
       <c r="F17" s="13"/>
       <c r="M17" s="36"/>
       <c r="N17" s="46"/>
@@ -2901,9 +2915,9 @@
       <c r="AC17" s="36"/>
       <c r="AH17" s="36"/>
       <c r="AI17" s="36"/>
-      <c r="AR17" s="36"/>
-    </row>
-    <row r="18" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS17" s="36"/>
+    </row>
+    <row r="18" spans="6:45" ht="18.75" customHeight="1">
       <c r="F18" s="13"/>
       <c r="M18" s="36"/>
       <c r="N18" s="46"/>
@@ -2911,9 +2925,9 @@
       <c r="AC18" s="36"/>
       <c r="AH18" s="36"/>
       <c r="AI18" s="36"/>
-      <c r="AR18" s="36"/>
-    </row>
-    <row r="19" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS18" s="36"/>
+    </row>
+    <row r="19" spans="6:45" ht="18.75" customHeight="1">
       <c r="F19" s="13"/>
       <c r="M19" s="36"/>
       <c r="N19" s="46"/>
@@ -2921,9 +2935,9 @@
       <c r="AC19" s="36"/>
       <c r="AH19" s="36"/>
       <c r="AI19" s="36"/>
-      <c r="AR19" s="36"/>
-    </row>
-    <row r="20" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS19" s="36"/>
+    </row>
+    <row r="20" spans="6:45" ht="18.75" customHeight="1">
       <c r="F20" s="13"/>
       <c r="M20" s="36"/>
       <c r="N20" s="46"/>
@@ -2931,9 +2945,9 @@
       <c r="AC20" s="36"/>
       <c r="AH20" s="36"/>
       <c r="AI20" s="36"/>
-      <c r="AR20" s="36"/>
-    </row>
-    <row r="21" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS20" s="36"/>
+    </row>
+    <row r="21" spans="6:45" ht="18.75" customHeight="1">
       <c r="F21" s="13"/>
       <c r="M21" s="36"/>
       <c r="N21" s="46"/>
@@ -2941,9 +2955,9 @@
       <c r="AC21" s="36"/>
       <c r="AH21" s="36"/>
       <c r="AI21" s="36"/>
-      <c r="AR21" s="36"/>
-    </row>
-    <row r="22" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS21" s="36"/>
+    </row>
+    <row r="22" spans="6:45" ht="18.75" customHeight="1">
       <c r="F22" s="13"/>
       <c r="M22" s="36"/>
       <c r="N22" s="46"/>
@@ -2951,9 +2965,9 @@
       <c r="AC22" s="36"/>
       <c r="AH22" s="36"/>
       <c r="AI22" s="36"/>
-      <c r="AR22" s="36"/>
-    </row>
-    <row r="23" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS22" s="36"/>
+    </row>
+    <row r="23" spans="6:45" ht="18.75" customHeight="1">
       <c r="F23" s="13"/>
       <c r="M23" s="36"/>
       <c r="N23" s="46"/>
@@ -2961,9 +2975,9 @@
       <c r="AC23" s="36"/>
       <c r="AH23" s="36"/>
       <c r="AI23" s="36"/>
-      <c r="AR23" s="36"/>
-    </row>
-    <row r="24" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS23" s="36"/>
+    </row>
+    <row r="24" spans="6:45" ht="18.75" customHeight="1">
       <c r="F24" s="13"/>
       <c r="M24" s="36"/>
       <c r="N24" s="46"/>
@@ -2971,9 +2985,9 @@
       <c r="AC24" s="36"/>
       <c r="AH24" s="36"/>
       <c r="AI24" s="36"/>
-      <c r="AR24" s="36"/>
-    </row>
-    <row r="25" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS24" s="36"/>
+    </row>
+    <row r="25" spans="6:45" ht="18.75" customHeight="1">
       <c r="F25" s="13"/>
       <c r="M25" s="36"/>
       <c r="N25" s="46"/>
@@ -2981,9 +2995,9 @@
       <c r="AC25" s="36"/>
       <c r="AH25" s="36"/>
       <c r="AI25" s="36"/>
-      <c r="AR25" s="36"/>
-    </row>
-    <row r="26" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS25" s="36"/>
+    </row>
+    <row r="26" spans="6:45" ht="18.75" customHeight="1">
       <c r="F26" s="13"/>
       <c r="M26" s="36"/>
       <c r="N26" s="46"/>
@@ -2991,9 +3005,9 @@
       <c r="AC26" s="36"/>
       <c r="AH26" s="36"/>
       <c r="AI26" s="36"/>
-      <c r="AR26" s="36"/>
-    </row>
-    <row r="27" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS26" s="36"/>
+    </row>
+    <row r="27" spans="6:45" ht="18.75" customHeight="1">
       <c r="F27" s="13"/>
       <c r="M27" s="36"/>
       <c r="N27" s="46"/>
@@ -3001,9 +3015,9 @@
       <c r="AC27" s="36"/>
       <c r="AH27" s="36"/>
       <c r="AI27" s="36"/>
-      <c r="AR27" s="36"/>
-    </row>
-    <row r="28" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS27" s="36"/>
+    </row>
+    <row r="28" spans="6:45" ht="18.75" customHeight="1">
       <c r="F28" s="13"/>
       <c r="M28" s="36"/>
       <c r="N28" s="46"/>
@@ -3011,9 +3025,9 @@
       <c r="AC28" s="36"/>
       <c r="AH28" s="36"/>
       <c r="AI28" s="36"/>
-      <c r="AR28" s="36"/>
-    </row>
-    <row r="29" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS28" s="36"/>
+    </row>
+    <row r="29" spans="6:45" ht="18.75" customHeight="1">
       <c r="F29" s="13"/>
       <c r="M29" s="36"/>
       <c r="N29" s="46"/>
@@ -3021,9 +3035,9 @@
       <c r="AC29" s="36"/>
       <c r="AH29" s="36"/>
       <c r="AI29" s="36"/>
-      <c r="AR29" s="36"/>
-    </row>
-    <row r="30" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS29" s="36"/>
+    </row>
+    <row r="30" spans="6:45" ht="18.75" customHeight="1">
       <c r="F30" s="13"/>
       <c r="M30" s="36"/>
       <c r="N30" s="46"/>
@@ -3031,9 +3045,9 @@
       <c r="AC30" s="36"/>
       <c r="AH30" s="36"/>
       <c r="AI30" s="36"/>
-      <c r="AR30" s="36"/>
-    </row>
-    <row r="31" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS30" s="36"/>
+    </row>
+    <row r="31" spans="6:45" ht="18.75" customHeight="1">
       <c r="F31" s="13"/>
       <c r="M31" s="36"/>
       <c r="N31" s="46"/>
@@ -3041,9 +3055,9 @@
       <c r="AC31" s="36"/>
       <c r="AH31" s="36"/>
       <c r="AI31" s="36"/>
-      <c r="AR31" s="36"/>
-    </row>
-    <row r="32" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS31" s="36"/>
+    </row>
+    <row r="32" spans="6:45" ht="18.75" customHeight="1">
       <c r="F32" s="13"/>
       <c r="M32" s="36"/>
       <c r="N32" s="46"/>
@@ -3051,9 +3065,9 @@
       <c r="AC32" s="36"/>
       <c r="AH32" s="36"/>
       <c r="AI32" s="36"/>
-      <c r="AR32" s="36"/>
-    </row>
-    <row r="33" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS32" s="36"/>
+    </row>
+    <row r="33" spans="6:45" ht="18.75" customHeight="1">
       <c r="F33" s="13"/>
       <c r="M33" s="36"/>
       <c r="N33" s="46"/>
@@ -3061,9 +3075,9 @@
       <c r="AC33" s="36"/>
       <c r="AH33" s="36"/>
       <c r="AI33" s="36"/>
-      <c r="AR33" s="36"/>
-    </row>
-    <row r="34" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS33" s="36"/>
+    </row>
+    <row r="34" spans="6:45" ht="18.75" customHeight="1">
       <c r="F34" s="13"/>
       <c r="M34" s="36"/>
       <c r="N34" s="46"/>
@@ -3071,9 +3085,9 @@
       <c r="AC34" s="36"/>
       <c r="AH34" s="36"/>
       <c r="AI34" s="36"/>
-      <c r="AR34" s="36"/>
-    </row>
-    <row r="35" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS34" s="36"/>
+    </row>
+    <row r="35" spans="6:45" ht="18.75" customHeight="1">
       <c r="F35" s="13"/>
       <c r="M35" s="36"/>
       <c r="N35" s="46"/>
@@ -3081,9 +3095,9 @@
       <c r="AC35" s="36"/>
       <c r="AH35" s="36"/>
       <c r="AI35" s="36"/>
-      <c r="AR35" s="36"/>
-    </row>
-    <row r="36" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS35" s="36"/>
+    </row>
+    <row r="36" spans="6:45" ht="18.75" customHeight="1">
       <c r="F36" s="13"/>
       <c r="M36" s="36"/>
       <c r="N36" s="46"/>
@@ -3091,9 +3105,9 @@
       <c r="AC36" s="36"/>
       <c r="AH36" s="36"/>
       <c r="AI36" s="36"/>
-      <c r="AR36" s="36"/>
-    </row>
-    <row r="37" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS36" s="36"/>
+    </row>
+    <row r="37" spans="6:45" ht="18.75" customHeight="1">
       <c r="F37" s="13"/>
       <c r="M37" s="36"/>
       <c r="N37" s="46"/>
@@ -3101,9 +3115,9 @@
       <c r="AC37" s="36"/>
       <c r="AH37" s="36"/>
       <c r="AI37" s="36"/>
-      <c r="AR37" s="36"/>
-    </row>
-    <row r="38" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS37" s="36"/>
+    </row>
+    <row r="38" spans="6:45" ht="18.75" customHeight="1">
       <c r="F38" s="13"/>
       <c r="M38" s="36"/>
       <c r="N38" s="46"/>
@@ -3111,7 +3125,7 @@
       <c r="AC38" s="36"/>
       <c r="AH38" s="36"/>
       <c r="AI38" s="36"/>
-      <c r="AR38" s="36"/>
+      <c r="AS38" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4951,8 +4965,8 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -4966,10 +4980,10 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4983,10 +4997,10 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -5000,10 +5014,10 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -5017,10 +5031,10 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="51"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -5034,10 +5048,10 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="51"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -5051,10 +5065,10 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="51"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -5068,10 +5082,10 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="51"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -5085,10 +5099,10 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="51"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -5102,10 +5116,10 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="51"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -5119,10 +5133,10 @@
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="51"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -5136,10 +5150,10 @@
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="51"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -5153,10 +5167,10 @@
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="51"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -5170,10 +5184,10 @@
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="51"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -5187,10 +5201,10 @@
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -5204,10 +5218,10 @@
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -5221,10 +5235,10 @@
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -5238,10 +5252,10 @@
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -5255,10 +5269,10 @@
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -5272,10 +5286,10 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -5289,10 +5303,10 @@
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -5306,10 +5320,10 @@
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -5323,10 +5337,10 @@
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -5340,10 +5354,10 @@
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="51"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -5553,10 +5567,10 @@
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="51"/>
+      <c r="C37" s="53"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -5568,8 +5582,8 @@
     </row>
     <row r="38" spans="1:11" ht="18.75" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -5583,10 +5597,10 @@
       <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="52"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -5600,10 +5614,10 @@
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="51"/>
+      <c r="C40" s="53"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -5617,10 +5631,10 @@
       <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="51"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -5634,10 +5648,10 @@
       <c r="A42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="51"/>
+      <c r="C42" s="53"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -5651,10 +5665,10 @@
       <c r="A43" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="51"/>
+      <c r="C43" s="53"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -5668,10 +5682,10 @@
       <c r="A44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="51"/>
+      <c r="C44" s="53"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -5685,10 +5699,10 @@
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="51"/>
+      <c r="C45" s="53"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -5732,10 +5746,10 @@
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="51"/>
+      <c r="C48" s="53"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -5747,8 +5761,8 @@
     </row>
     <row r="49" spans="1:11" ht="18.75" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -5762,10 +5776,10 @@
       <c r="A50" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="51"/>
+      <c r="C50" s="53"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -5779,10 +5793,10 @@
       <c r="A51" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="51"/>
+      <c r="C51" s="53"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -5796,10 +5810,10 @@
       <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="51"/>
+      <c r="C52" s="53"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -5813,10 +5827,10 @@
       <c r="A53" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="51"/>
+      <c r="C53" s="53"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -5830,10 +5844,10 @@
       <c r="A54" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="51"/>
+      <c r="C54" s="53"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -5847,10 +5861,10 @@
       <c r="A55" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="51" t="s">
+      <c r="B55" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="51"/>
+      <c r="C55" s="53"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -5864,10 +5878,10 @@
       <c r="A56" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="51" t="s">
+      <c r="B56" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="51"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -5881,10 +5895,10 @@
       <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="51"/>
+      <c r="C57" s="53"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -5898,10 +5912,10 @@
       <c r="A58" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B58" s="51" t="s">
+      <c r="B58" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="51"/>
+      <c r="C58" s="53"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -5915,10 +5929,10 @@
       <c r="A59" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="51" t="s">
+      <c r="B59" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="51"/>
+      <c r="C59" s="53"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -5932,10 +5946,10 @@
       <c r="A60" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="51" t="s">
+      <c r="B60" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="C60" s="51"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -5949,10 +5963,10 @@
       <c r="A61" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="51" t="s">
+      <c r="B61" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="51"/>
+      <c r="C61" s="53"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -5966,10 +5980,10 @@
       <c r="A62" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="51" t="s">
+      <c r="B62" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="51"/>
+      <c r="C62" s="53"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -5983,10 +5997,10 @@
       <c r="A63" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B63" s="51" t="s">
+      <c r="B63" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="51"/>
+      <c r="C63" s="53"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -6000,10 +6014,10 @@
       <c r="A64" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="51"/>
+      <c r="C64" s="53"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -6017,10 +6031,10 @@
       <c r="A65" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B65" s="51" t="s">
+      <c r="B65" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="C65" s="51"/>
+      <c r="C65" s="53"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -6034,10 +6048,10 @@
       <c r="A66" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="51" t="s">
+      <c r="B66" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="C66" s="51"/>
+      <c r="C66" s="53"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -6051,10 +6065,10 @@
       <c r="A67" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B67" s="51" t="s">
+      <c r="B67" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C67" s="51"/>
+      <c r="C67" s="53"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -6068,10 +6082,10 @@
       <c r="A68" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="C68" s="51"/>
+      <c r="C68" s="53"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -6085,10 +6099,10 @@
       <c r="A69" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B69" s="51" t="s">
+      <c r="B69" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="51"/>
+      <c r="C69" s="53"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -6102,10 +6116,10 @@
       <c r="A70" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B70" s="51" t="s">
+      <c r="B70" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="C70" s="51"/>
+      <c r="C70" s="53"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -6119,10 +6133,10 @@
       <c r="A71" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="51"/>
+      <c r="C71" s="53"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -6136,10 +6150,10 @@
       <c r="A72" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B72" s="51" t="s">
+      <c r="B72" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="51"/>
+      <c r="C72" s="53"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -6153,10 +6167,10 @@
       <c r="A73" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B73" s="51" t="s">
+      <c r="B73" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="51"/>
+      <c r="C73" s="53"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -6170,10 +6184,10 @@
       <c r="A74" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="51" t="s">
+      <c r="B74" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="C74" s="51"/>
+      <c r="C74" s="53"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -6187,10 +6201,10 @@
       <c r="A75" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="51" t="s">
+      <c r="B75" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="51"/>
+      <c r="C75" s="53"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -6204,10 +6218,10 @@
       <c r="A76" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B76" s="51" t="s">
+      <c r="B76" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="C76" s="51"/>
+      <c r="C76" s="53"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -6221,10 +6235,10 @@
       <c r="A77" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B77" s="51" t="s">
+      <c r="B77" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="51"/>
+      <c r="C77" s="53"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -6812,6 +6826,61 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B77:C77"/>
@@ -6820,61 +6889,6 @@
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sample_metadata/mpxv_test_metadata.xlsx
+++ b/assets/sample_metadata/mpxv_test_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ick4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\01.scripts\tostadas\assets\sample_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9814FC9-7F48-4CC7-B2AB-D0643043AED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EB4EAC-66B1-4258-A723-F5C9D5C6E143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MPXV_Metadata" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="454">
   <si>
     <t>Strategy</t>
   </si>
@@ -1394,6 +1394,12 @@
   </si>
   <si>
     <t>PRJNA849962</t>
+  </si>
+  <si>
+    <t>nanopore_library_name</t>
+  </si>
+  <si>
+    <t>illumina_library_name</t>
   </si>
 </sst>
 </file>
@@ -1805,16 +1811,16 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2120,10 +2126,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BA38"/>
+  <dimension ref="A1:BC38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AO3" sqref="AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2146,12 +2152,14 @@
     <col min="32" max="33" width="13.453125" style="17" customWidth="1"/>
     <col min="34" max="34" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="35" max="40" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.453125" customWidth="1"/>
-    <col min="42" max="50" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="51" max="53" width="13.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="13.453125" customWidth="1"/>
+    <col min="43" max="50" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.453125" customWidth="1"/>
+    <col min="52" max="52" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="53" max="55" width="13.453125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="18.75" customHeight="1">
+    <row r="1" spans="1:55" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>317</v>
       </c>
@@ -2172,11 +2180,11 @@
       <c r="AI1" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="AR1" s="36" t="s">
+      <c r="AS1" s="36" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:53" ht="18.75" customHeight="1">
+    <row r="2" spans="1:55" ht="18.75" customHeight="1">
       <c r="A2" s="45" t="s">
         <v>440</v>
       </c>
@@ -2249,7 +2257,7 @@
       <c r="X2" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="Y2" s="53" t="s">
+      <c r="Y2" s="51" t="s">
         <v>448</v>
       </c>
       <c r="Z2" s="45" t="s">
@@ -2298,53 +2306,59 @@
         <v>327</v>
       </c>
       <c r="AO2" s="45" t="s">
+        <v>453</v>
+      </c>
+      <c r="AP2" s="45" t="s">
         <v>413</v>
       </c>
-      <c r="AP2" s="45" t="s">
+      <c r="AQ2" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="AQ2" s="20" t="s">
+      <c r="AR2" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="AR2" s="37" t="s">
+      <c r="AS2" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="AS2" s="20" t="s">
+      <c r="AT2" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="AT2" s="20" t="s">
+      <c r="AU2" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="AU2" s="20" t="s">
+      <c r="AV2" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="AV2" s="20" t="s">
+      <c r="AW2" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="AW2" s="20" t="s">
+      <c r="AX2" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="AX2" s="20" t="s">
+      <c r="AY2" s="45" t="s">
+        <v>452</v>
+      </c>
+      <c r="AZ2" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="AY2" s="21" t="s">
+      <c r="BA2" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="AZ2" s="21" t="s">
+      <c r="BB2" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="BA2" s="21" t="s">
+      <c r="BC2" s="21" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:53" ht="18.75" customHeight="1">
+    <row r="3" spans="1:55" ht="18.75" customHeight="1">
       <c r="A3" t="s">
         <v>384</v>
       </c>
       <c r="B3" t="s">
         <v>385</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="52" t="s">
         <v>450</v>
       </c>
       <c r="D3" t="s">
@@ -2409,34 +2423,34 @@
       <c r="AM3" t="s">
         <v>310</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>414</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>428</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" t="s">
         <v>433</v>
       </c>
-      <c r="AR3" s="36"/>
-      <c r="AY3" s="14">
+      <c r="AS3" s="36"/>
+      <c r="BA3" s="14">
         <v>5</v>
       </c>
-      <c r="AZ3" s="50" t="s">
+      <c r="BB3" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="BA3" s="14">
+      <c r="BC3" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="18.75" customHeight="1">
+    <row r="4" spans="1:55" ht="18.75" customHeight="1">
       <c r="A4" t="s">
         <v>391</v>
       </c>
       <c r="B4" t="s">
         <v>392</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="52" t="s">
         <v>450</v>
       </c>
       <c r="D4" t="s">
@@ -2501,34 +2515,34 @@
       <c r="AM4" t="s">
         <v>310</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
         <v>414</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" t="s">
         <v>429</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
         <v>434</v>
       </c>
-      <c r="AR4" s="36"/>
-      <c r="AY4" s="14">
+      <c r="AS4" s="36"/>
+      <c r="BA4" s="14">
         <v>8</v>
       </c>
-      <c r="AZ4" s="49" t="s">
+      <c r="BB4" s="49" t="s">
         <v>438</v>
       </c>
-      <c r="BA4" s="14">
+      <c r="BC4" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:53" ht="18.75" customHeight="1">
+    <row r="5" spans="1:55" ht="18.75" customHeight="1">
       <c r="A5" t="s">
         <v>398</v>
       </c>
       <c r="B5" t="s">
         <v>399</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="52" t="s">
         <v>450</v>
       </c>
       <c r="D5" t="s">
@@ -2596,34 +2610,34 @@
       <c r="AM5" t="s">
         <v>310</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
         <v>414</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
         <v>430</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AR5" t="s">
         <v>435</v>
       </c>
-      <c r="AR5" s="36"/>
-      <c r="AY5" s="14">
+      <c r="AS5" s="36"/>
+      <c r="BA5" s="14">
         <v>4</v>
       </c>
-      <c r="AZ5" s="50" t="s">
+      <c r="BB5" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="BA5" s="14">
+      <c r="BC5" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="18.75" customHeight="1">
+    <row r="6" spans="1:55" ht="18.75" customHeight="1">
       <c r="A6" t="s">
         <v>441</v>
       </c>
       <c r="B6" t="s">
         <v>403</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="52" t="s">
         <v>450</v>
       </c>
       <c r="D6" t="s">
@@ -2691,34 +2705,34 @@
       <c r="AM6" t="s">
         <v>310</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AP6" t="s">
         <v>414</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AQ6" t="s">
         <v>431</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AR6" t="s">
         <v>436</v>
       </c>
-      <c r="AR6" s="36"/>
-      <c r="AY6" s="17" t="s">
+      <c r="AS6" s="36"/>
+      <c r="BA6" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="AZ6" s="50" t="s">
+      <c r="BB6" s="50" t="s">
         <v>405</v>
       </c>
-      <c r="BA6" s="14">
+      <c r="BC6" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:53" ht="18.75" customHeight="1">
+    <row r="7" spans="1:55" ht="18.75" customHeight="1">
       <c r="A7" t="s">
         <v>442</v>
       </c>
       <c r="B7" t="s">
         <v>376</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="52" t="s">
         <v>450</v>
       </c>
       <c r="D7" t="s">
@@ -2786,34 +2800,34 @@
       <c r="AM7" t="s">
         <v>310</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AP7" t="s">
         <v>414</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AQ7" t="s">
         <v>427</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AR7" t="s">
         <v>432</v>
       </c>
-      <c r="AR7" s="36"/>
-      <c r="AY7" s="14" t="s">
+      <c r="AS7" s="36"/>
+      <c r="BA7" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="AZ7" s="17" t="s">
+      <c r="BB7" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="BA7" s="14">
+      <c r="BC7" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:53" ht="18.75" customHeight="1">
+    <row r="8" spans="1:55" ht="18.75" customHeight="1">
       <c r="Y8" s="36"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="14"/>
       <c r="AG8" s="14"/>
-      <c r="AR8" s="36"/>
-    </row>
-    <row r="9" spans="1:53" ht="18.75" customHeight="1">
+      <c r="AS8" s="36"/>
+    </row>
+    <row r="9" spans="1:55" ht="18.75" customHeight="1">
       <c r="F9" s="13"/>
       <c r="M9" s="36"/>
       <c r="N9" s="46"/>
@@ -2821,9 +2835,9 @@
       <c r="AC9" s="36"/>
       <c r="AH9" s="36"/>
       <c r="AI9" s="36"/>
-      <c r="AR9" s="36"/>
-    </row>
-    <row r="10" spans="1:53" ht="18.75" customHeight="1">
+      <c r="AS9" s="36"/>
+    </row>
+    <row r="10" spans="1:55" ht="18.75" customHeight="1">
       <c r="F10" s="13"/>
       <c r="M10" s="36"/>
       <c r="N10" s="46"/>
@@ -2831,9 +2845,9 @@
       <c r="AC10" s="36"/>
       <c r="AH10" s="36"/>
       <c r="AI10" s="36"/>
-      <c r="AR10" s="36"/>
-    </row>
-    <row r="11" spans="1:53" ht="18.75" customHeight="1">
+      <c r="AS10" s="36"/>
+    </row>
+    <row r="11" spans="1:55" ht="18.75" customHeight="1">
       <c r="F11" s="13"/>
       <c r="M11" s="36"/>
       <c r="N11" s="46"/>
@@ -2841,9 +2855,9 @@
       <c r="AC11" s="36"/>
       <c r="AH11" s="36"/>
       <c r="AI11" s="36"/>
-      <c r="AR11" s="36"/>
-    </row>
-    <row r="12" spans="1:53" ht="18.75" customHeight="1">
+      <c r="AS11" s="36"/>
+    </row>
+    <row r="12" spans="1:55" ht="18.75" customHeight="1">
       <c r="F12" s="13"/>
       <c r="M12" s="36"/>
       <c r="N12" s="46"/>
@@ -2851,9 +2865,9 @@
       <c r="AC12" s="36"/>
       <c r="AH12" s="36"/>
       <c r="AI12" s="36"/>
-      <c r="AR12" s="36"/>
-    </row>
-    <row r="13" spans="1:53" ht="18.75" customHeight="1">
+      <c r="AS12" s="36"/>
+    </row>
+    <row r="13" spans="1:55" ht="18.75" customHeight="1">
       <c r="F13" s="13"/>
       <c r="M13" s="36"/>
       <c r="N13" s="46"/>
@@ -2861,9 +2875,9 @@
       <c r="AC13" s="36"/>
       <c r="AH13" s="36"/>
       <c r="AI13" s="36"/>
-      <c r="AR13" s="36"/>
-    </row>
-    <row r="14" spans="1:53" ht="18.75" customHeight="1">
+      <c r="AS13" s="36"/>
+    </row>
+    <row r="14" spans="1:55" ht="18.75" customHeight="1">
       <c r="F14" s="13"/>
       <c r="M14" s="36"/>
       <c r="N14" s="46"/>
@@ -2871,9 +2885,9 @@
       <c r="AC14" s="36"/>
       <c r="AH14" s="36"/>
       <c r="AI14" s="36"/>
-      <c r="AR14" s="36"/>
-    </row>
-    <row r="15" spans="1:53" ht="18.75" customHeight="1">
+      <c r="AS14" s="36"/>
+    </row>
+    <row r="15" spans="1:55" ht="18.75" customHeight="1">
       <c r="F15" s="13"/>
       <c r="M15" s="36"/>
       <c r="N15" s="46"/>
@@ -2881,9 +2895,9 @@
       <c r="AC15" s="36"/>
       <c r="AH15" s="36"/>
       <c r="AI15" s="36"/>
-      <c r="AR15" s="36"/>
-    </row>
-    <row r="16" spans="1:53" ht="18.75" customHeight="1">
+      <c r="AS15" s="36"/>
+    </row>
+    <row r="16" spans="1:55" ht="18.75" customHeight="1">
       <c r="F16" s="13"/>
       <c r="M16" s="36"/>
       <c r="N16" s="46"/>
@@ -2891,9 +2905,9 @@
       <c r="AC16" s="36"/>
       <c r="AH16" s="36"/>
       <c r="AI16" s="36"/>
-      <c r="AR16" s="36"/>
-    </row>
-    <row r="17" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS16" s="36"/>
+    </row>
+    <row r="17" spans="6:45" ht="18.75" customHeight="1">
       <c r="F17" s="13"/>
       <c r="M17" s="36"/>
       <c r="N17" s="46"/>
@@ -2901,9 +2915,9 @@
       <c r="AC17" s="36"/>
       <c r="AH17" s="36"/>
       <c r="AI17" s="36"/>
-      <c r="AR17" s="36"/>
-    </row>
-    <row r="18" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS17" s="36"/>
+    </row>
+    <row r="18" spans="6:45" ht="18.75" customHeight="1">
       <c r="F18" s="13"/>
       <c r="M18" s="36"/>
       <c r="N18" s="46"/>
@@ -2911,9 +2925,9 @@
       <c r="AC18" s="36"/>
       <c r="AH18" s="36"/>
       <c r="AI18" s="36"/>
-      <c r="AR18" s="36"/>
-    </row>
-    <row r="19" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS18" s="36"/>
+    </row>
+    <row r="19" spans="6:45" ht="18.75" customHeight="1">
       <c r="F19" s="13"/>
       <c r="M19" s="36"/>
       <c r="N19" s="46"/>
@@ -2921,9 +2935,9 @@
       <c r="AC19" s="36"/>
       <c r="AH19" s="36"/>
       <c r="AI19" s="36"/>
-      <c r="AR19" s="36"/>
-    </row>
-    <row r="20" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS19" s="36"/>
+    </row>
+    <row r="20" spans="6:45" ht="18.75" customHeight="1">
       <c r="F20" s="13"/>
       <c r="M20" s="36"/>
       <c r="N20" s="46"/>
@@ -2931,9 +2945,9 @@
       <c r="AC20" s="36"/>
       <c r="AH20" s="36"/>
       <c r="AI20" s="36"/>
-      <c r="AR20" s="36"/>
-    </row>
-    <row r="21" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS20" s="36"/>
+    </row>
+    <row r="21" spans="6:45" ht="18.75" customHeight="1">
       <c r="F21" s="13"/>
       <c r="M21" s="36"/>
       <c r="N21" s="46"/>
@@ -2941,9 +2955,9 @@
       <c r="AC21" s="36"/>
       <c r="AH21" s="36"/>
       <c r="AI21" s="36"/>
-      <c r="AR21" s="36"/>
-    </row>
-    <row r="22" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS21" s="36"/>
+    </row>
+    <row r="22" spans="6:45" ht="18.75" customHeight="1">
       <c r="F22" s="13"/>
       <c r="M22" s="36"/>
       <c r="N22" s="46"/>
@@ -2951,9 +2965,9 @@
       <c r="AC22" s="36"/>
       <c r="AH22" s="36"/>
       <c r="AI22" s="36"/>
-      <c r="AR22" s="36"/>
-    </row>
-    <row r="23" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS22" s="36"/>
+    </row>
+    <row r="23" spans="6:45" ht="18.75" customHeight="1">
       <c r="F23" s="13"/>
       <c r="M23" s="36"/>
       <c r="N23" s="46"/>
@@ -2961,9 +2975,9 @@
       <c r="AC23" s="36"/>
       <c r="AH23" s="36"/>
       <c r="AI23" s="36"/>
-      <c r="AR23" s="36"/>
-    </row>
-    <row r="24" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS23" s="36"/>
+    </row>
+    <row r="24" spans="6:45" ht="18.75" customHeight="1">
       <c r="F24" s="13"/>
       <c r="M24" s="36"/>
       <c r="N24" s="46"/>
@@ -2971,9 +2985,9 @@
       <c r="AC24" s="36"/>
       <c r="AH24" s="36"/>
       <c r="AI24" s="36"/>
-      <c r="AR24" s="36"/>
-    </row>
-    <row r="25" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS24" s="36"/>
+    </row>
+    <row r="25" spans="6:45" ht="18.75" customHeight="1">
       <c r="F25" s="13"/>
       <c r="M25" s="36"/>
       <c r="N25" s="46"/>
@@ -2981,9 +2995,9 @@
       <c r="AC25" s="36"/>
       <c r="AH25" s="36"/>
       <c r="AI25" s="36"/>
-      <c r="AR25" s="36"/>
-    </row>
-    <row r="26" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS25" s="36"/>
+    </row>
+    <row r="26" spans="6:45" ht="18.75" customHeight="1">
       <c r="F26" s="13"/>
       <c r="M26" s="36"/>
       <c r="N26" s="46"/>
@@ -2991,9 +3005,9 @@
       <c r="AC26" s="36"/>
       <c r="AH26" s="36"/>
       <c r="AI26" s="36"/>
-      <c r="AR26" s="36"/>
-    </row>
-    <row r="27" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS26" s="36"/>
+    </row>
+    <row r="27" spans="6:45" ht="18.75" customHeight="1">
       <c r="F27" s="13"/>
       <c r="M27" s="36"/>
       <c r="N27" s="46"/>
@@ -3001,9 +3015,9 @@
       <c r="AC27" s="36"/>
       <c r="AH27" s="36"/>
       <c r="AI27" s="36"/>
-      <c r="AR27" s="36"/>
-    </row>
-    <row r="28" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS27" s="36"/>
+    </row>
+    <row r="28" spans="6:45" ht="18.75" customHeight="1">
       <c r="F28" s="13"/>
       <c r="M28" s="36"/>
       <c r="N28" s="46"/>
@@ -3011,9 +3025,9 @@
       <c r="AC28" s="36"/>
       <c r="AH28" s="36"/>
       <c r="AI28" s="36"/>
-      <c r="AR28" s="36"/>
-    </row>
-    <row r="29" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS28" s="36"/>
+    </row>
+    <row r="29" spans="6:45" ht="18.75" customHeight="1">
       <c r="F29" s="13"/>
       <c r="M29" s="36"/>
       <c r="N29" s="46"/>
@@ -3021,9 +3035,9 @@
       <c r="AC29" s="36"/>
       <c r="AH29" s="36"/>
       <c r="AI29" s="36"/>
-      <c r="AR29" s="36"/>
-    </row>
-    <row r="30" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS29" s="36"/>
+    </row>
+    <row r="30" spans="6:45" ht="18.75" customHeight="1">
       <c r="F30" s="13"/>
       <c r="M30" s="36"/>
       <c r="N30" s="46"/>
@@ -3031,9 +3045,9 @@
       <c r="AC30" s="36"/>
       <c r="AH30" s="36"/>
       <c r="AI30" s="36"/>
-      <c r="AR30" s="36"/>
-    </row>
-    <row r="31" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS30" s="36"/>
+    </row>
+    <row r="31" spans="6:45" ht="18.75" customHeight="1">
       <c r="F31" s="13"/>
       <c r="M31" s="36"/>
       <c r="N31" s="46"/>
@@ -3041,9 +3055,9 @@
       <c r="AC31" s="36"/>
       <c r="AH31" s="36"/>
       <c r="AI31" s="36"/>
-      <c r="AR31" s="36"/>
-    </row>
-    <row r="32" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS31" s="36"/>
+    </row>
+    <row r="32" spans="6:45" ht="18.75" customHeight="1">
       <c r="F32" s="13"/>
       <c r="M32" s="36"/>
       <c r="N32" s="46"/>
@@ -3051,9 +3065,9 @@
       <c r="AC32" s="36"/>
       <c r="AH32" s="36"/>
       <c r="AI32" s="36"/>
-      <c r="AR32" s="36"/>
-    </row>
-    <row r="33" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS32" s="36"/>
+    </row>
+    <row r="33" spans="6:45" ht="18.75" customHeight="1">
       <c r="F33" s="13"/>
       <c r="M33" s="36"/>
       <c r="N33" s="46"/>
@@ -3061,9 +3075,9 @@
       <c r="AC33" s="36"/>
       <c r="AH33" s="36"/>
       <c r="AI33" s="36"/>
-      <c r="AR33" s="36"/>
-    </row>
-    <row r="34" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS33" s="36"/>
+    </row>
+    <row r="34" spans="6:45" ht="18.75" customHeight="1">
       <c r="F34" s="13"/>
       <c r="M34" s="36"/>
       <c r="N34" s="46"/>
@@ -3071,9 +3085,9 @@
       <c r="AC34" s="36"/>
       <c r="AH34" s="36"/>
       <c r="AI34" s="36"/>
-      <c r="AR34" s="36"/>
-    </row>
-    <row r="35" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS34" s="36"/>
+    </row>
+    <row r="35" spans="6:45" ht="18.75" customHeight="1">
       <c r="F35" s="13"/>
       <c r="M35" s="36"/>
       <c r="N35" s="46"/>
@@ -3081,9 +3095,9 @@
       <c r="AC35" s="36"/>
       <c r="AH35" s="36"/>
       <c r="AI35" s="36"/>
-      <c r="AR35" s="36"/>
-    </row>
-    <row r="36" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS35" s="36"/>
+    </row>
+    <row r="36" spans="6:45" ht="18.75" customHeight="1">
       <c r="F36" s="13"/>
       <c r="M36" s="36"/>
       <c r="N36" s="46"/>
@@ -3091,9 +3105,9 @@
       <c r="AC36" s="36"/>
       <c r="AH36" s="36"/>
       <c r="AI36" s="36"/>
-      <c r="AR36" s="36"/>
-    </row>
-    <row r="37" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS36" s="36"/>
+    </row>
+    <row r="37" spans="6:45" ht="18.75" customHeight="1">
       <c r="F37" s="13"/>
       <c r="M37" s="36"/>
       <c r="N37" s="46"/>
@@ -3101,9 +3115,9 @@
       <c r="AC37" s="36"/>
       <c r="AH37" s="36"/>
       <c r="AI37" s="36"/>
-      <c r="AR37" s="36"/>
-    </row>
-    <row r="38" spans="6:44" ht="18.75" customHeight="1">
+      <c r="AS37" s="36"/>
+    </row>
+    <row r="38" spans="6:45" ht="18.75" customHeight="1">
       <c r="F38" s="13"/>
       <c r="M38" s="36"/>
       <c r="N38" s="46"/>
@@ -3111,7 +3125,7 @@
       <c r="AC38" s="36"/>
       <c r="AH38" s="36"/>
       <c r="AI38" s="36"/>
-      <c r="AR38" s="36"/>
+      <c r="AS38" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4951,8 +4965,8 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -4966,10 +4980,10 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4983,10 +4997,10 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="51"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -5000,10 +5014,10 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -5017,10 +5031,10 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="51"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -5034,10 +5048,10 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="51"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -5051,10 +5065,10 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="51"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -5068,10 +5082,10 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="51"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -5085,10 +5099,10 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="51"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -5102,10 +5116,10 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="51"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -5119,10 +5133,10 @@
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="51"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -5136,10 +5150,10 @@
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="51"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -5153,10 +5167,10 @@
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="51"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -5170,10 +5184,10 @@
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="51"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -5187,10 +5201,10 @@
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -5204,10 +5218,10 @@
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -5221,10 +5235,10 @@
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -5238,10 +5252,10 @@
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -5255,10 +5269,10 @@
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -5272,10 +5286,10 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -5289,10 +5303,10 @@
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -5306,10 +5320,10 @@
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -5323,10 +5337,10 @@
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -5340,10 +5354,10 @@
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="51"/>
+      <c r="C24" s="53"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -5553,10 +5567,10 @@
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="51"/>
+      <c r="C37" s="53"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -5568,8 +5582,8 @@
     </row>
     <row r="38" spans="1:11" ht="18.75" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -5583,10 +5597,10 @@
       <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="52"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -5600,10 +5614,10 @@
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="51"/>
+      <c r="C40" s="53"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -5617,10 +5631,10 @@
       <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="51"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -5634,10 +5648,10 @@
       <c r="A42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="51"/>
+      <c r="C42" s="53"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -5651,10 +5665,10 @@
       <c r="A43" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="51"/>
+      <c r="C43" s="53"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -5668,10 +5682,10 @@
       <c r="A44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="51"/>
+      <c r="C44" s="53"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -5685,10 +5699,10 @@
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="51"/>
+      <c r="C45" s="53"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -5732,10 +5746,10 @@
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="51"/>
+      <c r="C48" s="53"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -5747,8 +5761,8 @@
     </row>
     <row r="49" spans="1:11" ht="18.75" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -5762,10 +5776,10 @@
       <c r="A50" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="51"/>
+      <c r="C50" s="53"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -5779,10 +5793,10 @@
       <c r="A51" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="51"/>
+      <c r="C51" s="53"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -5796,10 +5810,10 @@
       <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="51"/>
+      <c r="C52" s="53"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -5813,10 +5827,10 @@
       <c r="A53" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="51"/>
+      <c r="C53" s="53"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -5830,10 +5844,10 @@
       <c r="A54" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="51"/>
+      <c r="C54" s="53"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -5847,10 +5861,10 @@
       <c r="A55" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="51" t="s">
+      <c r="B55" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="51"/>
+      <c r="C55" s="53"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -5864,10 +5878,10 @@
       <c r="A56" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="51" t="s">
+      <c r="B56" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="51"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -5881,10 +5895,10 @@
       <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="51"/>
+      <c r="C57" s="53"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -5898,10 +5912,10 @@
       <c r="A58" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B58" s="51" t="s">
+      <c r="B58" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="51"/>
+      <c r="C58" s="53"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -5915,10 +5929,10 @@
       <c r="A59" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="51" t="s">
+      <c r="B59" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="51"/>
+      <c r="C59" s="53"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -5932,10 +5946,10 @@
       <c r="A60" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="51" t="s">
+      <c r="B60" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="C60" s="51"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -5949,10 +5963,10 @@
       <c r="A61" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="51" t="s">
+      <c r="B61" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="51"/>
+      <c r="C61" s="53"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -5966,10 +5980,10 @@
       <c r="A62" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="51" t="s">
+      <c r="B62" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="51"/>
+      <c r="C62" s="53"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -5983,10 +5997,10 @@
       <c r="A63" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B63" s="51" t="s">
+      <c r="B63" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="51"/>
+      <c r="C63" s="53"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -6000,10 +6014,10 @@
       <c r="A64" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="51"/>
+      <c r="C64" s="53"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -6017,10 +6031,10 @@
       <c r="A65" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B65" s="51" t="s">
+      <c r="B65" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="C65" s="51"/>
+      <c r="C65" s="53"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -6034,10 +6048,10 @@
       <c r="A66" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="51" t="s">
+      <c r="B66" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="C66" s="51"/>
+      <c r="C66" s="53"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -6051,10 +6065,10 @@
       <c r="A67" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B67" s="51" t="s">
+      <c r="B67" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C67" s="51"/>
+      <c r="C67" s="53"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -6068,10 +6082,10 @@
       <c r="A68" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="C68" s="51"/>
+      <c r="C68" s="53"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -6085,10 +6099,10 @@
       <c r="A69" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B69" s="51" t="s">
+      <c r="B69" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="51"/>
+      <c r="C69" s="53"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -6102,10 +6116,10 @@
       <c r="A70" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B70" s="51" t="s">
+      <c r="B70" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="C70" s="51"/>
+      <c r="C70" s="53"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -6119,10 +6133,10 @@
       <c r="A71" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="51"/>
+      <c r="C71" s="53"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -6136,10 +6150,10 @@
       <c r="A72" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B72" s="51" t="s">
+      <c r="B72" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="51"/>
+      <c r="C72" s="53"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -6153,10 +6167,10 @@
       <c r="A73" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B73" s="51" t="s">
+      <c r="B73" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="51"/>
+      <c r="C73" s="53"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -6170,10 +6184,10 @@
       <c r="A74" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="51" t="s">
+      <c r="B74" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="C74" s="51"/>
+      <c r="C74" s="53"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -6187,10 +6201,10 @@
       <c r="A75" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="51" t="s">
+      <c r="B75" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="51"/>
+      <c r="C75" s="53"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -6204,10 +6218,10 @@
       <c r="A76" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B76" s="51" t="s">
+      <c r="B76" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="C76" s="51"/>
+      <c r="C76" s="53"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -6221,10 +6235,10 @@
       <c r="A77" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B77" s="51" t="s">
+      <c r="B77" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="51"/>
+      <c r="C77" s="53"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -6812,6 +6826,61 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B77:C77"/>
@@ -6820,61 +6889,6 @@
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sample_metadata/mpxv_test_metadata.xlsx
+++ b/assets/sample_metadata/mpxv_test_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\01.scripts\tostadas\assets\sample_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EB4EAC-66B1-4258-A723-F5C9D5C6E143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74558F2-FB89-4E99-BD44-FC9F87AEA8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8840" yWindow="7940" windowWidth="28800" windowHeight="12760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MPXV_Metadata" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="455">
   <si>
     <t>Strategy</t>
   </si>
@@ -1400,6 +1400,9 @@
   </si>
   <si>
     <t>illumina_library_name</t>
+  </si>
+  <si>
+    <t>Not Provided</t>
   </si>
 </sst>
 </file>
@@ -2128,8 +2131,8 @@
   </sheetPr>
   <dimension ref="A1:BC38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AO3" sqref="AO3"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2423,6 +2426,9 @@
       <c r="AM3" t="s">
         <v>310</v>
       </c>
+      <c r="AO3" t="s">
+        <v>454</v>
+      </c>
       <c r="AP3" t="s">
         <v>414</v>
       </c>
@@ -2515,6 +2521,9 @@
       <c r="AM4" t="s">
         <v>310</v>
       </c>
+      <c r="AO4" t="s">
+        <v>454</v>
+      </c>
       <c r="AP4" t="s">
         <v>414</v>
       </c>
@@ -2610,6 +2619,9 @@
       <c r="AM5" t="s">
         <v>310</v>
       </c>
+      <c r="AO5" t="s">
+        <v>454</v>
+      </c>
       <c r="AP5" t="s">
         <v>414</v>
       </c>
@@ -2705,6 +2717,9 @@
       <c r="AM6" t="s">
         <v>310</v>
       </c>
+      <c r="AO6" t="s">
+        <v>454</v>
+      </c>
       <c r="AP6" t="s">
         <v>414</v>
       </c>
@@ -2799,6 +2814,9 @@
       </c>
       <c r="AM7" t="s">
         <v>310</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>454</v>
       </c>
       <c r="AP7" t="s">
         <v>414</v>
@@ -3129,7 +3147,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6826,61 +6844,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B77:C77"/>
@@ -6889,6 +6852,61 @@
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/sample_metadata/mpxv_test_metadata.xlsx
+++ b/assets/sample_metadata/mpxv_test_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\01.scripts\tostadas\assets\sample_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74558F2-FB89-4E99-BD44-FC9F87AEA8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0371180-E30E-4B12-8573-98F200D907E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8840" yWindow="7940" windowWidth="28800" windowHeight="12760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3170" yWindow="3060" windowWidth="28800" windowHeight="12760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MPXV_Metadata" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="453">
   <si>
     <t>Strategy</t>
   </si>
@@ -1270,9 +1270,6 @@
     <t>ncbi-spuid</t>
   </si>
   <si>
-    <t>ncbi-spuid_namespace</t>
-  </si>
-  <si>
     <t>ncbi-bioproject</t>
   </si>
   <si>
@@ -1388,9 +1385,6 @@
   </si>
   <si>
     <t>host_age</t>
-  </si>
-  <si>
-    <t>POX</t>
   </si>
   <si>
     <t>PRJNA849962</t>
@@ -1412,7 +1406,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1495,13 +1489,6 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1668,7 +1655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1817,7 +1804,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2129,67 +2115,67 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:BC38"/>
+  <dimension ref="A1:BB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="24.1796875" customWidth="1"/>
-    <col min="6" max="6" width="23.453125" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="15.1796875" customWidth="1"/>
-    <col min="13" max="13" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.453125" customWidth="1"/>
-    <col min="15" max="16" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="30" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="13.453125" style="17" customWidth="1"/>
-    <col min="34" max="34" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="35" max="40" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="13.453125" customWidth="1"/>
-    <col min="43" max="50" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.453125" customWidth="1"/>
-    <col min="52" max="52" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="53" max="55" width="13.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.1796875" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="15.1796875" customWidth="1"/>
+    <col min="12" max="12" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.453125" customWidth="1"/>
+    <col min="14" max="15" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="29" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="13.453125" style="17" customWidth="1"/>
+    <col min="33" max="33" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="34" max="39" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="13.453125" customWidth="1"/>
+    <col min="42" max="49" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.453125" customWidth="1"/>
+    <col min="51" max="51" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="52" max="54" width="13.453125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="18.75" customHeight="1">
+    <row r="1" spans="1:54" ht="18.75" customHeight="1">
       <c r="A1" t="s">
         <v>317</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="M1" s="36" t="s">
+      <c r="E1" s="13"/>
+      <c r="L1" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="N1" s="46"/>
-      <c r="Y1" s="36" t="s">
+      <c r="M1" s="46"/>
+      <c r="X1" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="AC1" s="36" t="s">
+      <c r="AB1" s="36" t="s">
         <v>320</v>
       </c>
+      <c r="AG1" s="36" t="s">
+        <v>321</v>
+      </c>
       <c r="AH1" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="AI1" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="AS1" s="36" t="s">
+      <c r="AR1" s="36" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:55" ht="18.75" customHeight="1">
+    <row r="2" spans="1:54" ht="18.75" customHeight="1">
       <c r="A2" s="45" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B2" s="45" t="s">
         <v>409</v>
@@ -2198,16 +2184,16 @@
         <v>410</v>
       </c>
       <c r="D2" s="45" t="s">
+        <v>443</v>
+      </c>
+      <c r="E2" s="47" t="s">
         <v>411</v>
       </c>
-      <c r="E2" s="45" t="s">
-        <v>444</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>412</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>447</v>
+      <c r="F2" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>415</v>
       </c>
       <c r="H2" s="47" t="s">
         <v>416</v>
@@ -2221,929 +2207,911 @@
       <c r="K2" s="47" t="s">
         <v>419</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="X2" s="51" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y2" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB2" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC2" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD2" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE2" s="48" t="s">
         <v>420</v>
       </c>
-      <c r="M2" s="37" t="s">
-        <v>368</v>
-      </c>
-      <c r="N2" s="47" t="s">
-        <v>415</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="T2" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="W2" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="X2" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y2" s="51" t="s">
-        <v>448</v>
-      </c>
-      <c r="Z2" s="45" t="s">
-        <v>449</v>
-      </c>
-      <c r="AA2" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB2" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC2" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="AD2" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="AE2" s="21" t="s">
-        <v>242</v>
-      </c>
       <c r="AF2" s="48" t="s">
-        <v>421</v>
-      </c>
-      <c r="AG2" s="48" t="s">
-        <v>443</v>
+        <v>442</v>
+      </c>
+      <c r="AG2" s="37" t="s">
+        <v>224</v>
       </c>
       <c r="AH2" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI2" s="37" t="s">
         <v>288</v>
       </c>
+      <c r="AI2" s="20" t="s">
+        <v>326</v>
+      </c>
       <c r="AJ2" s="20" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="AK2" s="20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL2" s="20" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM2" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN2" s="20" t="s">
         <v>327</v>
       </c>
+      <c r="AN2" s="45" t="s">
+        <v>451</v>
+      </c>
       <c r="AO2" s="45" t="s">
-        <v>453</v>
+        <v>412</v>
       </c>
       <c r="AP2" s="45" t="s">
-        <v>413</v>
-      </c>
-      <c r="AQ2" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="AR2" s="20" t="s">
+      <c r="AQ2" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="AS2" s="37" t="s">
+      <c r="AR2" s="37" t="s">
         <v>293</v>
       </c>
+      <c r="AS2" s="20" t="s">
+        <v>328</v>
+      </c>
       <c r="AT2" s="20" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="AU2" s="20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AV2" s="20" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AW2" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="AX2" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="AY2" s="45" t="s">
-        <v>452</v>
-      </c>
-      <c r="AZ2" s="20" t="s">
+      <c r="AX2" s="45" t="s">
+        <v>450</v>
+      </c>
+      <c r="AY2" s="20" t="s">
         <v>300</v>
       </c>
+      <c r="AZ2" s="21" t="s">
+        <v>373</v>
+      </c>
       <c r="BA2" s="21" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="BB2" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="BC2" s="21" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:55" ht="18.75" customHeight="1">
+    <row r="3" spans="1:54" ht="18.75" customHeight="1">
       <c r="A3" t="s">
         <v>384</v>
       </c>
       <c r="B3" t="s">
         <v>385</v>
       </c>
-      <c r="C3" s="52" t="s">
-        <v>450</v>
+      <c r="C3" t="s">
+        <v>449</v>
       </c>
       <c r="D3" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E3" t="s">
         <v>445</v>
       </c>
       <c r="F3" t="s">
-        <v>446</v>
-      </c>
-      <c r="G3" t="s">
         <v>386</v>
       </c>
-      <c r="M3" t="s">
+      <c r="L3" t="s">
         <v>385</v>
       </c>
+      <c r="O3" t="s">
+        <v>257</v>
+      </c>
       <c r="P3" t="s">
-        <v>257</v>
+        <v>378</v>
       </c>
       <c r="Q3" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="R3" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="S3" t="s">
-        <v>307</v>
-      </c>
-      <c r="T3" t="s">
         <v>387</v>
       </c>
-      <c r="W3" t="s">
+      <c r="V3" t="s">
         <v>388</v>
       </c>
-      <c r="Y3" s="36"/>
-      <c r="AC3" t="s">
+      <c r="X3" s="36"/>
+      <c r="AB3" t="s">
         <v>389</v>
       </c>
-      <c r="AE3" s="14">
+      <c r="AD3" s="14">
         <v>40</v>
       </c>
-      <c r="AF3" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="AG3" s="14"/>
+      <c r="AE3" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF3" s="14"/>
+      <c r="AG3" t="s">
+        <v>390</v>
+      </c>
       <c r="AH3" t="s">
-        <v>390</v>
+        <v>216</v>
       </c>
       <c r="AI3" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="AJ3" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="AK3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="AL3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM3" t="s">
         <v>310</v>
       </c>
+      <c r="AN3" t="s">
+        <v>452</v>
+      </c>
       <c r="AO3" t="s">
-        <v>454</v>
+        <v>413</v>
       </c>
       <c r="AP3" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="AQ3" t="s">
-        <v>428</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>433</v>
-      </c>
-      <c r="AS3" s="36"/>
-      <c r="BA3" s="14">
+        <v>432</v>
+      </c>
+      <c r="AR3" s="36"/>
+      <c r="AZ3" s="14">
         <v>5</v>
       </c>
-      <c r="BB3" s="50" t="s">
-        <v>437</v>
-      </c>
-      <c r="BC3" s="14">
+      <c r="BA3" s="50" t="s">
+        <v>436</v>
+      </c>
+      <c r="BB3" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:55" ht="18.75" customHeight="1">
+    <row r="4" spans="1:54" ht="18.75" customHeight="1">
       <c r="A4" t="s">
         <v>391</v>
       </c>
       <c r="B4" t="s">
         <v>392</v>
       </c>
-      <c r="C4" s="52" t="s">
-        <v>450</v>
+      <c r="C4" t="s">
+        <v>449</v>
       </c>
       <c r="D4" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E4" t="s">
         <v>445</v>
       </c>
       <c r="F4" t="s">
-        <v>446</v>
-      </c>
-      <c r="G4" t="s">
         <v>393</v>
       </c>
-      <c r="M4" t="s">
+      <c r="L4" t="s">
         <v>392</v>
       </c>
+      <c r="O4" t="s">
+        <v>257</v>
+      </c>
       <c r="P4" t="s">
-        <v>257</v>
+        <v>378</v>
       </c>
       <c r="Q4" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="R4" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="S4" t="s">
-        <v>307</v>
-      </c>
-      <c r="T4" t="s">
         <v>394</v>
       </c>
-      <c r="W4" t="s">
+      <c r="V4" t="s">
         <v>395</v>
       </c>
-      <c r="Y4" s="36"/>
-      <c r="AC4" t="s">
+      <c r="X4" s="36"/>
+      <c r="AB4" t="s">
         <v>396</v>
       </c>
-      <c r="AE4" s="14">
+      <c r="AD4" s="14">
         <v>121</v>
       </c>
-      <c r="AF4" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="AG4" s="14"/>
+      <c r="AE4" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="AF4" s="14"/>
+      <c r="AG4" t="s">
+        <v>397</v>
+      </c>
       <c r="AH4" t="s">
-        <v>397</v>
+        <v>216</v>
       </c>
       <c r="AI4" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="AJ4" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="AK4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="AL4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM4" t="s">
         <v>310</v>
       </c>
+      <c r="AN4" t="s">
+        <v>452</v>
+      </c>
       <c r="AO4" t="s">
-        <v>454</v>
+        <v>413</v>
       </c>
       <c r="AP4" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="AQ4" t="s">
-        <v>429</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>434</v>
-      </c>
-      <c r="AS4" s="36"/>
-      <c r="BA4" s="14">
+        <v>433</v>
+      </c>
+      <c r="AR4" s="36"/>
+      <c r="AZ4" s="14">
         <v>8</v>
       </c>
-      <c r="BB4" s="49" t="s">
-        <v>438</v>
-      </c>
-      <c r="BC4" s="14">
+      <c r="BA4" s="49" t="s">
+        <v>437</v>
+      </c>
+      <c r="BB4" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:55" ht="18.75" customHeight="1">
+    <row r="5" spans="1:54" ht="18.75" customHeight="1">
       <c r="A5" t="s">
         <v>398</v>
       </c>
       <c r="B5" t="s">
         <v>399</v>
       </c>
-      <c r="C5" s="52" t="s">
-        <v>450</v>
+      <c r="C5" t="s">
+        <v>449</v>
       </c>
       <c r="D5" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E5" t="s">
         <v>445</v>
       </c>
       <c r="F5" t="s">
-        <v>446</v>
-      </c>
-      <c r="G5" t="s">
         <v>393</v>
       </c>
-      <c r="M5" t="s">
+      <c r="L5" t="s">
         <v>399</v>
       </c>
+      <c r="O5" t="s">
+        <v>257</v>
+      </c>
       <c r="P5" t="s">
-        <v>257</v>
+        <v>378</v>
       </c>
       <c r="Q5" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="R5" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="S5" t="s">
-        <v>307</v>
+        <v>394</v>
       </c>
       <c r="T5" t="s">
-        <v>394</v>
-      </c>
-      <c r="U5" t="s">
         <v>379</v>
       </c>
-      <c r="W5" t="s">
+      <c r="V5" t="s">
         <v>400</v>
       </c>
-      <c r="Y5" s="36"/>
-      <c r="AC5" t="s">
+      <c r="X5" s="36"/>
+      <c r="AB5" t="s">
         <v>401</v>
       </c>
-      <c r="AE5" s="14">
+      <c r="AD5" s="14">
         <v>72</v>
       </c>
-      <c r="AF5" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="AG5" s="14"/>
+      <c r="AE5" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="AF5" s="14"/>
+      <c r="AG5" t="s">
+        <v>402</v>
+      </c>
       <c r="AH5" t="s">
-        <v>402</v>
+        <v>216</v>
       </c>
       <c r="AI5" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="AJ5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>310</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>452</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>413</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>429</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>434</v>
+      </c>
+      <c r="AR5" s="36"/>
+      <c r="AZ5" s="14">
         <v>4</v>
       </c>
-      <c r="AK5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>310</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>454</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>414</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>430</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>435</v>
-      </c>
-      <c r="AS5" s="36"/>
-      <c r="BA5" s="14">
-        <v>4</v>
-      </c>
-      <c r="BB5" s="50" t="s">
-        <v>439</v>
-      </c>
-      <c r="BC5" s="14">
+      <c r="BA5" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="BB5" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:55" ht="18.75" customHeight="1">
+    <row r="6" spans="1:54" ht="18.75" customHeight="1">
       <c r="A6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B6" t="s">
         <v>403</v>
       </c>
-      <c r="C6" s="52" t="s">
-        <v>450</v>
+      <c r="C6" t="s">
+        <v>449</v>
       </c>
       <c r="D6" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E6" t="s">
         <v>445</v>
       </c>
       <c r="F6" t="s">
-        <v>446</v>
-      </c>
-      <c r="G6" t="s">
         <v>404</v>
       </c>
-      <c r="M6" t="s">
+      <c r="L6" t="s">
         <v>403</v>
       </c>
+      <c r="O6" t="s">
+        <v>257</v>
+      </c>
       <c r="P6" t="s">
-        <v>257</v>
+        <v>378</v>
       </c>
       <c r="Q6" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="R6" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="S6" t="s">
-        <v>307</v>
+        <v>405</v>
       </c>
       <c r="T6" t="s">
+        <v>379</v>
+      </c>
+      <c r="V6" t="s">
+        <v>380</v>
+      </c>
+      <c r="X6" s="36"/>
+      <c r="AB6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>73</v>
+      </c>
+      <c r="AE6" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="AF6" s="14"/>
+      <c r="AG6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>310</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>430</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>435</v>
+      </c>
+      <c r="AR6" s="36"/>
+      <c r="AZ6" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="BA6" s="50" t="s">
         <v>405</v>
       </c>
-      <c r="U6" t="s">
-        <v>379</v>
-      </c>
-      <c r="W6" t="s">
-        <v>380</v>
-      </c>
-      <c r="Y6" s="36"/>
-      <c r="AC6" t="s">
-        <v>406</v>
-      </c>
-      <c r="AE6" s="14">
-        <v>73</v>
-      </c>
-      <c r="AF6" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="AG6" s="14"/>
-      <c r="AH6" t="s">
-        <v>407</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>310</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>454</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>431</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>436</v>
-      </c>
-      <c r="AS6" s="36"/>
-      <c r="BA6" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="BB6" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="BC6" s="14">
+      <c r="BB6" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:55" ht="18.75" customHeight="1">
+    <row r="7" spans="1:54" ht="18.75" customHeight="1">
       <c r="A7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B7" t="s">
         <v>376</v>
       </c>
-      <c r="C7" s="52" t="s">
-        <v>450</v>
+      <c r="C7" t="s">
+        <v>449</v>
       </c>
       <c r="D7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E7" t="s">
         <v>445</v>
       </c>
       <c r="F7" t="s">
-        <v>446</v>
-      </c>
-      <c r="G7" t="s">
         <v>377</v>
       </c>
-      <c r="M7" t="s">
+      <c r="L7" t="s">
         <v>376</v>
       </c>
+      <c r="O7" t="s">
+        <v>257</v>
+      </c>
       <c r="P7" t="s">
-        <v>257</v>
+        <v>378</v>
       </c>
       <c r="Q7" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="R7" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="S7" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="T7" t="s">
+        <v>379</v>
+      </c>
+      <c r="V7" t="s">
+        <v>380</v>
+      </c>
+      <c r="X7" s="36"/>
+      <c r="AB7" t="s">
+        <v>381</v>
+      </c>
+      <c r="AD7" s="14">
+        <v>247</v>
+      </c>
+      <c r="AE7" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="AF7" s="49"/>
+      <c r="AG7" t="s">
+        <v>382</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>310</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>452</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>413</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>426</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>431</v>
+      </c>
+      <c r="AR7" s="36"/>
+      <c r="AZ7" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="BA7" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="U7" t="s">
-        <v>379</v>
-      </c>
-      <c r="W7" t="s">
-        <v>380</v>
-      </c>
-      <c r="Y7" s="36"/>
-      <c r="AC7" t="s">
-        <v>381</v>
-      </c>
-      <c r="AE7" s="14">
-        <v>247</v>
-      </c>
-      <c r="AF7" s="49" t="s">
-        <v>422</v>
-      </c>
-      <c r="AG7" s="49"/>
-      <c r="AH7" t="s">
-        <v>382</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>310</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>454</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>414</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>427</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>432</v>
-      </c>
-      <c r="AS7" s="36"/>
-      <c r="BA7" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="BB7" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="BC7" s="14">
+      <c r="BB7" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:55" ht="18.75" customHeight="1">
-      <c r="Y8" s="36"/>
+    <row r="8" spans="1:54" ht="18.75" customHeight="1">
+      <c r="X8" s="36"/>
+      <c r="AD8" s="14"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AS8" s="36"/>
-    </row>
-    <row r="9" spans="1:55" ht="18.75" customHeight="1">
-      <c r="F9" s="13"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="46"/>
-      <c r="Y9" s="36"/>
-      <c r="AC9" s="36"/>
+      <c r="AR8" s="36"/>
+    </row>
+    <row r="9" spans="1:54" ht="18.75" customHeight="1">
+      <c r="E9" s="13"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="46"/>
+      <c r="X9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AG9" s="36"/>
       <c r="AH9" s="36"/>
-      <c r="AI9" s="36"/>
-      <c r="AS9" s="36"/>
-    </row>
-    <row r="10" spans="1:55" ht="18.75" customHeight="1">
-      <c r="F10" s="13"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="46"/>
-      <c r="Y10" s="36"/>
-      <c r="AC10" s="36"/>
+      <c r="AR9" s="36"/>
+    </row>
+    <row r="10" spans="1:54" ht="18.75" customHeight="1">
+      <c r="E10" s="13"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="46"/>
+      <c r="X10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AG10" s="36"/>
       <c r="AH10" s="36"/>
-      <c r="AI10" s="36"/>
-      <c r="AS10" s="36"/>
-    </row>
-    <row r="11" spans="1:55" ht="18.75" customHeight="1">
-      <c r="F11" s="13"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="46"/>
-      <c r="Y11" s="36"/>
-      <c r="AC11" s="36"/>
+      <c r="AR10" s="36"/>
+    </row>
+    <row r="11" spans="1:54" ht="18.75" customHeight="1">
+      <c r="E11" s="13"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="46"/>
+      <c r="X11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AG11" s="36"/>
       <c r="AH11" s="36"/>
-      <c r="AI11" s="36"/>
-      <c r="AS11" s="36"/>
-    </row>
-    <row r="12" spans="1:55" ht="18.75" customHeight="1">
-      <c r="F12" s="13"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="46"/>
-      <c r="Y12" s="36"/>
-      <c r="AC12" s="36"/>
+      <c r="AR11" s="36"/>
+    </row>
+    <row r="12" spans="1:54" ht="18.75" customHeight="1">
+      <c r="E12" s="13"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="46"/>
+      <c r="X12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AG12" s="36"/>
       <c r="AH12" s="36"/>
-      <c r="AI12" s="36"/>
-      <c r="AS12" s="36"/>
-    </row>
-    <row r="13" spans="1:55" ht="18.75" customHeight="1">
-      <c r="F13" s="13"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="46"/>
-      <c r="Y13" s="36"/>
-      <c r="AC13" s="36"/>
+      <c r="AR12" s="36"/>
+    </row>
+    <row r="13" spans="1:54" ht="18.75" customHeight="1">
+      <c r="E13" s="13"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="46"/>
+      <c r="X13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AG13" s="36"/>
       <c r="AH13" s="36"/>
-      <c r="AI13" s="36"/>
-      <c r="AS13" s="36"/>
-    </row>
-    <row r="14" spans="1:55" ht="18.75" customHeight="1">
-      <c r="F14" s="13"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="46"/>
-      <c r="Y14" s="36"/>
-      <c r="AC14" s="36"/>
+      <c r="AR13" s="36"/>
+    </row>
+    <row r="14" spans="1:54" ht="18.75" customHeight="1">
+      <c r="E14" s="13"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="46"/>
+      <c r="X14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AG14" s="36"/>
       <c r="AH14" s="36"/>
-      <c r="AI14" s="36"/>
-      <c r="AS14" s="36"/>
-    </row>
-    <row r="15" spans="1:55" ht="18.75" customHeight="1">
-      <c r="F15" s="13"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="46"/>
-      <c r="Y15" s="36"/>
-      <c r="AC15" s="36"/>
+      <c r="AR14" s="36"/>
+    </row>
+    <row r="15" spans="1:54" ht="18.75" customHeight="1">
+      <c r="E15" s="13"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="46"/>
+      <c r="X15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AG15" s="36"/>
       <c r="AH15" s="36"/>
-      <c r="AI15" s="36"/>
-      <c r="AS15" s="36"/>
-    </row>
-    <row r="16" spans="1:55" ht="18.75" customHeight="1">
-      <c r="F16" s="13"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="46"/>
-      <c r="Y16" s="36"/>
-      <c r="AC16" s="36"/>
+      <c r="AR15" s="36"/>
+    </row>
+    <row r="16" spans="1:54" ht="18.75" customHeight="1">
+      <c r="E16" s="13"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="46"/>
+      <c r="X16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AG16" s="36"/>
       <c r="AH16" s="36"/>
-      <c r="AI16" s="36"/>
-      <c r="AS16" s="36"/>
-    </row>
-    <row r="17" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F17" s="13"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="46"/>
-      <c r="Y17" s="36"/>
-      <c r="AC17" s="36"/>
+      <c r="AR16" s="36"/>
+    </row>
+    <row r="17" spans="5:44" ht="18.75" customHeight="1">
+      <c r="E17" s="13"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="46"/>
+      <c r="X17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AG17" s="36"/>
       <c r="AH17" s="36"/>
-      <c r="AI17" s="36"/>
-      <c r="AS17" s="36"/>
-    </row>
-    <row r="18" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F18" s="13"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="46"/>
-      <c r="Y18" s="36"/>
-      <c r="AC18" s="36"/>
+      <c r="AR17" s="36"/>
+    </row>
+    <row r="18" spans="5:44" ht="18.75" customHeight="1">
+      <c r="E18" s="13"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="46"/>
+      <c r="X18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AG18" s="36"/>
       <c r="AH18" s="36"/>
-      <c r="AI18" s="36"/>
-      <c r="AS18" s="36"/>
-    </row>
-    <row r="19" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F19" s="13"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="46"/>
-      <c r="Y19" s="36"/>
-      <c r="AC19" s="36"/>
+      <c r="AR18" s="36"/>
+    </row>
+    <row r="19" spans="5:44" ht="18.75" customHeight="1">
+      <c r="E19" s="13"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="46"/>
+      <c r="X19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AG19" s="36"/>
       <c r="AH19" s="36"/>
-      <c r="AI19" s="36"/>
-      <c r="AS19" s="36"/>
-    </row>
-    <row r="20" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F20" s="13"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="46"/>
-      <c r="Y20" s="36"/>
-      <c r="AC20" s="36"/>
+      <c r="AR19" s="36"/>
+    </row>
+    <row r="20" spans="5:44" ht="18.75" customHeight="1">
+      <c r="E20" s="13"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="46"/>
+      <c r="X20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AG20" s="36"/>
       <c r="AH20" s="36"/>
-      <c r="AI20" s="36"/>
-      <c r="AS20" s="36"/>
-    </row>
-    <row r="21" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F21" s="13"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="46"/>
-      <c r="Y21" s="36"/>
-      <c r="AC21" s="36"/>
+      <c r="AR20" s="36"/>
+    </row>
+    <row r="21" spans="5:44" ht="18.75" customHeight="1">
+      <c r="E21" s="13"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="46"/>
+      <c r="X21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AG21" s="36"/>
       <c r="AH21" s="36"/>
-      <c r="AI21" s="36"/>
-      <c r="AS21" s="36"/>
-    </row>
-    <row r="22" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F22" s="13"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="46"/>
-      <c r="Y22" s="36"/>
-      <c r="AC22" s="36"/>
+      <c r="AR21" s="36"/>
+    </row>
+    <row r="22" spans="5:44" ht="18.75" customHeight="1">
+      <c r="E22" s="13"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="46"/>
+      <c r="X22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AG22" s="36"/>
       <c r="AH22" s="36"/>
-      <c r="AI22" s="36"/>
-      <c r="AS22" s="36"/>
-    </row>
-    <row r="23" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F23" s="13"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="46"/>
-      <c r="Y23" s="36"/>
-      <c r="AC23" s="36"/>
+      <c r="AR22" s="36"/>
+    </row>
+    <row r="23" spans="5:44" ht="18.75" customHeight="1">
+      <c r="E23" s="13"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="46"/>
+      <c r="X23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AG23" s="36"/>
       <c r="AH23" s="36"/>
-      <c r="AI23" s="36"/>
-      <c r="AS23" s="36"/>
-    </row>
-    <row r="24" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F24" s="13"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="46"/>
-      <c r="Y24" s="36"/>
-      <c r="AC24" s="36"/>
+      <c r="AR23" s="36"/>
+    </row>
+    <row r="24" spans="5:44" ht="18.75" customHeight="1">
+      <c r="E24" s="13"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="46"/>
+      <c r="X24" s="36"/>
+      <c r="AB24" s="36"/>
+      <c r="AG24" s="36"/>
       <c r="AH24" s="36"/>
-      <c r="AI24" s="36"/>
-      <c r="AS24" s="36"/>
-    </row>
-    <row r="25" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F25" s="13"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="46"/>
-      <c r="Y25" s="36"/>
-      <c r="AC25" s="36"/>
+      <c r="AR24" s="36"/>
+    </row>
+    <row r="25" spans="5:44" ht="18.75" customHeight="1">
+      <c r="E25" s="13"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="46"/>
+      <c r="X25" s="36"/>
+      <c r="AB25" s="36"/>
+      <c r="AG25" s="36"/>
       <c r="AH25" s="36"/>
-      <c r="AI25" s="36"/>
-      <c r="AS25" s="36"/>
-    </row>
-    <row r="26" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F26" s="13"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="46"/>
-      <c r="Y26" s="36"/>
-      <c r="AC26" s="36"/>
+      <c r="AR25" s="36"/>
+    </row>
+    <row r="26" spans="5:44" ht="18.75" customHeight="1">
+      <c r="E26" s="13"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="46"/>
+      <c r="X26" s="36"/>
+      <c r="AB26" s="36"/>
+      <c r="AG26" s="36"/>
       <c r="AH26" s="36"/>
-      <c r="AI26" s="36"/>
-      <c r="AS26" s="36"/>
-    </row>
-    <row r="27" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F27" s="13"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="46"/>
-      <c r="Y27" s="36"/>
-      <c r="AC27" s="36"/>
+      <c r="AR26" s="36"/>
+    </row>
+    <row r="27" spans="5:44" ht="18.75" customHeight="1">
+      <c r="E27" s="13"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="46"/>
+      <c r="X27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AG27" s="36"/>
       <c r="AH27" s="36"/>
-      <c r="AI27" s="36"/>
-      <c r="AS27" s="36"/>
-    </row>
-    <row r="28" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F28" s="13"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="46"/>
-      <c r="Y28" s="36"/>
-      <c r="AC28" s="36"/>
+      <c r="AR27" s="36"/>
+    </row>
+    <row r="28" spans="5:44" ht="18.75" customHeight="1">
+      <c r="E28" s="13"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="46"/>
+      <c r="X28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AG28" s="36"/>
       <c r="AH28" s="36"/>
-      <c r="AI28" s="36"/>
-      <c r="AS28" s="36"/>
-    </row>
-    <row r="29" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F29" s="13"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="46"/>
-      <c r="Y29" s="36"/>
-      <c r="AC29" s="36"/>
+      <c r="AR28" s="36"/>
+    </row>
+    <row r="29" spans="5:44" ht="18.75" customHeight="1">
+      <c r="E29" s="13"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="46"/>
+      <c r="X29" s="36"/>
+      <c r="AB29" s="36"/>
+      <c r="AG29" s="36"/>
       <c r="AH29" s="36"/>
-      <c r="AI29" s="36"/>
-      <c r="AS29" s="36"/>
-    </row>
-    <row r="30" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F30" s="13"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="46"/>
-      <c r="Y30" s="36"/>
-      <c r="AC30" s="36"/>
+      <c r="AR29" s="36"/>
+    </row>
+    <row r="30" spans="5:44" ht="18.75" customHeight="1">
+      <c r="E30" s="13"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="46"/>
+      <c r="X30" s="36"/>
+      <c r="AB30" s="36"/>
+      <c r="AG30" s="36"/>
       <c r="AH30" s="36"/>
-      <c r="AI30" s="36"/>
-      <c r="AS30" s="36"/>
-    </row>
-    <row r="31" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F31" s="13"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="46"/>
-      <c r="Y31" s="36"/>
-      <c r="AC31" s="36"/>
+      <c r="AR30" s="36"/>
+    </row>
+    <row r="31" spans="5:44" ht="18.75" customHeight="1">
+      <c r="E31" s="13"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="46"/>
+      <c r="X31" s="36"/>
+      <c r="AB31" s="36"/>
+      <c r="AG31" s="36"/>
       <c r="AH31" s="36"/>
-      <c r="AI31" s="36"/>
-      <c r="AS31" s="36"/>
-    </row>
-    <row r="32" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F32" s="13"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="46"/>
-      <c r="Y32" s="36"/>
-      <c r="AC32" s="36"/>
+      <c r="AR31" s="36"/>
+    </row>
+    <row r="32" spans="5:44" ht="18.75" customHeight="1">
+      <c r="E32" s="13"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="46"/>
+      <c r="X32" s="36"/>
+      <c r="AB32" s="36"/>
+      <c r="AG32" s="36"/>
       <c r="AH32" s="36"/>
-      <c r="AI32" s="36"/>
-      <c r="AS32" s="36"/>
-    </row>
-    <row r="33" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F33" s="13"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="46"/>
-      <c r="Y33" s="36"/>
-      <c r="AC33" s="36"/>
+      <c r="AR32" s="36"/>
+    </row>
+    <row r="33" spans="5:44" ht="18.75" customHeight="1">
+      <c r="E33" s="13"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="46"/>
+      <c r="X33" s="36"/>
+      <c r="AB33" s="36"/>
+      <c r="AG33" s="36"/>
       <c r="AH33" s="36"/>
-      <c r="AI33" s="36"/>
-      <c r="AS33" s="36"/>
-    </row>
-    <row r="34" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F34" s="13"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="46"/>
-      <c r="Y34" s="36"/>
-      <c r="AC34" s="36"/>
+      <c r="AR33" s="36"/>
+    </row>
+    <row r="34" spans="5:44" ht="18.75" customHeight="1">
+      <c r="E34" s="13"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="46"/>
+      <c r="X34" s="36"/>
+      <c r="AB34" s="36"/>
+      <c r="AG34" s="36"/>
       <c r="AH34" s="36"/>
-      <c r="AI34" s="36"/>
-      <c r="AS34" s="36"/>
-    </row>
-    <row r="35" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F35" s="13"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="46"/>
-      <c r="Y35" s="36"/>
-      <c r="AC35" s="36"/>
+      <c r="AR34" s="36"/>
+    </row>
+    <row r="35" spans="5:44" ht="18.75" customHeight="1">
+      <c r="E35" s="13"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="46"/>
+      <c r="X35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AG35" s="36"/>
       <c r="AH35" s="36"/>
-      <c r="AI35" s="36"/>
-      <c r="AS35" s="36"/>
-    </row>
-    <row r="36" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F36" s="13"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="46"/>
-      <c r="Y36" s="36"/>
-      <c r="AC36" s="36"/>
+      <c r="AR35" s="36"/>
+    </row>
+    <row r="36" spans="5:44" ht="18.75" customHeight="1">
+      <c r="E36" s="13"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="46"/>
+      <c r="X36" s="36"/>
+      <c r="AB36" s="36"/>
+      <c r="AG36" s="36"/>
       <c r="AH36" s="36"/>
-      <c r="AI36" s="36"/>
-      <c r="AS36" s="36"/>
-    </row>
-    <row r="37" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F37" s="13"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="46"/>
-      <c r="Y37" s="36"/>
-      <c r="AC37" s="36"/>
+      <c r="AR36" s="36"/>
+    </row>
+    <row r="37" spans="5:44" ht="18.75" customHeight="1">
+      <c r="E37" s="13"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="46"/>
+      <c r="X37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AG37" s="36"/>
       <c r="AH37" s="36"/>
-      <c r="AI37" s="36"/>
-      <c r="AS37" s="36"/>
-    </row>
-    <row r="38" spans="6:45" ht="18.75" customHeight="1">
-      <c r="F38" s="13"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="46"/>
-      <c r="Y38" s="36"/>
-      <c r="AC38" s="36"/>
+      <c r="AR37" s="36"/>
+    </row>
+    <row r="38" spans="5:44" ht="18.75" customHeight="1">
+      <c r="E38" s="13"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="46"/>
+      <c r="X38" s="36"/>
+      <c r="AB38" s="36"/>
+      <c r="AG38" s="36"/>
       <c r="AH38" s="36"/>
-      <c r="AI38" s="36"/>
-      <c r="AS38" s="36"/>
+      <c r="AR38" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4983,8 +4951,8 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -4998,10 +4966,10 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -5015,10 +4983,10 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -5032,10 +5000,10 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -5049,10 +5017,10 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="53"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -5066,10 +5034,10 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="53"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -5083,10 +5051,10 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="53"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -5100,10 +5068,10 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="53"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -5117,10 +5085,10 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="53"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -5134,10 +5102,10 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -5151,10 +5119,10 @@
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="53"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -5168,10 +5136,10 @@
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -5185,10 +5153,10 @@
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="53"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -5202,10 +5170,10 @@
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="53"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -5219,10 +5187,10 @@
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="53"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -5236,10 +5204,10 @@
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="53"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -5253,10 +5221,10 @@
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="53"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -5270,10 +5238,10 @@
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="53"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -5287,10 +5255,10 @@
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="53"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -5304,10 +5272,10 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -5321,10 +5289,10 @@
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="53"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -5338,10 +5306,10 @@
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="53"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -5355,10 +5323,10 @@
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="53"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -5372,10 +5340,10 @@
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="53"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -5585,10 +5553,10 @@
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="53"/>
+      <c r="C37" s="52"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -5600,8 +5568,8 @@
     </row>
     <row r="38" spans="1:11" ht="18.75" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -5615,10 +5583,10 @@
       <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="54"/>
+      <c r="C39" s="53"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -5632,10 +5600,10 @@
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="53"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -5649,10 +5617,10 @@
       <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="53"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -5666,10 +5634,10 @@
       <c r="A42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="53"/>
+      <c r="C42" s="52"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -5683,10 +5651,10 @@
       <c r="A43" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="53"/>
+      <c r="C43" s="52"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -5700,10 +5668,10 @@
       <c r="A44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="53"/>
+      <c r="C44" s="52"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -5717,10 +5685,10 @@
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="53" t="s">
+      <c r="B45" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="53"/>
+      <c r="C45" s="52"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -5764,10 +5732,10 @@
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="53"/>
+      <c r="C48" s="52"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -5779,8 +5747,8 @@
     </row>
     <row r="49" spans="1:11" ht="18.75" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -5794,10 +5762,10 @@
       <c r="A50" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="53"/>
+      <c r="C50" s="52"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -5811,10 +5779,10 @@
       <c r="A51" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="53"/>
+      <c r="C51" s="52"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -5828,10 +5796,10 @@
       <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="53"/>
+      <c r="C52" s="52"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -5845,10 +5813,10 @@
       <c r="A53" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="53" t="s">
+      <c r="B53" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="53"/>
+      <c r="C53" s="52"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -5862,10 +5830,10 @@
       <c r="A54" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="53" t="s">
+      <c r="B54" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="53"/>
+      <c r="C54" s="52"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -5879,10 +5847,10 @@
       <c r="A55" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="53" t="s">
+      <c r="B55" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="53"/>
+      <c r="C55" s="52"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -5896,10 +5864,10 @@
       <c r="A56" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="53" t="s">
+      <c r="B56" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="53"/>
+      <c r="C56" s="52"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -5913,10 +5881,10 @@
       <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="53" t="s">
+      <c r="B57" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="53"/>
+      <c r="C57" s="52"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -5930,10 +5898,10 @@
       <c r="A58" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B58" s="53" t="s">
+      <c r="B58" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="53"/>
+      <c r="C58" s="52"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -5947,10 +5915,10 @@
       <c r="A59" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="53" t="s">
+      <c r="B59" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="53"/>
+      <c r="C59" s="52"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -5964,10 +5932,10 @@
       <c r="A60" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="53" t="s">
+      <c r="B60" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="C60" s="53"/>
+      <c r="C60" s="52"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -5981,10 +5949,10 @@
       <c r="A61" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="53"/>
+      <c r="C61" s="52"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -5998,10 +5966,10 @@
       <c r="A62" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="53" t="s">
+      <c r="B62" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="53"/>
+      <c r="C62" s="52"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -6015,10 +5983,10 @@
       <c r="A63" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B63" s="53" t="s">
+      <c r="B63" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="53"/>
+      <c r="C63" s="52"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -6032,10 +6000,10 @@
       <c r="A64" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="53" t="s">
+      <c r="B64" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="53"/>
+      <c r="C64" s="52"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -6049,10 +6017,10 @@
       <c r="A65" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B65" s="53" t="s">
+      <c r="B65" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="C65" s="53"/>
+      <c r="C65" s="52"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -6066,10 +6034,10 @@
       <c r="A66" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="53" t="s">
+      <c r="B66" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="C66" s="53"/>
+      <c r="C66" s="52"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -6083,10 +6051,10 @@
       <c r="A67" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B67" s="53" t="s">
+      <c r="B67" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="C67" s="53"/>
+      <c r="C67" s="52"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -6100,10 +6068,10 @@
       <c r="A68" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B68" s="53" t="s">
+      <c r="B68" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="C68" s="53"/>
+      <c r="C68" s="52"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -6117,10 +6085,10 @@
       <c r="A69" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B69" s="53" t="s">
+      <c r="B69" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="53"/>
+      <c r="C69" s="52"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -6134,10 +6102,10 @@
       <c r="A70" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B70" s="53" t="s">
+      <c r="B70" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="C70" s="53"/>
+      <c r="C70" s="52"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -6151,10 +6119,10 @@
       <c r="A71" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B71" s="53" t="s">
+      <c r="B71" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="53"/>
+      <c r="C71" s="52"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -6168,10 +6136,10 @@
       <c r="A72" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B72" s="53" t="s">
+      <c r="B72" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="53"/>
+      <c r="C72" s="52"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -6185,10 +6153,10 @@
       <c r="A73" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="53"/>
+      <c r="C73" s="52"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -6202,10 +6170,10 @@
       <c r="A74" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="53" t="s">
+      <c r="B74" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="C74" s="53"/>
+      <c r="C74" s="52"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -6219,10 +6187,10 @@
       <c r="A75" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="53" t="s">
+      <c r="B75" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="53"/>
+      <c r="C75" s="52"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -6236,10 +6204,10 @@
       <c r="A76" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B76" s="53" t="s">
+      <c r="B76" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="C76" s="53"/>
+      <c r="C76" s="52"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -6253,10 +6221,10 @@
       <c r="A77" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B77" s="53" t="s">
+      <c r="B77" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="53"/>
+      <c r="C77" s="52"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>

--- a/assets/sample_metadata/mpxv_test_metadata.xlsx
+++ b/assets/sample_metadata/mpxv_test_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\01.scripts\tostadas\assets\sample_metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0371180-E30E-4B12-8573-98F200D907E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD707E30-AE73-4EE7-A9B4-B364B8A7B364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3170" yWindow="3060" windowWidth="28800" windowHeight="12760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="3800" windowWidth="20790" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MPXV_Metadata" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="454">
   <si>
     <t>Strategy</t>
   </si>
@@ -1397,6 +1397,9 @@
   </si>
   <si>
     <t>Not Provided</t>
+  </si>
+  <si>
+    <t>ncbi-spuid-sra</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1651,11 +1654,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1802,6 +1853,24 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2118,28 +2187,28 @@
   <dimension ref="A1:BB38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.1796875" customWidth="1"/>
-    <col min="5" max="5" width="23.453125" customWidth="1"/>
-    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="15.1796875" customWidth="1"/>
-    <col min="12" max="12" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.453125" customWidth="1"/>
-    <col min="14" max="15" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="29" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="13.453125" style="17" customWidth="1"/>
-    <col min="33" max="33" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.1796875" customWidth="1"/>
+    <col min="6" max="6" width="23.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="15.1796875" customWidth="1"/>
+    <col min="13" max="13" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.453125" customWidth="1"/>
+    <col min="15" max="16" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="30" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="13.453125" style="17" customWidth="1"/>
     <col min="34" max="39" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="40" max="41" width="13.453125" customWidth="1"/>
     <col min="42" max="49" width="13.453125" bestFit="1" customWidth="1"/>
@@ -2152,19 +2221,17 @@
       <c r="A1" t="s">
         <v>317</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="L1" s="36" t="s">
+      <c r="C1" s="36"/>
+      <c r="F1" s="13"/>
+      <c r="M1" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="X1" s="36" t="s">
+      <c r="N1" s="46"/>
+      <c r="Y1" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="AB1" s="36" t="s">
+      <c r="AC1" s="36" t="s">
         <v>320</v>
-      </c>
-      <c r="AG1" s="36" t="s">
-        <v>321</v>
       </c>
       <c r="AH1" s="36" t="s">
         <v>322</v>
@@ -2177,101 +2244,101 @@
       <c r="A2" s="45" t="s">
         <v>439</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="52" t="s">
         <v>409</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="53" t="s">
+        <v>453</v>
+      </c>
+      <c r="D2" s="45" t="s">
         <v>410</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="E2" s="45" t="s">
         <v>443</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="F2" s="47" t="s">
         <v>411</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>446</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="H2" s="47" t="s">
         <v>415</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="I2" s="47" t="s">
         <v>416</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="J2" s="47" t="s">
         <v>417</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="K2" s="47" t="s">
         <v>418</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="L2" s="47" t="s">
         <v>419</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="M2" s="37" t="s">
         <v>368</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="N2" s="47" t="s">
         <v>414</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="O2" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="P2" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="Q2" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="R2" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="S2" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="T2" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="U2" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="V2" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="W2" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="X2" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="X2" s="51" t="s">
+      <c r="Y2" s="51" t="s">
         <v>447</v>
       </c>
-      <c r="Y2" s="45" t="s">
+      <c r="Z2" s="45" t="s">
         <v>448</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="AA2" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AB2" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="AB2" s="37" t="s">
+      <c r="AC2" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="AD2" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="AD2" s="21" t="s">
+      <c r="AE2" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="AE2" s="48" t="s">
+      <c r="AF2" s="48" t="s">
         <v>420</v>
       </c>
-      <c r="AF2" s="48" t="s">
+      <c r="AG2" s="48" t="s">
         <v>442</v>
-      </c>
-      <c r="AG2" s="37" t="s">
-        <v>224</v>
       </c>
       <c r="AH2" s="37" t="s">
         <v>288</v>
@@ -2300,10 +2367,10 @@
       <c r="AP2" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="AQ2" s="20" t="s">
+      <c r="AQ2" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="AR2" s="37" t="s">
+      <c r="AR2" s="58" t="s">
         <v>293</v>
       </c>
       <c r="AS2" s="20" t="s">
@@ -2344,54 +2411,54 @@
       <c r="B3" t="s">
         <v>385</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="D3" t="s">
         <v>449</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>444</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>445</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>386</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" s="54" t="s">
         <v>385</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>257</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>378</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>350</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>307</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>387</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>388</v>
       </c>
-      <c r="X3" s="36"/>
-      <c r="AB3" t="s">
+      <c r="Y3" s="36"/>
+      <c r="AC3" s="54" t="s">
         <v>389</v>
       </c>
-      <c r="AD3" s="14">
+      <c r="AE3" s="14">
         <v>40</v>
       </c>
-      <c r="AE3" s="14" t="s">
+      <c r="AF3" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="AF3" s="14"/>
-      <c r="AG3" t="s">
-        <v>390</v>
-      </c>
-      <c r="AH3" t="s">
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="54" t="s">
         <v>216</v>
       </c>
       <c r="AI3" t="s">
@@ -2415,10 +2482,10 @@
       <c r="AP3" t="s">
         <v>427</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AQ3" s="57" t="s">
         <v>432</v>
       </c>
-      <c r="AR3" s="36"/>
+      <c r="AR3" s="59"/>
       <c r="AZ3" s="14">
         <v>5</v>
       </c>
@@ -2436,54 +2503,54 @@
       <c r="B4" t="s">
         <v>392</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="D4" t="s">
         <v>449</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>444</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>445</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>393</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" s="55" t="s">
         <v>392</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>257</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>378</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>350</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>307</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>394</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>395</v>
       </c>
-      <c r="X4" s="36"/>
-      <c r="AB4" t="s">
+      <c r="Y4" s="36"/>
+      <c r="AC4" s="55" t="s">
         <v>396</v>
       </c>
-      <c r="AD4" s="14">
+      <c r="AE4" s="14">
         <v>121</v>
       </c>
-      <c r="AE4" s="14" t="s">
+      <c r="AF4" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="AF4" s="14"/>
-      <c r="AG4" t="s">
-        <v>397</v>
-      </c>
-      <c r="AH4" t="s">
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="55" t="s">
         <v>216</v>
       </c>
       <c r="AI4" t="s">
@@ -2507,10 +2574,10 @@
       <c r="AP4" t="s">
         <v>428</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AQ4" s="57" t="s">
         <v>433</v>
       </c>
-      <c r="AR4" s="36"/>
+      <c r="AR4" s="59"/>
       <c r="AZ4" s="14">
         <v>8</v>
       </c>
@@ -2528,57 +2595,57 @@
       <c r="B5" t="s">
         <v>399</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="D5" t="s">
         <v>449</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>444</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>445</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>393</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" s="55" t="s">
         <v>399</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>257</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>378</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>350</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>307</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>394</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>379</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>400</v>
       </c>
-      <c r="X5" s="36"/>
-      <c r="AB5" t="s">
+      <c r="Y5" s="36"/>
+      <c r="AC5" s="55" t="s">
         <v>401</v>
       </c>
-      <c r="AD5" s="14">
+      <c r="AE5" s="14">
         <v>72</v>
       </c>
-      <c r="AE5" s="14" t="s">
+      <c r="AF5" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="AF5" s="14"/>
-      <c r="AG5" t="s">
-        <v>402</v>
-      </c>
-      <c r="AH5" t="s">
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="55" t="s">
         <v>216</v>
       </c>
       <c r="AI5" t="s">
@@ -2602,10 +2669,10 @@
       <c r="AP5" t="s">
         <v>429</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AQ5" s="57" t="s">
         <v>434</v>
       </c>
-      <c r="AR5" s="36"/>
+      <c r="AR5" s="59"/>
       <c r="AZ5" s="14">
         <v>4</v>
       </c>
@@ -2623,57 +2690,57 @@
       <c r="B6" t="s">
         <v>403</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="36" t="s">
+        <v>407</v>
+      </c>
+      <c r="D6" t="s">
         <v>449</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>444</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>445</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>404</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" s="55" t="s">
         <v>403</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>257</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>378</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>350</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>307</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>405</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>379</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>380</v>
       </c>
-      <c r="X6" s="36"/>
-      <c r="AB6" t="s">
+      <c r="Y6" s="36"/>
+      <c r="AC6" s="55" t="s">
         <v>406</v>
       </c>
-      <c r="AD6" s="14">
+      <c r="AE6" s="14">
         <v>73</v>
       </c>
-      <c r="AE6" s="14" t="s">
+      <c r="AF6" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="AF6" s="14"/>
-      <c r="AG6" t="s">
-        <v>407</v>
-      </c>
-      <c r="AH6" t="s">
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="55" t="s">
         <v>216</v>
       </c>
       <c r="AI6" t="s">
@@ -2697,10 +2764,10 @@
       <c r="AP6" t="s">
         <v>430</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AQ6" s="57" t="s">
         <v>435</v>
       </c>
-      <c r="AR6" s="36"/>
+      <c r="AR6" s="59"/>
       <c r="AZ6" s="17" t="s">
         <v>408</v>
       </c>
@@ -2718,57 +2785,57 @@
       <c r="B7" t="s">
         <v>376</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="36" t="s">
+        <v>382</v>
+      </c>
+      <c r="D7" t="s">
         <v>449</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>444</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>445</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>377</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" s="55" t="s">
         <v>376</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>257</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>378</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>350</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>307</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>262</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>379</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>380</v>
       </c>
-      <c r="X7" s="36"/>
-      <c r="AB7" t="s">
+      <c r="Y7" s="36"/>
+      <c r="AC7" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="AD7" s="14">
+      <c r="AE7" s="14">
         <v>247</v>
       </c>
-      <c r="AE7" s="49" t="s">
+      <c r="AF7" s="49" t="s">
         <v>421</v>
       </c>
-      <c r="AF7" s="49"/>
-      <c r="AG7" t="s">
-        <v>382</v>
-      </c>
-      <c r="AH7" t="s">
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="55" t="s">
         <v>216</v>
       </c>
       <c r="AI7" t="s">
@@ -2792,10 +2859,10 @@
       <c r="AP7" t="s">
         <v>426</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AQ7" s="57" t="s">
         <v>431</v>
       </c>
-      <c r="AR7" s="36"/>
+      <c r="AR7" s="59"/>
       <c r="AZ7" s="14" t="s">
         <v>383</v>
       </c>
@@ -2807,309 +2874,314 @@
       </c>
     </row>
     <row r="8" spans="1:54" ht="18.75" customHeight="1">
-      <c r="X8" s="36"/>
-      <c r="AD8" s="14"/>
+      <c r="C8" s="36"/>
+      <c r="M8" s="55"/>
+      <c r="Y8" s="36"/>
+      <c r="AC8" s="55"/>
       <c r="AE8" s="14"/>
       <c r="AF8" s="14"/>
-      <c r="AR8" s="36"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="55"/>
+      <c r="AQ8" s="57"/>
+      <c r="AR8" s="59"/>
     </row>
     <row r="9" spans="1:54" ht="18.75" customHeight="1">
-      <c r="E9" s="13"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="46"/>
-      <c r="X9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AG9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="F9" s="13"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="46"/>
+      <c r="Y9" s="36"/>
+      <c r="AC9" s="36"/>
       <c r="AH9" s="36"/>
       <c r="AR9" s="36"/>
     </row>
     <row r="10" spans="1:54" ht="18.75" customHeight="1">
-      <c r="E10" s="13"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="46"/>
-      <c r="X10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AG10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="F10" s="13"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="46"/>
+      <c r="Y10" s="36"/>
+      <c r="AC10" s="36"/>
       <c r="AH10" s="36"/>
       <c r="AR10" s="36"/>
     </row>
     <row r="11" spans="1:54" ht="18.75" customHeight="1">
-      <c r="E11" s="13"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="46"/>
-      <c r="X11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AG11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="F11" s="13"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="46"/>
+      <c r="Y11" s="36"/>
+      <c r="AC11" s="36"/>
       <c r="AH11" s="36"/>
       <c r="AR11" s="36"/>
     </row>
     <row r="12" spans="1:54" ht="18.75" customHeight="1">
-      <c r="E12" s="13"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="46"/>
-      <c r="X12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AG12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="F12" s="13"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="46"/>
+      <c r="Y12" s="36"/>
+      <c r="AC12" s="36"/>
       <c r="AH12" s="36"/>
       <c r="AR12" s="36"/>
     </row>
     <row r="13" spans="1:54" ht="18.75" customHeight="1">
-      <c r="E13" s="13"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="46"/>
-      <c r="X13" s="36"/>
-      <c r="AB13" s="36"/>
-      <c r="AG13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="F13" s="13"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="46"/>
+      <c r="Y13" s="36"/>
+      <c r="AC13" s="36"/>
       <c r="AH13" s="36"/>
       <c r="AR13" s="36"/>
     </row>
     <row r="14" spans="1:54" ht="18.75" customHeight="1">
-      <c r="E14" s="13"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="46"/>
-      <c r="X14" s="36"/>
-      <c r="AB14" s="36"/>
-      <c r="AG14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="F14" s="13"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="46"/>
+      <c r="Y14" s="36"/>
+      <c r="AC14" s="36"/>
       <c r="AH14" s="36"/>
       <c r="AR14" s="36"/>
     </row>
     <row r="15" spans="1:54" ht="18.75" customHeight="1">
-      <c r="E15" s="13"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="46"/>
-      <c r="X15" s="36"/>
-      <c r="AB15" s="36"/>
-      <c r="AG15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="F15" s="13"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="46"/>
+      <c r="Y15" s="36"/>
+      <c r="AC15" s="36"/>
       <c r="AH15" s="36"/>
       <c r="AR15" s="36"/>
     </row>
     <row r="16" spans="1:54" ht="18.75" customHeight="1">
-      <c r="E16" s="13"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="46"/>
-      <c r="X16" s="36"/>
-      <c r="AB16" s="36"/>
-      <c r="AG16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="F16" s="13"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="46"/>
+      <c r="Y16" s="36"/>
+      <c r="AC16" s="36"/>
       <c r="AH16" s="36"/>
       <c r="AR16" s="36"/>
     </row>
-    <row r="17" spans="5:44" ht="18.75" customHeight="1">
-      <c r="E17" s="13"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="46"/>
-      <c r="X17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AG17" s="36"/>
+    <row r="17" spans="3:44" ht="18.75" customHeight="1">
+      <c r="C17" s="36"/>
+      <c r="F17" s="13"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="46"/>
+      <c r="Y17" s="36"/>
+      <c r="AC17" s="36"/>
       <c r="AH17" s="36"/>
       <c r="AR17" s="36"/>
     </row>
-    <row r="18" spans="5:44" ht="18.75" customHeight="1">
-      <c r="E18" s="13"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="46"/>
-      <c r="X18" s="36"/>
-      <c r="AB18" s="36"/>
-      <c r="AG18" s="36"/>
+    <row r="18" spans="3:44" ht="18.75" customHeight="1">
+      <c r="C18" s="36"/>
+      <c r="F18" s="13"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="46"/>
+      <c r="Y18" s="36"/>
+      <c r="AC18" s="36"/>
       <c r="AH18" s="36"/>
       <c r="AR18" s="36"/>
     </row>
-    <row r="19" spans="5:44" ht="18.75" customHeight="1">
-      <c r="E19" s="13"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="46"/>
-      <c r="X19" s="36"/>
-      <c r="AB19" s="36"/>
-      <c r="AG19" s="36"/>
+    <row r="19" spans="3:44" ht="18.75" customHeight="1">
+      <c r="C19" s="36"/>
+      <c r="F19" s="13"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="46"/>
+      <c r="Y19" s="36"/>
+      <c r="AC19" s="36"/>
       <c r="AH19" s="36"/>
       <c r="AR19" s="36"/>
     </row>
-    <row r="20" spans="5:44" ht="18.75" customHeight="1">
-      <c r="E20" s="13"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="46"/>
-      <c r="X20" s="36"/>
-      <c r="AB20" s="36"/>
-      <c r="AG20" s="36"/>
+    <row r="20" spans="3:44" ht="18.75" customHeight="1">
+      <c r="C20" s="36"/>
+      <c r="F20" s="13"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="46"/>
+      <c r="Y20" s="36"/>
+      <c r="AC20" s="36"/>
       <c r="AH20" s="36"/>
       <c r="AR20" s="36"/>
     </row>
-    <row r="21" spans="5:44" ht="18.75" customHeight="1">
-      <c r="E21" s="13"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="46"/>
-      <c r="X21" s="36"/>
-      <c r="AB21" s="36"/>
-      <c r="AG21" s="36"/>
+    <row r="21" spans="3:44" ht="18.75" customHeight="1">
+      <c r="C21" s="36"/>
+      <c r="F21" s="13"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="46"/>
+      <c r="Y21" s="36"/>
+      <c r="AC21" s="36"/>
       <c r="AH21" s="36"/>
       <c r="AR21" s="36"/>
     </row>
-    <row r="22" spans="5:44" ht="18.75" customHeight="1">
-      <c r="E22" s="13"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="46"/>
-      <c r="X22" s="36"/>
-      <c r="AB22" s="36"/>
-      <c r="AG22" s="36"/>
+    <row r="22" spans="3:44" ht="18.75" customHeight="1">
+      <c r="C22" s="36"/>
+      <c r="F22" s="13"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="46"/>
+      <c r="Y22" s="36"/>
+      <c r="AC22" s="36"/>
       <c r="AH22" s="36"/>
       <c r="AR22" s="36"/>
     </row>
-    <row r="23" spans="5:44" ht="18.75" customHeight="1">
-      <c r="E23" s="13"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="46"/>
-      <c r="X23" s="36"/>
-      <c r="AB23" s="36"/>
-      <c r="AG23" s="36"/>
+    <row r="23" spans="3:44" ht="18.75" customHeight="1">
+      <c r="C23" s="36"/>
+      <c r="F23" s="13"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="46"/>
+      <c r="Y23" s="36"/>
+      <c r="AC23" s="36"/>
       <c r="AH23" s="36"/>
       <c r="AR23" s="36"/>
     </row>
-    <row r="24" spans="5:44" ht="18.75" customHeight="1">
-      <c r="E24" s="13"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="46"/>
-      <c r="X24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AG24" s="36"/>
+    <row r="24" spans="3:44" ht="18.75" customHeight="1">
+      <c r="C24" s="36"/>
+      <c r="F24" s="13"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="46"/>
+      <c r="Y24" s="36"/>
+      <c r="AC24" s="36"/>
       <c r="AH24" s="36"/>
       <c r="AR24" s="36"/>
     </row>
-    <row r="25" spans="5:44" ht="18.75" customHeight="1">
-      <c r="E25" s="13"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="46"/>
-      <c r="X25" s="36"/>
-      <c r="AB25" s="36"/>
-      <c r="AG25" s="36"/>
+    <row r="25" spans="3:44" ht="18.75" customHeight="1">
+      <c r="C25" s="36"/>
+      <c r="F25" s="13"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="46"/>
+      <c r="Y25" s="36"/>
+      <c r="AC25" s="36"/>
       <c r="AH25" s="36"/>
       <c r="AR25" s="36"/>
     </row>
-    <row r="26" spans="5:44" ht="18.75" customHeight="1">
-      <c r="E26" s="13"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="46"/>
-      <c r="X26" s="36"/>
-      <c r="AB26" s="36"/>
-      <c r="AG26" s="36"/>
+    <row r="26" spans="3:44" ht="18.75" customHeight="1">
+      <c r="C26" s="36"/>
+      <c r="F26" s="13"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="46"/>
+      <c r="Y26" s="36"/>
+      <c r="AC26" s="36"/>
       <c r="AH26" s="36"/>
       <c r="AR26" s="36"/>
     </row>
-    <row r="27" spans="5:44" ht="18.75" customHeight="1">
-      <c r="E27" s="13"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="46"/>
-      <c r="X27" s="36"/>
-      <c r="AB27" s="36"/>
-      <c r="AG27" s="36"/>
+    <row r="27" spans="3:44" ht="18.75" customHeight="1">
+      <c r="C27" s="36"/>
+      <c r="F27" s="13"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="46"/>
+      <c r="Y27" s="36"/>
+      <c r="AC27" s="36"/>
       <c r="AH27" s="36"/>
       <c r="AR27" s="36"/>
     </row>
-    <row r="28" spans="5:44" ht="18.75" customHeight="1">
-      <c r="E28" s="13"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="46"/>
-      <c r="X28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AG28" s="36"/>
+    <row r="28" spans="3:44" ht="18.75" customHeight="1">
+      <c r="C28" s="36"/>
+      <c r="F28" s="13"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="46"/>
+      <c r="Y28" s="36"/>
+      <c r="AC28" s="36"/>
       <c r="AH28" s="36"/>
       <c r="AR28" s="36"/>
     </row>
-    <row r="29" spans="5:44" ht="18.75" customHeight="1">
-      <c r="E29" s="13"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="46"/>
-      <c r="X29" s="36"/>
-      <c r="AB29" s="36"/>
-      <c r="AG29" s="36"/>
+    <row r="29" spans="3:44" ht="18.75" customHeight="1">
+      <c r="C29" s="36"/>
+      <c r="F29" s="13"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="46"/>
+      <c r="Y29" s="36"/>
+      <c r="AC29" s="36"/>
       <c r="AH29" s="36"/>
       <c r="AR29" s="36"/>
     </row>
-    <row r="30" spans="5:44" ht="18.75" customHeight="1">
-      <c r="E30" s="13"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="46"/>
-      <c r="X30" s="36"/>
-      <c r="AB30" s="36"/>
-      <c r="AG30" s="36"/>
+    <row r="30" spans="3:44" ht="18.75" customHeight="1">
+      <c r="C30" s="36"/>
+      <c r="F30" s="13"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="46"/>
+      <c r="Y30" s="36"/>
+      <c r="AC30" s="36"/>
       <c r="AH30" s="36"/>
       <c r="AR30" s="36"/>
     </row>
-    <row r="31" spans="5:44" ht="18.75" customHeight="1">
-      <c r="E31" s="13"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="46"/>
-      <c r="X31" s="36"/>
-      <c r="AB31" s="36"/>
-      <c r="AG31" s="36"/>
+    <row r="31" spans="3:44" ht="18.75" customHeight="1">
+      <c r="C31" s="36"/>
+      <c r="F31" s="13"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="46"/>
+      <c r="Y31" s="36"/>
+      <c r="AC31" s="36"/>
       <c r="AH31" s="36"/>
       <c r="AR31" s="36"/>
     </row>
-    <row r="32" spans="5:44" ht="18.75" customHeight="1">
-      <c r="E32" s="13"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="46"/>
-      <c r="X32" s="36"/>
-      <c r="AB32" s="36"/>
-      <c r="AG32" s="36"/>
+    <row r="32" spans="3:44" ht="18.75" customHeight="1">
+      <c r="C32" s="36"/>
+      <c r="F32" s="13"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="46"/>
+      <c r="Y32" s="36"/>
+      <c r="AC32" s="36"/>
       <c r="AH32" s="36"/>
       <c r="AR32" s="36"/>
     </row>
-    <row r="33" spans="5:44" ht="18.75" customHeight="1">
-      <c r="E33" s="13"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="46"/>
-      <c r="X33" s="36"/>
-      <c r="AB33" s="36"/>
-      <c r="AG33" s="36"/>
+    <row r="33" spans="3:44" ht="18.75" customHeight="1">
+      <c r="C33" s="36"/>
+      <c r="F33" s="13"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="46"/>
+      <c r="Y33" s="36"/>
+      <c r="AC33" s="36"/>
       <c r="AH33" s="36"/>
       <c r="AR33" s="36"/>
     </row>
-    <row r="34" spans="5:44" ht="18.75" customHeight="1">
-      <c r="E34" s="13"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="46"/>
-      <c r="X34" s="36"/>
-      <c r="AB34" s="36"/>
-      <c r="AG34" s="36"/>
+    <row r="34" spans="3:44" ht="18.75" customHeight="1">
+      <c r="C34" s="36"/>
+      <c r="F34" s="13"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="46"/>
+      <c r="Y34" s="36"/>
+      <c r="AC34" s="36"/>
       <c r="AH34" s="36"/>
       <c r="AR34" s="36"/>
     </row>
-    <row r="35" spans="5:44" ht="18.75" customHeight="1">
-      <c r="E35" s="13"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="46"/>
-      <c r="X35" s="36"/>
-      <c r="AB35" s="36"/>
-      <c r="AG35" s="36"/>
+    <row r="35" spans="3:44" ht="18.75" customHeight="1">
+      <c r="C35" s="36"/>
+      <c r="F35" s="13"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="46"/>
+      <c r="Y35" s="36"/>
+      <c r="AC35" s="36"/>
       <c r="AH35" s="36"/>
       <c r="AR35" s="36"/>
     </row>
-    <row r="36" spans="5:44" ht="18.75" customHeight="1">
-      <c r="E36" s="13"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="46"/>
-      <c r="X36" s="36"/>
-      <c r="AB36" s="36"/>
-      <c r="AG36" s="36"/>
+    <row r="36" spans="3:44" ht="18.75" customHeight="1">
+      <c r="C36" s="36"/>
+      <c r="F36" s="13"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="46"/>
+      <c r="Y36" s="36"/>
+      <c r="AC36" s="36"/>
       <c r="AH36" s="36"/>
       <c r="AR36" s="36"/>
     </row>
-    <row r="37" spans="5:44" ht="18.75" customHeight="1">
-      <c r="E37" s="13"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="46"/>
-      <c r="X37" s="36"/>
-      <c r="AB37" s="36"/>
-      <c r="AG37" s="36"/>
+    <row r="37" spans="3:44" ht="18.75" customHeight="1">
+      <c r="C37" s="36"/>
+      <c r="F37" s="13"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="46"/>
+      <c r="Y37" s="36"/>
+      <c r="AC37" s="36"/>
       <c r="AH37" s="36"/>
       <c r="AR37" s="36"/>
     </row>
-    <row r="38" spans="5:44" ht="18.75" customHeight="1">
-      <c r="E38" s="13"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="46"/>
-      <c r="X38" s="36"/>
-      <c r="AB38" s="36"/>
-      <c r="AG38" s="36"/>
+    <row r="38" spans="3:44" ht="18.75" customHeight="1">
+      <c r="C38" s="36"/>
+      <c r="F38" s="13"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="46"/>
+      <c r="Y38" s="36"/>
+      <c r="AC38" s="36"/>
       <c r="AH38" s="36"/>
       <c r="AR38" s="36"/>
     </row>
@@ -4951,8 +5023,8 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -4966,10 +5038,10 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4983,10 +5055,10 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="52"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -5000,10 +5072,10 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -5017,10 +5089,10 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -5034,10 +5106,10 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -5051,10 +5123,10 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="52"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -5068,10 +5140,10 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="52"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -5085,10 +5157,10 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="52"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -5102,10 +5174,10 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="52"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -5119,10 +5191,10 @@
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="52"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -5136,10 +5208,10 @@
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -5153,10 +5225,10 @@
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="52"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -5170,10 +5242,10 @@
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="52"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -5187,10 +5259,10 @@
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="52"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -5204,10 +5276,10 @@
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="52"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -5221,10 +5293,10 @@
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="52"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -5238,10 +5310,10 @@
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="52"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -5255,10 +5327,10 @@
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="52"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -5272,10 +5344,10 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -5289,10 +5361,10 @@
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="52"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -5306,10 +5378,10 @@
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="52"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -5323,10 +5395,10 @@
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -5340,10 +5412,10 @@
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="52"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -5553,10 +5625,10 @@
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="52"/>
+      <c r="C37" s="60"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -5568,8 +5640,8 @@
     </row>
     <row r="38" spans="1:11" ht="18.75" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -5583,10 +5655,10 @@
       <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="53"/>
+      <c r="C39" s="61"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -5600,10 +5672,10 @@
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="52"/>
+      <c r="C40" s="60"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -5617,10 +5689,10 @@
       <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="52"/>
+      <c r="C41" s="60"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -5634,10 +5706,10 @@
       <c r="A42" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="52"/>
+      <c r="C42" s="60"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -5651,10 +5723,10 @@
       <c r="A43" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="52"/>
+      <c r="C43" s="60"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -5668,10 +5740,10 @@
       <c r="A44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="52"/>
+      <c r="C44" s="60"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -5685,10 +5757,10 @@
       <c r="A45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="52"/>
+      <c r="C45" s="60"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -5732,10 +5804,10 @@
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="52"/>
+      <c r="C48" s="60"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -5747,8 +5819,8 @@
     </row>
     <row r="49" spans="1:11" ht="18.75" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -5762,10 +5834,10 @@
       <c r="A50" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="52"/>
+      <c r="C50" s="60"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -5779,10 +5851,10 @@
       <c r="A51" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="52"/>
+      <c r="C51" s="60"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -5796,10 +5868,10 @@
       <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="52"/>
+      <c r="C52" s="60"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -5813,10 +5885,10 @@
       <c r="A53" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="52"/>
+      <c r="C53" s="60"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -5830,10 +5902,10 @@
       <c r="A54" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="52"/>
+      <c r="C54" s="60"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -5847,10 +5919,10 @@
       <c r="A55" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="52"/>
+      <c r="C55" s="60"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -5864,10 +5936,10 @@
       <c r="A56" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="52" t="s">
+      <c r="B56" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="C56" s="52"/>
+      <c r="C56" s="60"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -5881,10 +5953,10 @@
       <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="52"/>
+      <c r="C57" s="60"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -5898,10 +5970,10 @@
       <c r="A58" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B58" s="52" t="s">
+      <c r="B58" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="52"/>
+      <c r="C58" s="60"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -5915,10 +5987,10 @@
       <c r="A59" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="52" t="s">
+      <c r="B59" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="52"/>
+      <c r="C59" s="60"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -5932,10 +6004,10 @@
       <c r="A60" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="52" t="s">
+      <c r="B60" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="C60" s="52"/>
+      <c r="C60" s="60"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -5949,10 +6021,10 @@
       <c r="A61" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="52" t="s">
+      <c r="B61" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="52"/>
+      <c r="C61" s="60"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -5966,10 +6038,10 @@
       <c r="A62" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="52" t="s">
+      <c r="B62" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="52"/>
+      <c r="C62" s="60"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -5983,10 +6055,10 @@
       <c r="A63" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B63" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="52"/>
+      <c r="C63" s="60"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -6000,10 +6072,10 @@
       <c r="A64" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="52"/>
+      <c r="C64" s="60"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -6017,10 +6089,10 @@
       <c r="A65" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B65" s="52" t="s">
+      <c r="B65" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="C65" s="52"/>
+      <c r="C65" s="60"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -6034,10 +6106,10 @@
       <c r="A66" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B66" s="52" t="s">
+      <c r="B66" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="C66" s="52"/>
+      <c r="C66" s="60"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -6051,10 +6123,10 @@
       <c r="A67" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B67" s="52" t="s">
+      <c r="B67" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="C67" s="52"/>
+      <c r="C67" s="60"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -6068,10 +6140,10 @@
       <c r="A68" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="C68" s="52"/>
+      <c r="C68" s="60"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -6085,10 +6157,10 @@
       <c r="A69" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B69" s="52" t="s">
+      <c r="B69" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="52"/>
+      <c r="C69" s="60"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -6102,10 +6174,10 @@
       <c r="A70" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B70" s="52" t="s">
+      <c r="B70" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="C70" s="52"/>
+      <c r="C70" s="60"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -6119,10 +6191,10 @@
       <c r="A71" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="52"/>
+      <c r="C71" s="60"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -6136,10 +6208,10 @@
       <c r="A72" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B72" s="52" t="s">
+      <c r="B72" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="52"/>
+      <c r="C72" s="60"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -6153,10 +6225,10 @@
       <c r="A73" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B73" s="52" t="s">
+      <c r="B73" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="52"/>
+      <c r="C73" s="60"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -6170,10 +6242,10 @@
       <c r="A74" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B74" s="52" t="s">
+      <c r="B74" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="C74" s="52"/>
+      <c r="C74" s="60"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -6187,10 +6259,10 @@
       <c r="A75" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B75" s="52" t="s">
+      <c r="B75" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="52"/>
+      <c r="C75" s="60"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -6204,10 +6276,10 @@
       <c r="A76" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B76" s="52" t="s">
+      <c r="B76" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C76" s="52"/>
+      <c r="C76" s="60"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -6221,10 +6293,10 @@
       <c r="A77" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B77" s="52" t="s">
+      <c r="B77" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="52"/>
+      <c r="C77" s="60"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
